--- a/app/resource/xlsx/fee_proposal_template_3.xlsx
+++ b/app/resource/xlsx/fee_proposal_template_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeezh\xero-asana-intergration\app\resource\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zero\Documents\GitHub\xero-asana-intergration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C52305A-DC01-4EBD-B961-9D7362207397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E8438B-02FF-49F9-9604-A408975EE8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="ClientCompany">#REF!</definedName>
     <definedName name="MainContactAddress">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Fee Proposal'!$A$1:$I$297</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Fee Proposal'!$A$1:$I$309</definedName>
     <definedName name="ProjectName">#REF!</definedName>
     <definedName name="ProjectType">#REF!</definedName>
     <definedName name="QuotationNumber">#REF!</definedName>
@@ -818,62 +818,62 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -924,7 +924,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>323023</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>16567</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="737151" cy="746051"/>
@@ -969,13 +969,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>283770</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>58815</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1317,10 +1317,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96441BBC-02AB-4FA6-8E6A-4E6138E77562}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:X298"/>
+  <dimension ref="A1:X310"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A183" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219:E219"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A153" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161:XFD161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1339,16 +1339,16 @@
       <c r="A1" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47" t="e">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="15"/>
@@ -1356,10 +1356,10 @@
       <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="19"/>
@@ -1412,15 +1412,15 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1445,26 +1445,26 @@
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1472,93 +1472,93 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1587,16 +1587,16 @@
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="7"/>
@@ -1605,16 +1605,16 @@
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
@@ -1623,16 +1623,16 @@
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
@@ -1668,16 +1668,16 @@
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -1688,32 +1688,32 @@
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1738,46 +1738,46 @@
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
     </row>
@@ -1808,46 +1808,46 @@
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -3023,171 +3023,129 @@
       <c r="H162" s="20"/>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="16"/>
-      <c r="H163" s="16"/>
-    </row>
-    <row r="164" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B164" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="D164" s="16"/>
-      <c r="E164" s="16"/>
-      <c r="F164" s="16"/>
-      <c r="G164" s="16"/>
-      <c r="H164" s="16"/>
-      <c r="I164" s="33"/>
-    </row>
-    <row r="165" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B165" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16"/>
-      <c r="F165" s="16"/>
-      <c r="G165" s="16"/>
-      <c r="H165" s="16"/>
-      <c r="I165" s="33"/>
-    </row>
-    <row r="166" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="35"/>
-      <c r="B166" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="C166" s="48"/>
-      <c r="D166" s="48"/>
-      <c r="E166" s="48"/>
-      <c r="F166" s="48"/>
-      <c r="G166" s="48"/>
-      <c r="H166" s="48"/>
-      <c r="I166" s="48"/>
-    </row>
-    <row r="167" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="35"/>
-      <c r="B167" s="48"/>
-      <c r="C167" s="48"/>
-      <c r="D167" s="48"/>
-      <c r="E167" s="48"/>
-      <c r="F167" s="48"/>
-      <c r="G167" s="48"/>
-      <c r="H167" s="48"/>
-      <c r="I167" s="48"/>
-    </row>
-    <row r="168" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="35"/>
-      <c r="B168" s="48"/>
-      <c r="C168" s="48"/>
-      <c r="D168" s="48"/>
-      <c r="E168" s="48"/>
-      <c r="F168" s="48"/>
-      <c r="G168" s="48"/>
-      <c r="H168" s="48"/>
-      <c r="I168" s="48"/>
-    </row>
-    <row r="169" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="35"/>
-      <c r="B169" s="48"/>
-      <c r="C169" s="48"/>
-      <c r="D169" s="48"/>
-      <c r="E169" s="48"/>
-      <c r="F169" s="48"/>
-      <c r="G169" s="48"/>
-      <c r="H169" s="48"/>
-      <c r="I169" s="48"/>
-    </row>
-    <row r="170" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="35"/>
-      <c r="B170" s="34"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="16"/>
-      <c r="F170" s="16"/>
-      <c r="G170" s="16"/>
-      <c r="H170" s="16"/>
-      <c r="I170" s="33"/>
-    </row>
-    <row r="171" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="34">
-        <v>3.2</v>
-      </c>
-      <c r="B171" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D171" s="16"/>
-      <c r="E171" s="16"/>
-      <c r="F171" s="16"/>
-      <c r="G171" s="16"/>
-      <c r="H171" s="16"/>
-      <c r="I171" s="33"/>
-    </row>
-    <row r="172" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="35"/>
-      <c r="B172" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="C172" s="48"/>
-      <c r="D172" s="48"/>
-      <c r="E172" s="48"/>
-      <c r="F172" s="48"/>
-      <c r="G172" s="48"/>
-      <c r="H172" s="48"/>
-      <c r="I172" s="48"/>
-    </row>
-    <row r="173" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="35"/>
-      <c r="B173" s="48"/>
-      <c r="C173" s="48"/>
-      <c r="D173" s="48"/>
-      <c r="E173" s="48"/>
-      <c r="F173" s="48"/>
-      <c r="G173" s="48"/>
-      <c r="H173" s="48"/>
-      <c r="I173" s="48"/>
-    </row>
-    <row r="174" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D174" s="16"/>
-      <c r="E174" s="16"/>
-      <c r="F174" s="16"/>
-      <c r="G174" s="16"/>
-      <c r="H174" s="16"/>
-      <c r="I174" s="33"/>
-    </row>
-    <row r="175" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>132</v>
-      </c>
+    <row r="163" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+    </row>
+    <row r="164" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+    </row>
+    <row r="165" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+    </row>
+    <row r="166" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+    </row>
+    <row r="167" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+    </row>
+    <row r="168" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+    </row>
+    <row r="169" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+    </row>
+    <row r="170" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+    </row>
+    <row r="171" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="20"/>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+    </row>
+    <row r="172" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+    </row>
+    <row r="173" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+    </row>
+    <row r="174" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C174" s="20"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="20"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+    </row>
+    <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
       <c r="D175" s="16"/>
       <c r="E175" s="16"/>
       <c r="F175" s="16"/>
       <c r="G175" s="16"/>
       <c r="H175" s="16"/>
-      <c r="I175" s="33"/>
-    </row>
-    <row r="176" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>133</v>
+    </row>
+    <row r="176" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B176" s="34" t="s">
+        <v>116</v>
       </c>
       <c r="D176" s="16"/>
       <c r="E176" s="16"/>
@@ -3196,9 +3154,13 @@
       <c r="H176" s="16"/>
       <c r="I176" s="33"/>
     </row>
-    <row r="177" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
-      <c r="B177" s="7"/>
+    <row r="177" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B177" s="34" t="s">
+        <v>126</v>
+      </c>
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
       <c r="F177" s="16"/>
@@ -3206,409 +3168,377 @@
       <c r="H177" s="16"/>
       <c r="I177" s="33"/>
     </row>
-    <row r="178" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="10"/>
-      <c r="B178" s="7"/>
-      <c r="D178" s="16"/>
-      <c r="E178" s="16"/>
-      <c r="F178" s="16"/>
-      <c r="G178" s="16"/>
-      <c r="H178" s="16"/>
-      <c r="I178" s="33"/>
-    </row>
-    <row r="179" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="35"/>
+      <c r="B178" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C178" s="47"/>
+      <c r="D178" s="47"/>
+      <c r="E178" s="47"/>
+      <c r="F178" s="47"/>
+      <c r="G178" s="47"/>
+      <c r="H178" s="47"/>
+      <c r="I178" s="47"/>
+    </row>
+    <row r="179" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="35"/>
-      <c r="B179" s="34"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="16"/>
-      <c r="F179" s="16"/>
-      <c r="G179" s="16"/>
-      <c r="H179" s="16"/>
-      <c r="I179" s="33"/>
-    </row>
-    <row r="180" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="34">
+      <c r="B179" s="47"/>
+      <c r="C179" s="47"/>
+      <c r="D179" s="47"/>
+      <c r="E179" s="47"/>
+      <c r="F179" s="47"/>
+      <c r="G179" s="47"/>
+      <c r="H179" s="47"/>
+      <c r="I179" s="47"/>
+    </row>
+    <row r="180" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="35"/>
+      <c r="B180" s="47"/>
+      <c r="C180" s="47"/>
+      <c r="D180" s="47"/>
+      <c r="E180" s="47"/>
+      <c r="F180" s="47"/>
+      <c r="G180" s="47"/>
+      <c r="H180" s="47"/>
+      <c r="I180" s="47"/>
+    </row>
+    <row r="181" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="35"/>
+      <c r="B181" s="47"/>
+      <c r="C181" s="47"/>
+      <c r="D181" s="47"/>
+      <c r="E181" s="47"/>
+      <c r="F181" s="47"/>
+      <c r="G181" s="47"/>
+      <c r="H181" s="47"/>
+      <c r="I181" s="47"/>
+    </row>
+    <row r="182" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="35"/>
+      <c r="B182" s="34"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="16"/>
+      <c r="G182" s="16"/>
+      <c r="H182" s="16"/>
+      <c r="I182" s="33"/>
+    </row>
+    <row r="183" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="34">
+        <v>3.2</v>
+      </c>
+      <c r="B183" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D183" s="16"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="16"/>
+      <c r="G183" s="16"/>
+      <c r="H183" s="16"/>
+      <c r="I183" s="33"/>
+    </row>
+    <row r="184" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="35"/>
+      <c r="B184" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C184" s="47"/>
+      <c r="D184" s="47"/>
+      <c r="E184" s="47"/>
+      <c r="F184" s="47"/>
+      <c r="G184" s="47"/>
+      <c r="H184" s="47"/>
+      <c r="I184" s="47"/>
+    </row>
+    <row r="185" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="35"/>
+      <c r="B185" s="47"/>
+      <c r="C185" s="47"/>
+      <c r="D185" s="47"/>
+      <c r="E185" s="47"/>
+      <c r="F185" s="47"/>
+      <c r="G185" s="47"/>
+      <c r="H185" s="47"/>
+      <c r="I185" s="47"/>
+    </row>
+    <row r="186" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="16"/>
+      <c r="H186" s="16"/>
+      <c r="I186" s="33"/>
+    </row>
+    <row r="187" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="16"/>
+      <c r="G187" s="16"/>
+      <c r="H187" s="16"/>
+      <c r="I187" s="33"/>
+    </row>
+    <row r="188" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D188" s="16"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="16"/>
+      <c r="G188" s="16"/>
+      <c r="H188" s="16"/>
+      <c r="I188" s="33"/>
+    </row>
+    <row r="189" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="10"/>
+      <c r="B189" s="7"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="16"/>
+      <c r="F189" s="16"/>
+      <c r="G189" s="16"/>
+      <c r="H189" s="16"/>
+      <c r="I189" s="33"/>
+    </row>
+    <row r="190" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="10"/>
+      <c r="B190" s="7"/>
+      <c r="D190" s="16"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="16"/>
+      <c r="G190" s="16"/>
+      <c r="H190" s="16"/>
+      <c r="I190" s="33"/>
+    </row>
+    <row r="191" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="35"/>
+      <c r="B191" s="34"/>
+      <c r="D191" s="16"/>
+      <c r="E191" s="16"/>
+      <c r="F191" s="16"/>
+      <c r="G191" s="16"/>
+      <c r="H191" s="16"/>
+      <c r="I191" s="33"/>
+    </row>
+    <row r="192" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="34">
         <v>3.3</v>
       </c>
-      <c r="B180" s="34" t="s">
+      <c r="B192" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D180" s="16"/>
-      <c r="E180" s="16"/>
-      <c r="F180" s="16"/>
-      <c r="G180" s="16"/>
-      <c r="H180" s="16"/>
-      <c r="I180" s="33"/>
-    </row>
-    <row r="181" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="34"/>
-      <c r="B181" s="46" t="s">
+      <c r="D192" s="16"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="16"/>
+      <c r="G192" s="16"/>
+      <c r="H192" s="16"/>
+      <c r="I192" s="33"/>
+    </row>
+    <row r="193" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="34"/>
+      <c r="B193" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C181" s="46"/>
-      <c r="D181" s="46"/>
-      <c r="E181" s="46"/>
-      <c r="F181" s="46"/>
-      <c r="G181" s="46"/>
-      <c r="H181" s="46"/>
-      <c r="I181" s="46"/>
-      <c r="Q181" s="34"/>
-    </row>
-    <row r="182" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="10" t="str">
-        <f t="shared" ref="A182:A191" si="3">IF(B182&lt;&gt;"","•","")</f>
+      <c r="C193" s="51"/>
+      <c r="D193" s="51"/>
+      <c r="E193" s="51"/>
+      <c r="F193" s="51"/>
+      <c r="G193" s="51"/>
+      <c r="H193" s="51"/>
+      <c r="I193" s="51"/>
+      <c r="Q193" s="34"/>
+    </row>
+    <row r="194" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="10" t="str">
+        <f t="shared" ref="A194:A203" si="3">IF(B194&lt;&gt;"","•","")</f>
         <v/>
       </c>
-      <c r="B182" s="5" t="str" cm="1">
-        <f t="array" ref="B182">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
+      <c r="B194" s="5" t="str" cm="1">
+        <f t="array" ref="B194">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
       </c>
-      <c r="C182" s="7"/>
-      <c r="D182" s="9"/>
-      <c r="E182" s="7"/>
-      <c r="F182" s="9"/>
-      <c r="Q182" s="10"/>
-    </row>
-    <row r="183" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="10" t="str">
+      <c r="C194" s="7"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="9"/>
+      <c r="Q194" s="10"/>
+    </row>
+    <row r="195" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B183" s="5" t="str" cm="1">
-        <f t="array" ref="B183">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
+      <c r="B195" s="5" t="str" cm="1">
+        <f t="array" ref="B195">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
       </c>
-      <c r="C183" s="7"/>
-      <c r="D183" s="23"/>
-      <c r="E183" s="22"/>
-      <c r="F183" s="23"/>
-      <c r="Q183" s="10"/>
-    </row>
-    <row r="184" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="10" t="str">
+      <c r="C195" s="7"/>
+      <c r="D195" s="23"/>
+      <c r="E195" s="22"/>
+      <c r="F195" s="23"/>
+      <c r="Q195" s="10"/>
+    </row>
+    <row r="196" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B184" s="5" t="str" cm="1">
-        <f t="array" ref="B184">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
+      <c r="B196" s="5" t="str" cm="1">
+        <f t="array" ref="B196">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
       </c>
-      <c r="C184" s="7"/>
-      <c r="D184" s="23"/>
-      <c r="E184" s="22"/>
-      <c r="F184" s="23"/>
-      <c r="Q184" s="10"/>
-      <c r="R184" s="7"/>
-    </row>
-    <row r="185" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="10" t="str">
+      <c r="C196" s="7"/>
+      <c r="D196" s="23"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="23"/>
+      <c r="Q196" s="10"/>
+      <c r="R196" s="7"/>
+    </row>
+    <row r="197" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B185" s="5" t="str" cm="1">
-        <f t="array" ref="B185">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
+      <c r="B197" s="5" t="str" cm="1">
+        <f t="array" ref="B197">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
       </c>
-      <c r="C185" s="12"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="22"/>
-      <c r="F185" s="22"/>
-      <c r="Q185" s="10"/>
-    </row>
-    <row r="186" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="10" t="str">
+      <c r="C197" s="12"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="22"/>
+      <c r="F197" s="22"/>
+      <c r="Q197" s="10"/>
+    </row>
+    <row r="198" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B186" s="5" t="str" cm="1">
-        <f t="array" ref="B186">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
+      <c r="B198" s="5" t="str" cm="1">
+        <f t="array" ref="B198">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
       </c>
-      <c r="C186" s="12"/>
-      <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="12"/>
-      <c r="Q186" s="10"/>
-    </row>
-    <row r="187" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="str">
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="Q198" s="10"/>
+    </row>
+    <row r="199" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B187" s="5" t="str" cm="1">
-        <f t="array" ref="B187">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
+      <c r="B199" s="5" t="str" cm="1">
+        <f t="array" ref="B199">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
       </c>
-      <c r="C187"/>
-      <c r="D187"/>
-      <c r="E187"/>
-      <c r="F187"/>
-      <c r="Q187" s="10"/>
-      <c r="R187" s="7"/>
-    </row>
-    <row r="188" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="10" t="str">
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="Q199" s="10"/>
+      <c r="R199" s="7"/>
+    </row>
+    <row r="200" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B188" s="5" t="str" cm="1">
-        <f t="array" ref="B188">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
+      <c r="B200" s="5" t="str" cm="1">
+        <f t="array" ref="B200">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
       </c>
-      <c r="C188"/>
-      <c r="D188"/>
-      <c r="E188" s="11"/>
-      <c r="F188"/>
-      <c r="Q188" s="10"/>
-    </row>
-    <row r="189" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="10" t="str">
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200" s="11"/>
+      <c r="F200"/>
+      <c r="Q200" s="10"/>
+    </row>
+    <row r="201" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B189" s="5" t="str" cm="1">
-        <f t="array" ref="B189">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
+      <c r="B201" s="5" t="str" cm="1">
+        <f t="array" ref="B201">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
       </c>
-      <c r="Q189" s="10"/>
-    </row>
-    <row r="190" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="10" t="str">
+      <c r="Q201" s="10"/>
+    </row>
+    <row r="202" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B190" s="5" t="str" cm="1">
-        <f t="array" ref="B190">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
+      <c r="B202" s="5" t="str" cm="1">
+        <f t="array" ref="B202">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
       </c>
-      <c r="C190"/>
-      <c r="D190"/>
-      <c r="E190"/>
-      <c r="F190"/>
-      <c r="Q190" s="10"/>
-    </row>
-    <row r="191" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="10" t="str">
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202"/>
+      <c r="Q202" s="10"/>
+    </row>
+    <row r="203" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B191" s="5" t="str" cm="1">
-        <f t="array" ref="B191">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
+      <c r="B203" s="5" t="str" cm="1">
+        <f t="array" ref="B203">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
       </c>
-      <c r="C191"/>
-      <c r="D191"/>
-      <c r="E191"/>
-      <c r="F191"/>
-      <c r="Q191" s="10"/>
-    </row>
-    <row r="192" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M192" s="5" t="str">
-        <f t="array" ref="M192">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
+      <c r="C203"/>
+      <c r="D203"/>
+      <c r="E203"/>
+      <c r="F203"/>
+      <c r="Q203" s="10"/>
+    </row>
+    <row r="204" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M204" s="5" t="str">
+        <f t="array" ref="M204">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
       </c>
-      <c r="N192" s="9"/>
-      <c r="O192" s="7"/>
-      <c r="P192" s="9"/>
-    </row>
-    <row r="193" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="34">
+      <c r="N204" s="9"/>
+      <c r="O204" s="7"/>
+      <c r="P204" s="9"/>
+    </row>
+    <row r="205" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="34">
         <v>3.4</v>
       </c>
-      <c r="B193" s="34" t="s">
+      <c r="B205" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="M193" s="5" t="str">
-        <f t="array" ref="M193">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
+      <c r="M205" s="5" t="str">
+        <f t="array" ref="M205">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
       </c>
-      <c r="N193" s="23"/>
-      <c r="O193" s="22"/>
-      <c r="P193" s="23"/>
-      <c r="Q193" s="5"/>
-    </row>
-    <row r="194" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="34"/>
-      <c r="B194" s="47" t="s">
+      <c r="N205" s="23"/>
+      <c r="O205" s="22"/>
+      <c r="P205" s="23"/>
+      <c r="Q205" s="5"/>
+    </row>
+    <row r="206" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="34"/>
+      <c r="B206" s="48" t="s">
         <v>8</v>
-      </c>
-      <c r="C194" s="47"/>
-      <c r="D194" s="47"/>
-      <c r="E194" s="47"/>
-      <c r="F194" s="47"/>
-      <c r="G194" s="47"/>
-      <c r="H194" s="47"/>
-      <c r="I194" s="47"/>
-      <c r="M194" s="7"/>
-      <c r="N194" s="23"/>
-      <c r="O194" s="22"/>
-      <c r="P194" s="23"/>
-      <c r="Q194" s="5"/>
-    </row>
-    <row r="195" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="34"/>
-      <c r="B195" t="s">
-        <v>9</v>
-      </c>
-      <c r="E195" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="M195" s="12"/>
-      <c r="N195" s="7"/>
-      <c r="O195" s="22"/>
-      <c r="P195" s="22"/>
-      <c r="Q195" s="5"/>
-    </row>
-    <row r="196" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
-        <v>12</v>
-      </c>
-      <c r="E196" s="5"/>
-      <c r="M196" s="12"/>
-      <c r="N196" s="12"/>
-      <c r="O196" s="12"/>
-      <c r="P196" s="12"/>
-      <c r="Q196" s="5"/>
-    </row>
-    <row r="197" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197"/>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="16"/>
-      <c r="E197" s="16"/>
-      <c r="F197" s="16"/>
-      <c r="G197" s="16"/>
-      <c r="H197" s="16"/>
-      <c r="I197"/>
-      <c r="M197" s="5"/>
-      <c r="N197" s="5"/>
-      <c r="O197"/>
-      <c r="P197"/>
-      <c r="Q197" s="5"/>
-    </row>
-    <row r="198" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B198" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D198" s="16"/>
-      <c r="E198" s="16"/>
-      <c r="F198" s="16"/>
-      <c r="G198" s="16"/>
-      <c r="H198" s="16"/>
-      <c r="I198" s="33"/>
-      <c r="M198"/>
-      <c r="N198"/>
-      <c r="O198" s="11"/>
-      <c r="P198"/>
-    </row>
-    <row r="199" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C199" s="46"/>
-      <c r="D199" s="46"/>
-      <c r="E199" s="46"/>
-      <c r="F199" s="46"/>
-      <c r="G199" s="46"/>
-      <c r="H199" s="46"/>
-      <c r="I199" s="46"/>
-      <c r="M199"/>
-      <c r="N199"/>
-    </row>
-    <row r="200" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C200" s="28"/>
-      <c r="D200" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E200" s="57"/>
-      <c r="F200" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G200" s="57"/>
-      <c r="H200" s="9"/>
-      <c r="Q200" s="5"/>
-    </row>
-    <row r="201" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C201" s="28"/>
-      <c r="D201" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E201" s="57"/>
-      <c r="F201" s="58">
-        <v>10000000</v>
-      </c>
-      <c r="G201" s="58"/>
-      <c r="H201" s="23"/>
-      <c r="I201" s="7"/>
-      <c r="M201" s="5"/>
-      <c r="N201" s="5"/>
-      <c r="O201" s="5"/>
-      <c r="P201" s="5"/>
-      <c r="Q201" s="5"/>
-    </row>
-    <row r="202" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C202" s="28"/>
-      <c r="D202" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="E202" s="57"/>
-      <c r="F202" s="58">
-        <v>20000000</v>
-      </c>
-      <c r="G202" s="58"/>
-      <c r="H202" s="23"/>
-      <c r="M202" s="9"/>
-    </row>
-    <row r="203" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C203" s="12"/>
-      <c r="D203" s="12"/>
-      <c r="E203" s="7"/>
-      <c r="F203" s="22"/>
-      <c r="G203" s="22"/>
-      <c r="H203" s="23"/>
-      <c r="M203" s="23"/>
-    </row>
-    <row r="204" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="12"/>
-      <c r="C204" s="12"/>
-      <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
-      <c r="F204" s="12"/>
-      <c r="G204" s="12"/>
-      <c r="H204" s="12"/>
-      <c r="I204" s="12"/>
-      <c r="M204" s="23"/>
-    </row>
-    <row r="205" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B205" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C205" s="36"/>
-      <c r="I205" s="33"/>
-      <c r="M205" s="22"/>
-    </row>
-    <row r="206" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-      <c r="B206" s="48" t="s">
-        <v>107</v>
       </c>
       <c r="C206" s="48"/>
       <c r="D206" s="48"/>
@@ -3617,1083 +3547,1248 @@
       <c r="G206" s="48"/>
       <c r="H206" s="48"/>
       <c r="I206" s="48"/>
-      <c r="M206" s="12"/>
-    </row>
-    <row r="207" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-      <c r="B207" s="48"/>
-      <c r="C207" s="48"/>
-      <c r="D207" s="48"/>
-      <c r="E207" s="48"/>
-      <c r="F207" s="48"/>
-      <c r="G207" s="48"/>
-      <c r="H207" s="48"/>
-      <c r="I207" s="48"/>
-    </row>
-    <row r="208" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-      <c r="B208" s="48"/>
-      <c r="C208" s="48"/>
-      <c r="D208" s="48"/>
-      <c r="E208" s="48"/>
-      <c r="F208" s="48"/>
-      <c r="G208" s="48"/>
-      <c r="H208" s="48"/>
-      <c r="I208" s="48"/>
-    </row>
-    <row r="209" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="48"/>
-      <c r="C209" s="48"/>
-      <c r="D209" s="48"/>
-      <c r="E209" s="48"/>
-      <c r="F209" s="48"/>
-      <c r="G209" s="48"/>
-      <c r="H209" s="48"/>
-      <c r="I209" s="48"/>
+      <c r="M206" s="7"/>
+      <c r="N206" s="23"/>
+      <c r="O206" s="22"/>
+      <c r="P206" s="23"/>
+      <c r="Q206" s="5"/>
+    </row>
+    <row r="207" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="34"/>
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="M207" s="12"/>
+      <c r="N207" s="7"/>
+      <c r="O207" s="22"/>
+      <c r="P207" s="22"/>
+      <c r="Q207" s="5"/>
+    </row>
+    <row r="208" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" s="5"/>
+      <c r="M208" s="12"/>
+      <c r="N208" s="12"/>
+      <c r="O208" s="12"/>
+      <c r="P208" s="12"/>
+      <c r="Q208" s="5"/>
+    </row>
+    <row r="209" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="16"/>
+      <c r="E209" s="16"/>
+      <c r="F209" s="16"/>
+      <c r="G209" s="16"/>
+      <c r="H209" s="16"/>
+      <c r="I209"/>
       <c r="M209" s="5"/>
-    </row>
-    <row r="210" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-      <c r="B210" s="13"/>
-      <c r="C210" s="13"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="13"/>
-      <c r="G210" s="13"/>
-      <c r="H210" s="13"/>
-      <c r="I210" s="13"/>
-    </row>
-    <row r="211" spans="1:13" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="35" t="s">
+      <c r="N209" s="5"/>
+      <c r="O209"/>
+      <c r="P209"/>
+      <c r="Q209" s="5"/>
+    </row>
+    <row r="210" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B210" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D210" s="16"/>
+      <c r="E210" s="16"/>
+      <c r="F210" s="16"/>
+      <c r="G210" s="16"/>
+      <c r="H210" s="16"/>
+      <c r="I210" s="33"/>
+      <c r="M210"/>
+      <c r="N210"/>
+      <c r="O210" s="11"/>
+      <c r="P210"/>
+    </row>
+    <row r="211" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C211" s="51"/>
+      <c r="D211" s="51"/>
+      <c r="E211" s="51"/>
+      <c r="F211" s="51"/>
+      <c r="G211" s="51"/>
+      <c r="H211" s="51"/>
+      <c r="I211" s="51"/>
+      <c r="M211"/>
+      <c r="N211"/>
+    </row>
+    <row r="212" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C212" s="28"/>
+      <c r="D212" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E212" s="49"/>
+      <c r="F212" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G212" s="49"/>
+      <c r="H212" s="9"/>
+      <c r="Q212" s="5"/>
+    </row>
+    <row r="213" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C213" s="28"/>
+      <c r="D213" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E213" s="49"/>
+      <c r="F213" s="50">
+        <v>10000000</v>
+      </c>
+      <c r="G213" s="50"/>
+      <c r="H213" s="23"/>
+      <c r="I213" s="7"/>
+      <c r="M213" s="5"/>
+      <c r="N213" s="5"/>
+      <c r="O213" s="5"/>
+      <c r="P213" s="5"/>
+      <c r="Q213" s="5"/>
+    </row>
+    <row r="214" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C214" s="28"/>
+      <c r="D214" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E214" s="49"/>
+      <c r="F214" s="50">
+        <v>20000000</v>
+      </c>
+      <c r="G214" s="50"/>
+      <c r="H214" s="23"/>
+      <c r="M214" s="9"/>
+    </row>
+    <row r="215" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="22"/>
+      <c r="G215" s="22"/>
+      <c r="H215" s="23"/>
+      <c r="M215" s="23"/>
+    </row>
+    <row r="216" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="12"/>
+      <c r="C216" s="12"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="12"/>
+      <c r="M216" s="23"/>
+    </row>
+    <row r="217" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B217" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="36"/>
+      <c r="I217" s="33"/>
+      <c r="M217" s="22"/>
+    </row>
+    <row r="218" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+      <c r="B218" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C218" s="47"/>
+      <c r="D218" s="47"/>
+      <c r="E218" s="47"/>
+      <c r="F218" s="47"/>
+      <c r="G218" s="47"/>
+      <c r="H218" s="47"/>
+      <c r="I218" s="47"/>
+      <c r="M218" s="12"/>
+    </row>
+    <row r="219" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="B219" s="47"/>
+      <c r="C219" s="47"/>
+      <c r="D219" s="47"/>
+      <c r="E219" s="47"/>
+      <c r="F219" s="47"/>
+      <c r="G219" s="47"/>
+      <c r="H219" s="47"/>
+      <c r="I219" s="47"/>
+    </row>
+    <row r="220" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="B220" s="47"/>
+      <c r="C220" s="47"/>
+      <c r="D220" s="47"/>
+      <c r="E220" s="47"/>
+      <c r="F220" s="47"/>
+      <c r="G220" s="47"/>
+      <c r="H220" s="47"/>
+      <c r="I220" s="47"/>
+    </row>
+    <row r="221" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="B221" s="47"/>
+      <c r="C221" s="47"/>
+      <c r="D221" s="47"/>
+      <c r="E221" s="47"/>
+      <c r="F221" s="47"/>
+      <c r="G221" s="47"/>
+      <c r="H221" s="47"/>
+      <c r="I221" s="47"/>
+      <c r="M221" s="5"/>
+    </row>
+    <row r="222" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="B222" s="13"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="13"/>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
+      <c r="G222" s="13"/>
+      <c r="H222" s="13"/>
+      <c r="I222" s="13"/>
+    </row>
+    <row r="223" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B211" s="34" t="s">
+      <c r="B223" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D211" s="16"/>
-      <c r="E211" s="16"/>
-      <c r="F211" s="16"/>
-      <c r="G211" s="16"/>
-      <c r="H211" s="16"/>
-      <c r="I211" s="33"/>
-    </row>
-    <row r="212" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="21" t="s">
+      <c r="D223" s="16"/>
+      <c r="E223" s="16"/>
+      <c r="F223" s="16"/>
+      <c r="G223" s="16"/>
+      <c r="H223" s="16"/>
+      <c r="I223" s="33"/>
+    </row>
+    <row r="224" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B224" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C212" s="4"/>
-      <c r="E212" s="8"/>
-      <c r="F212" s="16"/>
-      <c r="G212" s="16"/>
-      <c r="H212" s="16"/>
-      <c r="I212" s="21"/>
-    </row>
-    <row r="213" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="48" t="s">
+      <c r="C224" s="4"/>
+      <c r="E224" s="8"/>
+      <c r="F224" s="16"/>
+      <c r="G224" s="16"/>
+      <c r="H224" s="16"/>
+      <c r="I224" s="21"/>
+    </row>
+    <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C213" s="48"/>
-      <c r="D213" s="48"/>
-      <c r="E213" s="48"/>
-      <c r="F213" s="48"/>
-      <c r="G213" s="48"/>
-      <c r="H213" s="48"/>
-      <c r="I213" s="48"/>
-    </row>
-    <row r="214" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="48"/>
-      <c r="C214" s="48"/>
-      <c r="D214" s="48"/>
-      <c r="E214" s="48"/>
-      <c r="F214" s="48"/>
-      <c r="G214" s="48"/>
-      <c r="H214" s="48"/>
-      <c r="I214" s="48"/>
-    </row>
-    <row r="215" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="59" t="s">
+      <c r="C225" s="47"/>
+      <c r="D225" s="47"/>
+      <c r="E225" s="47"/>
+      <c r="F225" s="47"/>
+      <c r="G225" s="47"/>
+      <c r="H225" s="47"/>
+      <c r="I225" s="47"/>
+    </row>
+    <row r="226" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="47"/>
+      <c r="C226" s="47"/>
+      <c r="D226" s="47"/>
+      <c r="E226" s="47"/>
+      <c r="F226" s="47"/>
+      <c r="G226" s="47"/>
+      <c r="H226" s="47"/>
+      <c r="I226" s="47"/>
+    </row>
+    <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C215" s="60"/>
-      <c r="D215" s="60"/>
-      <c r="E215" s="61"/>
-      <c r="F215" s="41" t="s">
+      <c r="C227" s="53"/>
+      <c r="D227" s="53"/>
+      <c r="E227" s="54"/>
+      <c r="F227" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="G215" s="41" t="s">
+      <c r="G227" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="H215" s="9"/>
-    </row>
-    <row r="216" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="62"/>
-      <c r="C216" s="63"/>
-      <c r="D216" s="63"/>
-      <c r="E216" s="64"/>
-      <c r="F216" s="31"/>
-      <c r="G216" s="31"/>
-      <c r="H216" s="23"/>
-      <c r="I216" s="7"/>
-    </row>
-    <row r="217" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="62"/>
-      <c r="C217" s="63"/>
-      <c r="D217" s="63"/>
-      <c r="E217" s="64"/>
-      <c r="F217" s="31"/>
-      <c r="G217" s="31"/>
-      <c r="H217" s="23"/>
-      <c r="I217" s="7"/>
-    </row>
-    <row r="218" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="62"/>
-      <c r="C218" s="63"/>
-      <c r="D218" s="63"/>
-      <c r="E218" s="64"/>
-      <c r="F218" s="31"/>
-      <c r="G218" s="31"/>
-      <c r="H218" s="23"/>
-      <c r="I218" s="7"/>
-    </row>
-    <row r="219" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="62"/>
-      <c r="C219" s="63"/>
-      <c r="D219" s="63"/>
-      <c r="E219" s="64"/>
-      <c r="F219" s="31"/>
-      <c r="G219" s="31"/>
-      <c r="H219" s="23"/>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C220" s="56" t="s">
+      <c r="H227" s="9"/>
+    </row>
+    <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="55"/>
+      <c r="C228" s="56"/>
+      <c r="D228" s="56"/>
+      <c r="E228" s="57"/>
+      <c r="F228" s="31"/>
+      <c r="G228" s="31"/>
+      <c r="H228" s="23"/>
+      <c r="I228" s="7"/>
+    </row>
+    <row r="229" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="55"/>
+      <c r="C229" s="56"/>
+      <c r="D229" s="56"/>
+      <c r="E229" s="57"/>
+      <c r="F229" s="31"/>
+      <c r="G229" s="31"/>
+      <c r="H229" s="23"/>
+      <c r="I229" s="7"/>
+    </row>
+    <row r="230" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="55"/>
+      <c r="C230" s="56"/>
+      <c r="D230" s="56"/>
+      <c r="E230" s="57"/>
+      <c r="F230" s="31"/>
+      <c r="G230" s="31"/>
+      <c r="H230" s="23"/>
+      <c r="I230" s="7"/>
+    </row>
+    <row r="231" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="55"/>
+      <c r="C231" s="56"/>
+      <c r="D231" s="56"/>
+      <c r="E231" s="57"/>
+      <c r="F231" s="31"/>
+      <c r="G231" s="31"/>
+      <c r="H231" s="23"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C232" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D220" s="56"/>
-      <c r="E220" s="56"/>
-      <c r="F220" s="42">
-        <f>SUM(F217:F219)</f>
+      <c r="D232" s="58"/>
+      <c r="E232" s="58"/>
+      <c r="F232" s="42">
+        <f>SUM(F229:F231)</f>
         <v>0</v>
       </c>
-      <c r="G220" s="42">
-        <f>SUM(G217:G219)</f>
+      <c r="G232" s="42">
+        <f>SUM(G229:G231)</f>
         <v>0</v>
       </c>
-      <c r="H220" s="23"/>
-    </row>
-    <row r="221" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="21" t="s">
+      <c r="H232" s="23"/>
+    </row>
+    <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B233" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C221" s="12"/>
-      <c r="D221" s="12"/>
-      <c r="E221" s="7"/>
-      <c r="F221" s="22"/>
-      <c r="G221" s="22"/>
-      <c r="H221" s="23"/>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B222" s="48" t="s">
+      <c r="C233" s="12"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="22"/>
+      <c r="G233" s="22"/>
+      <c r="H233" s="23"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B234" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C222" s="48"/>
-      <c r="D222" s="48"/>
-      <c r="E222" s="48"/>
-      <c r="F222" s="48"/>
-      <c r="G222" s="48"/>
-      <c r="H222" s="48"/>
-      <c r="I222" s="48"/>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" s="21"/>
-      <c r="B223" s="48"/>
-      <c r="C223" s="48"/>
-      <c r="D223" s="48"/>
-      <c r="E223" s="48"/>
-      <c r="F223" s="48"/>
-      <c r="G223" s="48"/>
-      <c r="H223" s="48"/>
-      <c r="I223" s="48"/>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" s="21"/>
-      <c r="B224" s="48"/>
-      <c r="C224" s="48"/>
-      <c r="D224" s="48"/>
-      <c r="E224" s="48"/>
-      <c r="F224" s="48"/>
-      <c r="G224" s="48"/>
-      <c r="H224" s="48"/>
-      <c r="I224" s="48"/>
-    </row>
-    <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
+      <c r="C234" s="47"/>
+      <c r="D234" s="47"/>
+      <c r="E234" s="47"/>
+      <c r="F234" s="47"/>
+      <c r="G234" s="47"/>
+      <c r="H234" s="47"/>
+      <c r="I234" s="47"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="21"/>
+      <c r="B235" s="47"/>
+      <c r="C235" s="47"/>
+      <c r="D235" s="47"/>
+      <c r="E235" s="47"/>
+      <c r="F235" s="47"/>
+      <c r="G235" s="47"/>
+      <c r="H235" s="47"/>
+      <c r="I235" s="47"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="21"/>
+      <c r="B236" s="47"/>
+      <c r="C236" s="47"/>
+      <c r="D236" s="47"/>
+      <c r="E236" s="47"/>
+      <c r="F236" s="47"/>
+      <c r="G236" s="47"/>
+      <c r="H236" s="47"/>
+      <c r="I236" s="47"/>
+    </row>
+    <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
         <v>16</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D237" t="s">
         <v>10</v>
       </c>
-      <c r="E225" s="25">
+      <c r="E237" s="25">
         <v>280</v>
       </c>
-      <c r="F225" s="25" t="s">
+      <c r="F237" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H225" s="24"/>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B226" t="s">
+      <c r="H237" s="24"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
         <v>135</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D238" t="s">
         <v>10</v>
       </c>
-      <c r="E226" s="25">
+      <c r="E238" s="25">
         <v>150</v>
       </c>
-      <c r="F226" s="25" t="s">
+      <c r="F238" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H226" s="24"/>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B227" t="s">
+      <c r="H238" s="24"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
         <v>136</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D239" t="s">
         <v>10</v>
       </c>
-      <c r="E227" s="25">
+      <c r="E239" s="25">
         <v>450</v>
       </c>
-      <c r="F227" s="25" t="s">
+      <c r="F239" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="H227" s="24"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E228" s="25"/>
-      <c r="F228" s="25"/>
-      <c r="H228" s="24"/>
-    </row>
-    <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="21" t="s">
+      <c r="H239" s="24"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E240" s="25"/>
+      <c r="F240" s="25"/>
+      <c r="H240" s="24"/>
+    </row>
+    <row r="241" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E229" s="25"/>
-      <c r="F229" s="25"/>
-      <c r="H229" s="24"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B230" s="7" t="s">
+      <c r="E241" s="25"/>
+      <c r="F241" s="25"/>
+      <c r="H241" s="24"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B242" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C230" s="43"/>
-      <c r="D230" s="43"/>
-      <c r="E230" s="43"/>
-      <c r="F230" s="42"/>
-      <c r="G230" s="42"/>
-      <c r="H230" s="23"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="17"/>
-      <c r="B231" s="17"/>
-      <c r="C231" s="17"/>
-      <c r="D231" s="17"/>
-      <c r="E231" s="17"/>
-      <c r="F231" s="17"/>
-      <c r="G231" s="17"/>
-      <c r="H231" s="17"/>
-      <c r="I231" s="17"/>
-    </row>
-    <row r="232" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="35" t="s">
+      <c r="C242" s="43"/>
+      <c r="D242" s="43"/>
+      <c r="E242" s="43"/>
+      <c r="F242" s="42"/>
+      <c r="G242" s="42"/>
+      <c r="H242" s="23"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="17"/>
+      <c r="B243" s="17"/>
+      <c r="C243" s="17"/>
+      <c r="D243" s="17"/>
+      <c r="E243" s="17"/>
+      <c r="F243" s="17"/>
+      <c r="G243" s="17"/>
+      <c r="H243" s="17"/>
+      <c r="I243" s="17"/>
+    </row>
+    <row r="244" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B232" s="34" t="s">
+      <c r="B244" s="34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="21"/>
-      <c r="B233" s="2"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="21"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="1" t="s">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="21"/>
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="21"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1" t="s">
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B235" s="12" t="s">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B247" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F247" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B236" s="12"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B237" s="12" t="s">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B248" s="12"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B249" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F249" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B238" s="12"/>
-      <c r="F238" t="s">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B250" s="12"/>
+      <c r="F250" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B239" s="12"/>
-      <c r="F239" t="s">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B251" s="12"/>
+      <c r="F251" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B240" s="12"/>
-      <c r="F240" t="s">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B252" s="12"/>
+      <c r="F252" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B241" s="12"/>
-      <c r="F241" s="2" t="s">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B253" s="12"/>
+      <c r="F253" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B242" s="12"/>
-      <c r="F242" t="s">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B254" s="12"/>
+      <c r="F254" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="12" t="s">
+    <row r="255" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="10"/>
-    </row>
-    <row r="245" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="10"/>
-    </row>
-    <row r="246" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="10"/>
-    </row>
-    <row r="247" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="10"/>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B248" s="10" t="s">
+    <row r="256" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="10"/>
+    </row>
+    <row r="257" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="10"/>
+    </row>
+    <row r="258" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="10"/>
+    </row>
+    <row r="259" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="10"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B260" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F248" s="55">
+      <c r="F260" s="59">
         <f ca="1">TODAY()</f>
-        <v>45224</v>
-      </c>
-      <c r="G248" s="55"/>
-    </row>
-    <row r="249" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="37" t="s">
+        <v>45226</v>
+      </c>
+      <c r="G260" s="59"/>
+    </row>
+    <row r="261" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C249" s="6"/>
-      <c r="I249" s="21"/>
-    </row>
-    <row r="250" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="8">
+      <c r="C261" s="6"/>
+      <c r="I261" s="21"/>
+    </row>
+    <row r="262" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="8">
         <v>1</v>
       </c>
-      <c r="B250" s="54" t="s">
+      <c r="B262" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C250" s="54"/>
-      <c r="D250" s="54"/>
-      <c r="E250" s="54"/>
-      <c r="F250" s="54"/>
-      <c r="G250" s="54"/>
-      <c r="H250" s="54"/>
-      <c r="I250" s="54"/>
-    </row>
-    <row r="251" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="8">
+      <c r="C262" s="46"/>
+      <c r="D262" s="46"/>
+      <c r="E262" s="46"/>
+      <c r="F262" s="46"/>
+      <c r="G262" s="46"/>
+      <c r="H262" s="46"/>
+      <c r="I262" s="46"/>
+    </row>
+    <row r="263" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="8">
         <v>2</v>
       </c>
-      <c r="B251" s="54" t="s">
+      <c r="B263" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C251" s="54"/>
-      <c r="D251" s="54"/>
-      <c r="E251" s="54"/>
-      <c r="F251" s="54"/>
-      <c r="G251" s="54"/>
-      <c r="H251" s="54"/>
-      <c r="I251" s="54"/>
-    </row>
-    <row r="252" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="8">
+      <c r="C263" s="46"/>
+      <c r="D263" s="46"/>
+      <c r="E263" s="46"/>
+      <c r="F263" s="46"/>
+      <c r="G263" s="46"/>
+      <c r="H263" s="46"/>
+      <c r="I263" s="46"/>
+    </row>
+    <row r="264" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="8">
         <v>3</v>
       </c>
-      <c r="B252" s="54" t="s">
+      <c r="B264" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C252" s="54"/>
-      <c r="D252" s="54"/>
-      <c r="E252" s="54"/>
-      <c r="F252" s="54"/>
-      <c r="G252" s="54"/>
-      <c r="H252" s="54"/>
-      <c r="I252" s="54"/>
-    </row>
-    <row r="253" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="8">
+      <c r="C264" s="46"/>
+      <c r="D264" s="46"/>
+      <c r="E264" s="46"/>
+      <c r="F264" s="46"/>
+      <c r="G264" s="46"/>
+      <c r="H264" s="46"/>
+      <c r="I264" s="46"/>
+    </row>
+    <row r="265" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="8">
         <v>4</v>
       </c>
-      <c r="B253" s="54" t="s">
+      <c r="B265" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C253" s="54"/>
-      <c r="D253" s="54"/>
-      <c r="E253" s="54"/>
-      <c r="F253" s="54"/>
-      <c r="G253" s="54"/>
-      <c r="H253" s="54"/>
-      <c r="I253" s="54"/>
-    </row>
-    <row r="254" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="8">
+      <c r="C265" s="46"/>
+      <c r="D265" s="46"/>
+      <c r="E265" s="46"/>
+      <c r="F265" s="46"/>
+      <c r="G265" s="46"/>
+      <c r="H265" s="46"/>
+      <c r="I265" s="46"/>
+    </row>
+    <row r="266" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="8">
         <v>5</v>
       </c>
-      <c r="B254" s="54" t="s">
+      <c r="B266" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C254" s="54"/>
-      <c r="D254" s="54"/>
-      <c r="E254" s="54"/>
-      <c r="F254" s="54"/>
-      <c r="G254" s="54"/>
-      <c r="H254" s="54"/>
-      <c r="I254" s="54"/>
-    </row>
-    <row r="255" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="8"/>
-      <c r="B255" s="54" t="s">
+      <c r="C266" s="46"/>
+      <c r="D266" s="46"/>
+      <c r="E266" s="46"/>
+      <c r="F266" s="46"/>
+      <c r="G266" s="46"/>
+      <c r="H266" s="46"/>
+      <c r="I266" s="46"/>
+    </row>
+    <row r="267" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="8"/>
+      <c r="B267" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C255" s="54"/>
-      <c r="D255" s="54"/>
-      <c r="E255" s="54"/>
-      <c r="F255" s="54"/>
-      <c r="G255" s="54"/>
-      <c r="H255" s="54"/>
-      <c r="I255" s="54"/>
-    </row>
-    <row r="256" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="8"/>
-      <c r="B256" s="54" t="s">
+      <c r="C267" s="46"/>
+      <c r="D267" s="46"/>
+      <c r="E267" s="46"/>
+      <c r="F267" s="46"/>
+      <c r="G267" s="46"/>
+      <c r="H267" s="46"/>
+      <c r="I267" s="46"/>
+    </row>
+    <row r="268" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="8"/>
+      <c r="B268" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C256" s="54"/>
-      <c r="D256" s="54"/>
-      <c r="E256" s="54"/>
-      <c r="F256" s="54"/>
-      <c r="G256" s="54"/>
-      <c r="H256" s="54"/>
-      <c r="I256" s="54"/>
-    </row>
-    <row r="257" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="8"/>
-      <c r="B257" s="54" t="s">
+      <c r="C268" s="46"/>
+      <c r="D268" s="46"/>
+      <c r="E268" s="46"/>
+      <c r="F268" s="46"/>
+      <c r="G268" s="46"/>
+      <c r="H268" s="46"/>
+      <c r="I268" s="46"/>
+    </row>
+    <row r="269" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="8"/>
+      <c r="B269" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C257" s="54"/>
-      <c r="D257" s="54"/>
-      <c r="E257" s="54"/>
-      <c r="F257" s="54"/>
-      <c r="G257" s="54"/>
-      <c r="H257" s="54"/>
-      <c r="I257" s="54"/>
-    </row>
-    <row r="258" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="8">
-        <v>6</v>
-      </c>
-      <c r="B258" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C258" s="54"/>
-      <c r="D258" s="54"/>
-      <c r="E258" s="54"/>
-      <c r="F258" s="54"/>
-      <c r="G258" s="54"/>
-      <c r="H258" s="54"/>
-      <c r="I258" s="54"/>
-    </row>
-    <row r="259" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="8"/>
-      <c r="B259" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C259" s="54"/>
-      <c r="D259" s="54"/>
-      <c r="E259" s="54"/>
-      <c r="F259" s="54"/>
-      <c r="G259" s="54"/>
-      <c r="H259" s="54"/>
-      <c r="I259" s="54"/>
-    </row>
-    <row r="260" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="8"/>
-      <c r="B260" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C260" s="54"/>
-      <c r="D260" s="54"/>
-      <c r="E260" s="54"/>
-      <c r="F260" s="54"/>
-      <c r="G260" s="54"/>
-      <c r="H260" s="54"/>
-      <c r="I260" s="54"/>
-    </row>
-    <row r="261" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="8">
-        <v>7</v>
-      </c>
-      <c r="B261" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C261" s="54"/>
-      <c r="D261" s="54"/>
-      <c r="E261" s="54"/>
-      <c r="F261" s="54"/>
-      <c r="G261" s="54"/>
-      <c r="H261" s="54"/>
-      <c r="I261" s="54"/>
-    </row>
-    <row r="262" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="8">
-        <v>8</v>
-      </c>
-      <c r="B262" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C262" s="54"/>
-      <c r="D262" s="54"/>
-      <c r="E262" s="54"/>
-      <c r="F262" s="54"/>
-      <c r="G262" s="54"/>
-      <c r="H262" s="54"/>
-      <c r="I262" s="54"/>
-    </row>
-    <row r="263" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="8"/>
-      <c r="B263" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C263" s="54"/>
-      <c r="D263" s="54"/>
-      <c r="E263" s="54"/>
-      <c r="F263" s="54"/>
-      <c r="G263" s="54"/>
-      <c r="H263" s="54"/>
-      <c r="I263" s="54"/>
-    </row>
-    <row r="264" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="8"/>
-      <c r="B264" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C264" s="54"/>
-      <c r="D264" s="54"/>
-      <c r="E264" s="54"/>
-      <c r="F264" s="54"/>
-      <c r="G264" s="54"/>
-      <c r="H264" s="54"/>
-      <c r="I264" s="54"/>
-    </row>
-    <row r="265" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="8"/>
-      <c r="B265" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C265" s="54"/>
-      <c r="D265" s="54"/>
-      <c r="E265" s="54"/>
-      <c r="F265" s="54"/>
-      <c r="G265" s="54"/>
-      <c r="H265" s="54"/>
-      <c r="I265" s="54"/>
-    </row>
-    <row r="266" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="8"/>
-      <c r="B266" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="C266" s="54"/>
-      <c r="D266" s="54"/>
-      <c r="E266" s="54"/>
-      <c r="F266" s="54"/>
-      <c r="G266" s="54"/>
-      <c r="H266" s="54"/>
-      <c r="I266" s="54"/>
-    </row>
-    <row r="267" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="8"/>
-      <c r="B267" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C267" s="54"/>
-      <c r="D267" s="54"/>
-      <c r="E267" s="54"/>
-      <c r="F267" s="54"/>
-      <c r="G267" s="54"/>
-      <c r="H267" s="54"/>
-      <c r="I267" s="54"/>
-    </row>
-    <row r="268" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="8"/>
-      <c r="B268" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C268" s="54"/>
-      <c r="D268" s="54"/>
-      <c r="E268" s="54"/>
-      <c r="F268" s="54"/>
-      <c r="G268" s="54"/>
-      <c r="H268" s="54"/>
-      <c r="I268" s="54"/>
-    </row>
-    <row r="269" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="8">
-        <v>9</v>
-      </c>
-      <c r="B269" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C269" s="54"/>
-      <c r="D269" s="54"/>
-      <c r="E269" s="54"/>
-      <c r="F269" s="54"/>
-      <c r="G269" s="54"/>
-      <c r="H269" s="54"/>
-      <c r="I269" s="54"/>
+      <c r="C269" s="46"/>
+      <c r="D269" s="46"/>
+      <c r="E269" s="46"/>
+      <c r="F269" s="46"/>
+      <c r="G269" s="46"/>
+      <c r="H269" s="46"/>
+      <c r="I269" s="46"/>
     </row>
     <row r="270" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
+        <v>6</v>
+      </c>
+      <c r="B270" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C270" s="46"/>
+      <c r="D270" s="46"/>
+      <c r="E270" s="46"/>
+      <c r="F270" s="46"/>
+      <c r="G270" s="46"/>
+      <c r="H270" s="46"/>
+      <c r="I270" s="46"/>
+    </row>
+    <row r="271" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="8"/>
+      <c r="B271" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C271" s="46"/>
+      <c r="D271" s="46"/>
+      <c r="E271" s="46"/>
+      <c r="F271" s="46"/>
+      <c r="G271" s="46"/>
+      <c r="H271" s="46"/>
+      <c r="I271" s="46"/>
+    </row>
+    <row r="272" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="8"/>
+      <c r="B272" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C272" s="46"/>
+      <c r="D272" s="46"/>
+      <c r="E272" s="46"/>
+      <c r="F272" s="46"/>
+      <c r="G272" s="46"/>
+      <c r="H272" s="46"/>
+      <c r="I272" s="46"/>
+    </row>
+    <row r="273" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="8">
+        <v>7</v>
+      </c>
+      <c r="B273" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C273" s="46"/>
+      <c r="D273" s="46"/>
+      <c r="E273" s="46"/>
+      <c r="F273" s="46"/>
+      <c r="G273" s="46"/>
+      <c r="H273" s="46"/>
+      <c r="I273" s="46"/>
+    </row>
+    <row r="274" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="8">
+        <v>8</v>
+      </c>
+      <c r="B274" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C274" s="46"/>
+      <c r="D274" s="46"/>
+      <c r="E274" s="46"/>
+      <c r="F274" s="46"/>
+      <c r="G274" s="46"/>
+      <c r="H274" s="46"/>
+      <c r="I274" s="46"/>
+    </row>
+    <row r="275" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="8"/>
+      <c r="B275" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C275" s="46"/>
+      <c r="D275" s="46"/>
+      <c r="E275" s="46"/>
+      <c r="F275" s="46"/>
+      <c r="G275" s="46"/>
+      <c r="H275" s="46"/>
+      <c r="I275" s="46"/>
+    </row>
+    <row r="276" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="8"/>
+      <c r="B276" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C276" s="46"/>
+      <c r="D276" s="46"/>
+      <c r="E276" s="46"/>
+      <c r="F276" s="46"/>
+      <c r="G276" s="46"/>
+      <c r="H276" s="46"/>
+      <c r="I276" s="46"/>
+    </row>
+    <row r="277" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="8"/>
+      <c r="B277" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C277" s="46"/>
+      <c r="D277" s="46"/>
+      <c r="E277" s="46"/>
+      <c r="F277" s="46"/>
+      <c r="G277" s="46"/>
+      <c r="H277" s="46"/>
+      <c r="I277" s="46"/>
+    </row>
+    <row r="278" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="8"/>
+      <c r="B278" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C278" s="46"/>
+      <c r="D278" s="46"/>
+      <c r="E278" s="46"/>
+      <c r="F278" s="46"/>
+      <c r="G278" s="46"/>
+      <c r="H278" s="46"/>
+      <c r="I278" s="46"/>
+    </row>
+    <row r="279" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="8"/>
+      <c r="B279" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C279" s="46"/>
+      <c r="D279" s="46"/>
+      <c r="E279" s="46"/>
+      <c r="F279" s="46"/>
+      <c r="G279" s="46"/>
+      <c r="H279" s="46"/>
+      <c r="I279" s="46"/>
+    </row>
+    <row r="280" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="8"/>
+      <c r="B280" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C280" s="46"/>
+      <c r="D280" s="46"/>
+      <c r="E280" s="46"/>
+      <c r="F280" s="46"/>
+      <c r="G280" s="46"/>
+      <c r="H280" s="46"/>
+      <c r="I280" s="46"/>
+    </row>
+    <row r="281" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="8">
+        <v>9</v>
+      </c>
+      <c r="B281" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C281" s="46"/>
+      <c r="D281" s="46"/>
+      <c r="E281" s="46"/>
+      <c r="F281" s="46"/>
+      <c r="G281" s="46"/>
+      <c r="H281" s="46"/>
+      <c r="I281" s="46"/>
+    </row>
+    <row r="282" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="8">
         <v>10</v>
       </c>
-      <c r="B270" s="54" t="s">
+      <c r="B282" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C270" s="54"/>
-      <c r="D270" s="54"/>
-      <c r="E270" s="54"/>
-      <c r="F270" s="54"/>
-      <c r="G270" s="54"/>
-      <c r="H270" s="54"/>
-      <c r="I270" s="54"/>
-    </row>
-    <row r="271" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="8"/>
-      <c r="B271" s="54" t="s">
+      <c r="C282" s="46"/>
+      <c r="D282" s="46"/>
+      <c r="E282" s="46"/>
+      <c r="F282" s="46"/>
+      <c r="G282" s="46"/>
+      <c r="H282" s="46"/>
+      <c r="I282" s="46"/>
+    </row>
+    <row r="283" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="8"/>
+      <c r="B283" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C271" s="54"/>
-      <c r="D271" s="54"/>
-      <c r="E271" s="54"/>
-      <c r="F271" s="54"/>
-      <c r="G271" s="54"/>
-      <c r="H271" s="54"/>
-      <c r="I271" s="54"/>
-    </row>
-    <row r="272" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="8"/>
-      <c r="B272" s="54" t="s">
+      <c r="C283" s="46"/>
+      <c r="D283" s="46"/>
+      <c r="E283" s="46"/>
+      <c r="F283" s="46"/>
+      <c r="G283" s="46"/>
+      <c r="H283" s="46"/>
+      <c r="I283" s="46"/>
+    </row>
+    <row r="284" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="8"/>
+      <c r="B284" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C272" s="54"/>
-      <c r="D272" s="54"/>
-      <c r="E272" s="54"/>
-      <c r="F272" s="54"/>
-      <c r="G272" s="54"/>
-      <c r="H272" s="54"/>
-      <c r="I272" s="54"/>
-    </row>
-    <row r="273" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="8"/>
-      <c r="B273" s="54" t="s">
+      <c r="C284" s="46"/>
+      <c r="D284" s="46"/>
+      <c r="E284" s="46"/>
+      <c r="F284" s="46"/>
+      <c r="G284" s="46"/>
+      <c r="H284" s="46"/>
+      <c r="I284" s="46"/>
+    </row>
+    <row r="285" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="8"/>
+      <c r="B285" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C273" s="54"/>
-      <c r="D273" s="54"/>
-      <c r="E273" s="54"/>
-      <c r="F273" s="54"/>
-      <c r="G273" s="54"/>
-      <c r="H273" s="54"/>
-      <c r="I273" s="54"/>
-    </row>
-    <row r="274" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="8"/>
-      <c r="B274" s="54" t="s">
+      <c r="C285" s="46"/>
+      <c r="D285" s="46"/>
+      <c r="E285" s="46"/>
+      <c r="F285" s="46"/>
+      <c r="G285" s="46"/>
+      <c r="H285" s="46"/>
+      <c r="I285" s="46"/>
+    </row>
+    <row r="286" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="8"/>
+      <c r="B286" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C274" s="54"/>
-      <c r="D274" s="54"/>
-      <c r="E274" s="54"/>
-      <c r="F274" s="54"/>
-      <c r="G274" s="54"/>
-      <c r="H274" s="54"/>
-      <c r="I274" s="54"/>
-    </row>
-    <row r="275" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="8">
+      <c r="C286" s="46"/>
+      <c r="D286" s="46"/>
+      <c r="E286" s="46"/>
+      <c r="F286" s="46"/>
+      <c r="G286" s="46"/>
+      <c r="H286" s="46"/>
+      <c r="I286" s="46"/>
+    </row>
+    <row r="287" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="8">
         <v>11</v>
       </c>
-      <c r="B275" s="54" t="s">
+      <c r="B287" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C275" s="54"/>
-      <c r="D275" s="54"/>
-      <c r="E275" s="54"/>
-      <c r="F275" s="54"/>
-      <c r="G275" s="54"/>
-      <c r="H275" s="54"/>
-      <c r="I275" s="54"/>
-    </row>
-    <row r="276" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="8"/>
-      <c r="B276" s="54" t="s">
+      <c r="C287" s="46"/>
+      <c r="D287" s="46"/>
+      <c r="E287" s="46"/>
+      <c r="F287" s="46"/>
+      <c r="G287" s="46"/>
+      <c r="H287" s="46"/>
+      <c r="I287" s="46"/>
+    </row>
+    <row r="288" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="8"/>
+      <c r="B288" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C276" s="54"/>
-      <c r="D276" s="54"/>
-      <c r="E276" s="54"/>
-      <c r="F276" s="54"/>
-      <c r="G276" s="54"/>
-      <c r="H276" s="54"/>
-      <c r="I276" s="54"/>
-    </row>
-    <row r="277" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="8"/>
-      <c r="B277" s="54" t="s">
+      <c r="C288" s="46"/>
+      <c r="D288" s="46"/>
+      <c r="E288" s="46"/>
+      <c r="F288" s="46"/>
+      <c r="G288" s="46"/>
+      <c r="H288" s="46"/>
+      <c r="I288" s="46"/>
+    </row>
+    <row r="289" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="8"/>
+      <c r="B289" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C277" s="54"/>
-      <c r="D277" s="54"/>
-      <c r="E277" s="54"/>
-      <c r="F277" s="54"/>
-      <c r="G277" s="54"/>
-      <c r="H277" s="54"/>
-      <c r="I277" s="54"/>
-    </row>
-    <row r="278" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="8">
+      <c r="C289" s="46"/>
+      <c r="D289" s="46"/>
+      <c r="E289" s="46"/>
+      <c r="F289" s="46"/>
+      <c r="G289" s="46"/>
+      <c r="H289" s="46"/>
+      <c r="I289" s="46"/>
+    </row>
+    <row r="290" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="8">
         <v>12</v>
       </c>
-      <c r="B278" s="54" t="s">
+      <c r="B290" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C278" s="54"/>
-      <c r="D278" s="54"/>
-      <c r="E278" s="54"/>
-      <c r="F278" s="54"/>
-      <c r="G278" s="54"/>
-      <c r="H278" s="54"/>
-      <c r="I278" s="54"/>
-    </row>
-    <row r="279" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="8"/>
-      <c r="B279" s="54" t="s">
+      <c r="C290" s="46"/>
+      <c r="D290" s="46"/>
+      <c r="E290" s="46"/>
+      <c r="F290" s="46"/>
+      <c r="G290" s="46"/>
+      <c r="H290" s="46"/>
+      <c r="I290" s="46"/>
+    </row>
+    <row r="291" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="8"/>
+      <c r="B291" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C279" s="54"/>
-      <c r="D279" s="54"/>
-      <c r="E279" s="54"/>
-      <c r="F279" s="54"/>
-      <c r="G279" s="54"/>
-      <c r="H279" s="54"/>
-      <c r="I279" s="54"/>
-    </row>
-    <row r="280" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="8"/>
-      <c r="B280" s="54" t="s">
+      <c r="C291" s="46"/>
+      <c r="D291" s="46"/>
+      <c r="E291" s="46"/>
+      <c r="F291" s="46"/>
+      <c r="G291" s="46"/>
+      <c r="H291" s="46"/>
+      <c r="I291" s="46"/>
+    </row>
+    <row r="292" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="8"/>
+      <c r="B292" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C280" s="54"/>
-      <c r="D280" s="54"/>
-      <c r="E280" s="54"/>
-      <c r="F280" s="54"/>
-      <c r="G280" s="54"/>
-      <c r="H280" s="54"/>
-      <c r="I280" s="54"/>
-    </row>
-    <row r="281" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="8"/>
-      <c r="B281" s="54" t="s">
+      <c r="C292" s="46"/>
+      <c r="D292" s="46"/>
+      <c r="E292" s="46"/>
+      <c r="F292" s="46"/>
+      <c r="G292" s="46"/>
+      <c r="H292" s="46"/>
+      <c r="I292" s="46"/>
+    </row>
+    <row r="293" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="8"/>
+      <c r="B293" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C281" s="54"/>
-      <c r="D281" s="54"/>
-      <c r="E281" s="54"/>
-      <c r="F281" s="54"/>
-      <c r="G281" s="54"/>
-      <c r="H281" s="54"/>
-      <c r="I281" s="54"/>
-    </row>
-    <row r="282" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="8"/>
-      <c r="B282" s="54" t="s">
+      <c r="C293" s="46"/>
+      <c r="D293" s="46"/>
+      <c r="E293" s="46"/>
+      <c r="F293" s="46"/>
+      <c r="G293" s="46"/>
+      <c r="H293" s="46"/>
+      <c r="I293" s="46"/>
+    </row>
+    <row r="294" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="8"/>
+      <c r="B294" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C282" s="54"/>
-      <c r="D282" s="54"/>
-      <c r="E282" s="54"/>
-      <c r="F282" s="54"/>
-      <c r="G282" s="54"/>
-      <c r="H282" s="54"/>
-      <c r="I282" s="54"/>
-    </row>
-    <row r="283" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="8">
+      <c r="C294" s="46"/>
+      <c r="D294" s="46"/>
+      <c r="E294" s="46"/>
+      <c r="F294" s="46"/>
+      <c r="G294" s="46"/>
+      <c r="H294" s="46"/>
+      <c r="I294" s="46"/>
+    </row>
+    <row r="295" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="8">
         <v>13</v>
       </c>
-      <c r="B283" s="54" t="s">
+      <c r="B295" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C283" s="54"/>
-      <c r="D283" s="54"/>
-      <c r="E283" s="54"/>
-      <c r="F283" s="54"/>
-      <c r="G283" s="54"/>
-      <c r="H283" s="54"/>
-      <c r="I283" s="54"/>
-    </row>
-    <row r="284" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="8"/>
-      <c r="B284" s="54" t="s">
+      <c r="C295" s="46"/>
+      <c r="D295" s="46"/>
+      <c r="E295" s="46"/>
+      <c r="F295" s="46"/>
+      <c r="G295" s="46"/>
+      <c r="H295" s="46"/>
+      <c r="I295" s="46"/>
+    </row>
+    <row r="296" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="8"/>
+      <c r="B296" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C284" s="54"/>
-      <c r="D284" s="54"/>
-      <c r="E284" s="54"/>
-      <c r="F284" s="54"/>
-      <c r="G284" s="54"/>
-      <c r="H284" s="54"/>
-      <c r="I284" s="54"/>
-    </row>
-    <row r="285" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="8"/>
-      <c r="B285" s="54" t="s">
+      <c r="C296" s="46"/>
+      <c r="D296" s="46"/>
+      <c r="E296" s="46"/>
+      <c r="F296" s="46"/>
+      <c r="G296" s="46"/>
+      <c r="H296" s="46"/>
+      <c r="I296" s="46"/>
+    </row>
+    <row r="297" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="8"/>
+      <c r="B297" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C285" s="54"/>
-      <c r="D285" s="54"/>
-      <c r="E285" s="54"/>
-      <c r="F285" s="54"/>
-      <c r="G285" s="54"/>
-      <c r="H285" s="54"/>
-      <c r="I285" s="54"/>
-    </row>
-    <row r="286" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="8">
+      <c r="C297" s="46"/>
+      <c r="D297" s="46"/>
+      <c r="E297" s="46"/>
+      <c r="F297" s="46"/>
+      <c r="G297" s="46"/>
+      <c r="H297" s="46"/>
+      <c r="I297" s="46"/>
+    </row>
+    <row r="298" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="8">
         <v>14</v>
       </c>
-      <c r="B286" s="54" t="s">
+      <c r="B298" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C286" s="54"/>
-      <c r="D286" s="54"/>
-      <c r="E286" s="54"/>
-      <c r="F286" s="54"/>
-      <c r="G286" s="54"/>
-      <c r="H286" s="54"/>
-      <c r="I286" s="54"/>
-    </row>
-    <row r="287" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="8"/>
-      <c r="B287" s="54" t="s">
+      <c r="C298" s="46"/>
+      <c r="D298" s="46"/>
+      <c r="E298" s="46"/>
+      <c r="F298" s="46"/>
+      <c r="G298" s="46"/>
+      <c r="H298" s="46"/>
+      <c r="I298" s="46"/>
+    </row>
+    <row r="299" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="8"/>
+      <c r="B299" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C287" s="54"/>
-      <c r="D287" s="54"/>
-      <c r="E287" s="54"/>
-      <c r="F287" s="54"/>
-      <c r="G287" s="54"/>
-      <c r="H287" s="54"/>
-      <c r="I287" s="54"/>
-    </row>
-    <row r="288" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="8"/>
-      <c r="B288" s="54" t="s">
+      <c r="C299" s="46"/>
+      <c r="D299" s="46"/>
+      <c r="E299" s="46"/>
+      <c r="F299" s="46"/>
+      <c r="G299" s="46"/>
+      <c r="H299" s="46"/>
+      <c r="I299" s="46"/>
+    </row>
+    <row r="300" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="8"/>
+      <c r="B300" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C288" s="54"/>
-      <c r="D288" s="54"/>
-      <c r="E288" s="54"/>
-      <c r="F288" s="54"/>
-      <c r="G288" s="54"/>
-      <c r="H288" s="54"/>
-      <c r="I288" s="54"/>
-    </row>
-    <row r="289" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="8"/>
-      <c r="B289" s="54" t="s">
+      <c r="C300" s="46"/>
+      <c r="D300" s="46"/>
+      <c r="E300" s="46"/>
+      <c r="F300" s="46"/>
+      <c r="G300" s="46"/>
+      <c r="H300" s="46"/>
+      <c r="I300" s="46"/>
+    </row>
+    <row r="301" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="8"/>
+      <c r="B301" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C289" s="54"/>
-      <c r="D289" s="54"/>
-      <c r="E289" s="54"/>
-      <c r="F289" s="54"/>
-      <c r="G289" s="54"/>
-      <c r="H289" s="54"/>
-      <c r="I289" s="54"/>
-    </row>
-    <row r="290" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="8"/>
-      <c r="B290" s="54" t="s">
+      <c r="C301" s="46"/>
+      <c r="D301" s="46"/>
+      <c r="E301" s="46"/>
+      <c r="F301" s="46"/>
+      <c r="G301" s="46"/>
+      <c r="H301" s="46"/>
+      <c r="I301" s="46"/>
+    </row>
+    <row r="302" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="8"/>
+      <c r="B302" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C290" s="54"/>
-      <c r="D290" s="54"/>
-      <c r="E290" s="54"/>
-      <c r="F290" s="54"/>
-      <c r="G290" s="54"/>
-      <c r="H290" s="54"/>
-      <c r="I290" s="54"/>
-    </row>
-    <row r="291" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="8">
+      <c r="C302" s="46"/>
+      <c r="D302" s="46"/>
+      <c r="E302" s="46"/>
+      <c r="F302" s="46"/>
+      <c r="G302" s="46"/>
+      <c r="H302" s="46"/>
+      <c r="I302" s="46"/>
+    </row>
+    <row r="303" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="8">
         <v>15</v>
       </c>
-      <c r="B291" s="54" t="s">
+      <c r="B303" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="C291" s="54"/>
-      <c r="D291" s="54"/>
-      <c r="E291" s="54"/>
-      <c r="F291" s="54"/>
-      <c r="G291" s="54"/>
-      <c r="H291" s="54"/>
-      <c r="I291" s="54"/>
-    </row>
-    <row r="292" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="8">
+      <c r="C303" s="46"/>
+      <c r="D303" s="46"/>
+      <c r="E303" s="46"/>
+      <c r="F303" s="46"/>
+      <c r="G303" s="46"/>
+      <c r="H303" s="46"/>
+      <c r="I303" s="46"/>
+    </row>
+    <row r="304" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="8">
         <v>16</v>
       </c>
-      <c r="B292" s="54" t="s">
+      <c r="B304" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C292" s="54"/>
-      <c r="D292" s="54"/>
-      <c r="E292" s="54"/>
-      <c r="F292" s="54"/>
-      <c r="G292" s="54"/>
-      <c r="H292" s="54"/>
-      <c r="I292" s="54"/>
-    </row>
-    <row r="293" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="8">
+      <c r="C304" s="46"/>
+      <c r="D304" s="46"/>
+      <c r="E304" s="46"/>
+      <c r="F304" s="46"/>
+      <c r="G304" s="46"/>
+      <c r="H304" s="46"/>
+      <c r="I304" s="46"/>
+    </row>
+    <row r="305" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="8">
         <v>17</v>
       </c>
-      <c r="B293" s="54" t="s">
+      <c r="B305" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="C293" s="54"/>
-      <c r="D293" s="54"/>
-      <c r="E293" s="54"/>
-      <c r="F293" s="54"/>
-      <c r="G293" s="54"/>
-      <c r="H293" s="54"/>
-      <c r="I293" s="54"/>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A294" s="27"/>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A295" s="27"/>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A296" s="27"/>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A297" s="27"/>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A298" s="27"/>
+      <c r="C305" s="46"/>
+      <c r="D305" s="46"/>
+      <c r="E305" s="46"/>
+      <c r="F305" s="46"/>
+      <c r="G305" s="46"/>
+      <c r="H305" s="46"/>
+      <c r="I305" s="46"/>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" s="27"/>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" s="27"/>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" s="27"/>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" s="27"/>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="B193:I193"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B184:I185"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B178:I181"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="Q9:X9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A11:I14"/>
+    <mergeCell ref="M11:T14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A8:I9"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B304:I304"/>
     <mergeCell ref="B293:I293"/>
-    <mergeCell ref="B206:I209"/>
-    <mergeCell ref="B194:I194"/>
-    <mergeCell ref="B213:I214"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="F202:G202"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="B199:I199"/>
-    <mergeCell ref="B215:E215"/>
-    <mergeCell ref="B216:E216"/>
-    <mergeCell ref="B217:E217"/>
-    <mergeCell ref="B218:E218"/>
-    <mergeCell ref="B250:I250"/>
-    <mergeCell ref="B251:I251"/>
-    <mergeCell ref="B252:I252"/>
-    <mergeCell ref="B253:I253"/>
-    <mergeCell ref="C220:E220"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B254:I254"/>
-    <mergeCell ref="F248:G248"/>
-    <mergeCell ref="B222:I224"/>
-    <mergeCell ref="B268:I268"/>
-    <mergeCell ref="B255:I255"/>
-    <mergeCell ref="B256:I256"/>
-    <mergeCell ref="B257:I257"/>
-    <mergeCell ref="B258:I258"/>
-    <mergeCell ref="B264:I264"/>
-    <mergeCell ref="B259:I259"/>
-    <mergeCell ref="B260:I260"/>
-    <mergeCell ref="B261:I261"/>
-    <mergeCell ref="B262:I262"/>
-    <mergeCell ref="B263:I263"/>
-    <mergeCell ref="B265:I265"/>
-    <mergeCell ref="B266:I266"/>
-    <mergeCell ref="B267:I267"/>
-    <mergeCell ref="B280:I280"/>
-    <mergeCell ref="B269:I269"/>
-    <mergeCell ref="B270:I270"/>
-    <mergeCell ref="B271:I271"/>
-    <mergeCell ref="B272:I272"/>
-    <mergeCell ref="B273:I273"/>
-    <mergeCell ref="B274:I274"/>
-    <mergeCell ref="B275:I275"/>
-    <mergeCell ref="B276:I276"/>
-    <mergeCell ref="B277:I277"/>
-    <mergeCell ref="B278:I278"/>
+    <mergeCell ref="B294:I294"/>
+    <mergeCell ref="B295:I295"/>
+    <mergeCell ref="B296:I296"/>
+    <mergeCell ref="B297:I297"/>
+    <mergeCell ref="B298:I298"/>
+    <mergeCell ref="B299:I299"/>
+    <mergeCell ref="B300:I300"/>
+    <mergeCell ref="B301:I301"/>
+    <mergeCell ref="B302:I302"/>
+    <mergeCell ref="B303:I303"/>
     <mergeCell ref="B279:I279"/>
     <mergeCell ref="B292:I292"/>
     <mergeCell ref="B281:I281"/>
@@ -4707,30 +4802,43 @@
     <mergeCell ref="B289:I289"/>
     <mergeCell ref="B290:I290"/>
     <mergeCell ref="B291:I291"/>
-    <mergeCell ref="Q9:X9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A11:I14"/>
-    <mergeCell ref="M11:T14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A8:I9"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B181:I181"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B172:I173"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B166:I169"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B266:I266"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="B234:I236"/>
+    <mergeCell ref="B280:I280"/>
+    <mergeCell ref="B267:I267"/>
+    <mergeCell ref="B268:I268"/>
+    <mergeCell ref="B269:I269"/>
+    <mergeCell ref="B270:I270"/>
+    <mergeCell ref="B276:I276"/>
+    <mergeCell ref="B271:I271"/>
+    <mergeCell ref="B272:I272"/>
+    <mergeCell ref="B273:I273"/>
+    <mergeCell ref="B274:I274"/>
+    <mergeCell ref="B275:I275"/>
+    <mergeCell ref="B277:I277"/>
+    <mergeCell ref="B278:I278"/>
+    <mergeCell ref="B263:I263"/>
+    <mergeCell ref="B264:I264"/>
+    <mergeCell ref="B265:I265"/>
+    <mergeCell ref="C232:E232"/>
+    <mergeCell ref="B231:E231"/>
+    <mergeCell ref="B305:I305"/>
+    <mergeCell ref="B218:I221"/>
+    <mergeCell ref="B206:I206"/>
+    <mergeCell ref="B225:I226"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="B211:I211"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="B229:E229"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="B262:I262"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -4751,8 +4859,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35 A25" xr:uid="{2610830F-8508-4F02-A4A6-401E578A5A49}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UNLISTED ITEM" error="Please input customised items manually" sqref="B174:B178" xr:uid="{92AF6CB7-4A80-4E2F-8377-0310E8DEBE08}"/>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UNLISTED ITEM" error="Please input customised items manually" sqref="C163:I163 A163 B69:B75 B53:B67 B77:B163 J77:XFD163" xr:uid="{227805A3-D203-44AE-9483-BFAA5260215C}">
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UNLISTED ITEM" error="Please input customised items manually" sqref="B186:B190" xr:uid="{92AF6CB7-4A80-4E2F-8377-0310E8DEBE08}"/>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UNLISTED ITEM" error="Please input customised items manually" sqref="C175:I175 A175 B69:B75 B53:B67 B77:B175 J77:XFD175" xr:uid="{227805A3-D203-44AE-9483-BFAA5260215C}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -4774,11 +4882,11 @@
   <rowBreaks count="7" manualBreakCount="7">
     <brk id="43" max="8" man="1"/>
     <brk id="83" max="8" man="1"/>
-    <brk id="123" max="8" man="1"/>
-    <brk id="163" max="8" man="1"/>
-    <brk id="204" max="8" man="1"/>
-    <brk id="248" max="8" man="1"/>
-    <brk id="271" max="8" man="1"/>
+    <brk id="129" max="8" man="1"/>
+    <brk id="175" max="8" man="1"/>
+    <brk id="216" max="8" man="1"/>
+    <brk id="260" max="8" man="1"/>
+    <brk id="283" max="8" man="1"/>
   </rowBreaks>
   <drawing r:id="rId4"/>
   <legacyDrawingHF r:id="rId5"/>

--- a/app/resource/xlsx/fee_proposal_template_3.xlsx
+++ b/app/resource/xlsx/fee_proposal_template_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zero\Documents\GitHub\xero-asana-intergration\app\resource\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E8438B-02FF-49F9-9604-A408975EE8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156BADC5-FCA2-451A-9D01-46D5B4F6A184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -703,7 +703,7 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -818,14 +818,47 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -833,9 +866,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -845,34 +875,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1319,8 +1322,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X310"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A153" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161:XFD161"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A159" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1339,16 +1342,16 @@
       <c r="A1" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48" t="e">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="15"/>
@@ -1356,10 +1359,10 @@
       <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="19"/>
@@ -1412,15 +1415,15 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1445,26 +1448,26 @@
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1472,93 +1475,93 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1587,16 +1590,16 @@
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="7"/>
@@ -1605,16 +1608,16 @@
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
@@ -1623,16 +1626,16 @@
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
@@ -1668,16 +1671,16 @@
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -1688,32 +1691,32 @@
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1738,46 +1741,46 @@
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
     </row>
@@ -1808,46 +1811,46 @@
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -2005,7 +2008,7 @@
       <c r="I51" s="33"/>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
+      <c r="A52" s="65"/>
       <c r="C52" s="3"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -2013,15 +2016,16 @@
       <c r="I52" s="45"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
       <c r="G53" s="1"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
+      <c r="A54" s="65"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
+      <c r="A55" s="12" t="str">
         <f t="shared" ref="A55:A66" si="0">IF(B55&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -2034,14 +2038,14 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
+      <c r="A56" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
+      <c r="A57" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2053,7 +2057,7 @@
       <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
+      <c r="A58" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2065,7 +2069,7 @@
       <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
+      <c r="A59" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2077,7 +2081,7 @@
       <c r="H59" s="16"/>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
+      <c r="A60" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2089,7 +2093,7 @@
       <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
+      <c r="A61" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2101,7 +2105,7 @@
       <c r="H61" s="16"/>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
+      <c r="A62" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2113,7 +2117,7 @@
       <c r="H62" s="16"/>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
+      <c r="A63" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2125,7 +2129,7 @@
       <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="str">
+      <c r="A64" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2137,7 +2141,7 @@
       <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="str">
+      <c r="A65" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2149,7 +2153,7 @@
       <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="str">
+      <c r="A66" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2161,6 +2165,7 @@
       <c r="H66" s="16"/>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12"/>
       <c r="C67" s="3"/>
       <c r="E67" s="8"/>
       <c r="F67" s="16"/>
@@ -2169,7 +2174,7 @@
       <c r="I67" s="45"/>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
+      <c r="A68" s="65"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
@@ -2179,7 +2184,7 @@
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="str">
+      <c r="A69" s="12" t="str">
         <f t="shared" ref="A69:A74" si="1">IF(B69&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -2188,13 +2193,16 @@
       <c r="H69" s="16"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+    </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
       <c r="C71" s="3"/>
       <c r="I71" s="45"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="str">
+      <c r="A72" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2202,7 +2210,7 @@
       <c r="I72" s="45"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="str">
+      <c r="A73" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2210,7 +2218,7 @@
       <c r="I73" s="45"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="str">
+      <c r="A74" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2218,10 +2226,11 @@
       <c r="I74" s="45"/>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
+      <c r="A76" s="65"/>
       <c r="C76" s="20"/>
       <c r="I76" s="1"/>
       <c r="J76" s="9"/>
@@ -2234,7 +2243,7 @@
       <c r="Q76" s="1"/>
     </row>
     <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="str">
+      <c r="A77" s="12" t="str">
         <f t="shared" ref="A77:A81" si="2">IF(B77&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -2247,7 +2256,7 @@
       <c r="I77" s="20"/>
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
+      <c r="A78" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2260,7 +2269,7 @@
       <c r="I78" s="20"/>
     </row>
     <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
+      <c r="A79" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2273,6 +2282,7 @@
       <c r="I79" s="20"/>
     </row>
     <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="12"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
@@ -2282,7 +2292,7 @@
       <c r="I80" s="20"/>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
+      <c r="A81" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2295,6 +2305,7 @@
       <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="12"/>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
@@ -2304,6 +2315,7 @@
       <c r="I82" s="20"/>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="12"/>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
@@ -2313,6 +2325,7 @@
       <c r="I83" s="20"/>
     </row>
     <row r="84" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="12"/>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
@@ -2322,6 +2335,7 @@
       <c r="I84" s="20"/>
     </row>
     <row r="85" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="12"/>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
@@ -2331,6 +2345,7 @@
       <c r="I85" s="20"/>
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
@@ -2340,6 +2355,7 @@
       <c r="I86" s="20"/>
     </row>
     <row r="87" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
       <c r="C87" s="20"/>
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
@@ -2349,6 +2365,7 @@
       <c r="I87" s="20"/>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12"/>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
@@ -2358,6 +2375,7 @@
       <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="12"/>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
@@ -2367,6 +2385,7 @@
       <c r="I89" s="20"/>
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
@@ -2376,6 +2395,7 @@
       <c r="I90" s="20"/>
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="12"/>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
@@ -2385,6 +2405,7 @@
       <c r="I91" s="20"/>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="12"/>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
@@ -2394,6 +2415,7 @@
       <c r="I92" s="20"/>
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12"/>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
@@ -2403,6 +2425,7 @@
       <c r="I93" s="20"/>
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="12"/>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
@@ -2412,6 +2435,7 @@
       <c r="I94" s="20"/>
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="12"/>
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
@@ -2421,6 +2445,7 @@
       <c r="I95" s="20"/>
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="12"/>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
@@ -2429,7 +2454,8 @@
       <c r="H96" s="20"/>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="12"/>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
@@ -2438,7 +2464,8 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="12"/>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
@@ -2447,7 +2474,8 @@
       <c r="H98" s="20"/>
       <c r="I98" s="20"/>
     </row>
-    <row r="99" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="12"/>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
@@ -2456,7 +2484,8 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="12"/>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
@@ -2465,7 +2494,8 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="12"/>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
@@ -2474,7 +2504,8 @@
       <c r="H101" s="20"/>
       <c r="I101" s="20"/>
     </row>
-    <row r="102" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="12"/>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
@@ -2483,7 +2514,8 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="12"/>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
@@ -2492,7 +2524,8 @@
       <c r="H103" s="20"/>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
@@ -2501,7 +2534,8 @@
       <c r="H104" s="20"/>
       <c r="I104" s="20"/>
     </row>
-    <row r="105" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="12"/>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
@@ -2510,7 +2544,8 @@
       <c r="H105" s="20"/>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
@@ -2519,7 +2554,8 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="12"/>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
@@ -2528,7 +2564,8 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="12"/>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
@@ -2537,7 +2574,8 @@
       <c r="H108" s="20"/>
       <c r="I108" s="20"/>
     </row>
-    <row r="109" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="12"/>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
       <c r="E109" s="20"/>
@@ -2546,7 +2584,8 @@
       <c r="H109" s="20"/>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="12"/>
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
       <c r="E110" s="20"/>
@@ -2555,7 +2594,8 @@
       <c r="H110" s="20"/>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="12"/>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
@@ -2564,7 +2604,8 @@
       <c r="H111" s="20"/>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="12"/>
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
@@ -2573,7 +2614,8 @@
       <c r="H112" s="20"/>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="12"/>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
@@ -2582,7 +2624,8 @@
       <c r="H113" s="20"/>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="12"/>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
@@ -2591,7 +2634,8 @@
       <c r="H114" s="20"/>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
@@ -2600,7 +2644,8 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="12"/>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
@@ -2609,7 +2654,8 @@
       <c r="H116" s="20"/>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="12"/>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
@@ -2618,7 +2664,8 @@
       <c r="H117" s="20"/>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="12"/>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
@@ -2627,7 +2674,8 @@
       <c r="H118" s="20"/>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="12"/>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
@@ -2636,7 +2684,8 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="12"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
@@ -2645,7 +2694,8 @@
       <c r="H120" s="20"/>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="12"/>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
@@ -2654,7 +2704,8 @@
       <c r="H121" s="20"/>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="12"/>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
@@ -2663,7 +2714,8 @@
       <c r="H122" s="20"/>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="12"/>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
@@ -2672,7 +2724,8 @@
       <c r="H123" s="20"/>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="12"/>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
@@ -2681,7 +2734,8 @@
       <c r="H124" s="20"/>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="12"/>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
@@ -2690,7 +2744,8 @@
       <c r="H125" s="20"/>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="12"/>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
@@ -2699,7 +2754,8 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
       <c r="E127" s="20"/>
@@ -2708,7 +2764,8 @@
       <c r="H127" s="20"/>
       <c r="I127" s="20"/>
     </row>
-    <row r="128" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="12"/>
       <c r="C128" s="20"/>
       <c r="D128" s="20"/>
       <c r="E128" s="20"/>
@@ -2717,7 +2774,8 @@
       <c r="H128" s="20"/>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="12"/>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
       <c r="E129" s="20"/>
@@ -2726,7 +2784,8 @@
       <c r="H129" s="20"/>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="12"/>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
       <c r="E130" s="20"/>
@@ -2735,7 +2794,8 @@
       <c r="H130" s="20"/>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="12"/>
       <c r="C131" s="20"/>
       <c r="D131" s="20"/>
       <c r="E131" s="20"/>
@@ -2744,7 +2804,8 @@
       <c r="H131" s="20"/>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="12"/>
       <c r="C132" s="20"/>
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
@@ -2753,7 +2814,8 @@
       <c r="H132" s="20"/>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="12"/>
       <c r="C133" s="20"/>
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
@@ -2762,7 +2824,8 @@
       <c r="H133" s="20"/>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="12"/>
       <c r="C134" s="20"/>
       <c r="D134" s="20"/>
       <c r="E134" s="20"/>
@@ -2771,7 +2834,8 @@
       <c r="H134" s="20"/>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="12"/>
       <c r="C135" s="20"/>
       <c r="D135" s="20"/>
       <c r="E135" s="20"/>
@@ -2780,7 +2844,8 @@
       <c r="H135" s="20"/>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="12"/>
       <c r="C136" s="20"/>
       <c r="D136" s="20"/>
       <c r="E136" s="20"/>
@@ -2789,7 +2854,8 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="12"/>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
       <c r="E137" s="20"/>
@@ -2798,7 +2864,8 @@
       <c r="H137" s="20"/>
       <c r="I137" s="20"/>
     </row>
-    <row r="138" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="12"/>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
       <c r="E138" s="20"/>
@@ -2807,7 +2874,8 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
       <c r="E139" s="20"/>
@@ -2816,7 +2884,8 @@
       <c r="H139" s="20"/>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="12"/>
       <c r="C140" s="20"/>
       <c r="D140" s="20"/>
       <c r="E140" s="20"/>
@@ -2825,7 +2894,8 @@
       <c r="H140" s="20"/>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="12"/>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
       <c r="E141" s="20"/>
@@ -2834,7 +2904,8 @@
       <c r="H141" s="20"/>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="12"/>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
       <c r="E142" s="20"/>
@@ -2843,7 +2914,8 @@
       <c r="H142" s="20"/>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="12"/>
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
       <c r="E143" s="20"/>
@@ -2852,7 +2924,8 @@
       <c r="H143" s="20"/>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="12"/>
       <c r="C144" s="20"/>
       <c r="D144" s="20"/>
       <c r="E144" s="20"/>
@@ -2861,7 +2934,8 @@
       <c r="H144" s="20"/>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="12"/>
       <c r="C145" s="20"/>
       <c r="D145" s="20"/>
       <c r="E145" s="20"/>
@@ -2870,7 +2944,8 @@
       <c r="H145" s="20"/>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="12"/>
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
       <c r="E146" s="20"/>
@@ -2879,7 +2954,8 @@
       <c r="H146" s="20"/>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="12"/>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
@@ -2888,7 +2964,8 @@
       <c r="H147" s="20"/>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="12"/>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
       <c r="E148" s="20"/>
@@ -2897,7 +2974,8 @@
       <c r="H148" s="20"/>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
       <c r="E149" s="20"/>
@@ -2906,7 +2984,8 @@
       <c r="H149" s="20"/>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="12"/>
       <c r="C150" s="20"/>
       <c r="D150" s="20"/>
       <c r="E150" s="20"/>
@@ -2915,7 +2994,8 @@
       <c r="H150" s="20"/>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="12"/>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
       <c r="E151" s="20"/>
@@ -2924,7 +3004,8 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
       <c r="E152" s="20"/>
@@ -2933,7 +3014,8 @@
       <c r="H152" s="20"/>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="12"/>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
       <c r="E153" s="20"/>
@@ -2942,7 +3024,8 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
       <c r="E154" s="20"/>
@@ -2951,7 +3034,8 @@
       <c r="H154" s="20"/>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="12"/>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
       <c r="E155" s="20"/>
@@ -2960,7 +3044,8 @@
       <c r="H155" s="20"/>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="12"/>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
       <c r="E156" s="20"/>
@@ -2969,7 +3054,8 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="12"/>
       <c r="C157" s="20"/>
       <c r="D157" s="20"/>
       <c r="E157" s="20"/>
@@ -2978,7 +3064,8 @@
       <c r="H157" s="20"/>
       <c r="I157" s="20"/>
     </row>
-    <row r="158" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="12"/>
       <c r="C158" s="20"/>
       <c r="D158" s="20"/>
       <c r="E158" s="20"/>
@@ -2987,7 +3074,8 @@
       <c r="H158" s="20"/>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="12"/>
       <c r="C159" s="20"/>
       <c r="D159" s="20"/>
       <c r="E159" s="20"/>
@@ -2996,7 +3084,8 @@
       <c r="H159" s="20"/>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="3:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="12"/>
       <c r="C160" s="20"/>
       <c r="D160" s="20"/>
       <c r="E160" s="20"/>
@@ -3006,6 +3095,7 @@
       <c r="I160" s="20"/>
     </row>
     <row r="161" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="12"/>
       <c r="C161" s="20"/>
       <c r="D161" s="20"/>
       <c r="E161" s="20"/>
@@ -3015,6 +3105,7 @@
       <c r="I161" s="20"/>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="12"/>
       <c r="C162" s="20"/>
       <c r="D162" s="20"/>
       <c r="E162" s="20"/>
@@ -3024,6 +3115,7 @@
       <c r="I162" s="20"/>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="12"/>
       <c r="C163" s="20"/>
       <c r="D163" s="20"/>
       <c r="E163" s="20"/>
@@ -3033,6 +3125,7 @@
       <c r="I163" s="20"/>
     </row>
     <row r="164" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="12"/>
       <c r="C164" s="20"/>
       <c r="D164" s="20"/>
       <c r="E164" s="20"/>
@@ -3042,6 +3135,7 @@
       <c r="I164" s="20"/>
     </row>
     <row r="165" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="12"/>
       <c r="C165" s="20"/>
       <c r="D165" s="20"/>
       <c r="E165" s="20"/>
@@ -3051,6 +3145,7 @@
       <c r="I165" s="20"/>
     </row>
     <row r="166" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="12"/>
       <c r="C166" s="20"/>
       <c r="D166" s="20"/>
       <c r="E166" s="20"/>
@@ -3060,6 +3155,7 @@
       <c r="I166" s="20"/>
     </row>
     <row r="167" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="12"/>
       <c r="C167" s="20"/>
       <c r="D167" s="20"/>
       <c r="E167" s="20"/>
@@ -3069,6 +3165,7 @@
       <c r="I167" s="20"/>
     </row>
     <row r="168" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="12"/>
       <c r="C168" s="20"/>
       <c r="D168" s="20"/>
       <c r="E168" s="20"/>
@@ -3078,6 +3175,7 @@
       <c r="I168" s="20"/>
     </row>
     <row r="169" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="12"/>
       <c r="C169" s="20"/>
       <c r="D169" s="20"/>
       <c r="E169" s="20"/>
@@ -3087,6 +3185,7 @@
       <c r="I169" s="20"/>
     </row>
     <row r="170" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="12"/>
       <c r="C170" s="20"/>
       <c r="D170" s="20"/>
       <c r="E170" s="20"/>
@@ -3096,6 +3195,7 @@
       <c r="I170" s="20"/>
     </row>
     <row r="171" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="12"/>
       <c r="C171" s="20"/>
       <c r="D171" s="20"/>
       <c r="E171" s="20"/>
@@ -3105,6 +3205,7 @@
       <c r="I171" s="20"/>
     </row>
     <row r="172" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="12"/>
       <c r="C172" s="20"/>
       <c r="D172" s="20"/>
       <c r="E172" s="20"/>
@@ -3114,6 +3215,7 @@
       <c r="I172" s="20"/>
     </row>
     <row r="173" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="12"/>
       <c r="C173" s="20"/>
       <c r="D173" s="20"/>
       <c r="E173" s="20"/>
@@ -3123,6 +3225,7 @@
       <c r="I173" s="20"/>
     </row>
     <row r="174" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="12"/>
       <c r="C174" s="20"/>
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
@@ -3132,6 +3235,7 @@
       <c r="I174" s="20"/>
     </row>
     <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="12"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="16"/>
@@ -3170,49 +3274,49 @@
     </row>
     <row r="178" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="35"/>
-      <c r="B178" s="47" t="s">
+      <c r="B178" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="C178" s="47"/>
-      <c r="D178" s="47"/>
-      <c r="E178" s="47"/>
-      <c r="F178" s="47"/>
-      <c r="G178" s="47"/>
-      <c r="H178" s="47"/>
-      <c r="I178" s="47"/>
+      <c r="C178" s="48"/>
+      <c r="D178" s="48"/>
+      <c r="E178" s="48"/>
+      <c r="F178" s="48"/>
+      <c r="G178" s="48"/>
+      <c r="H178" s="48"/>
+      <c r="I178" s="48"/>
     </row>
     <row r="179" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="35"/>
-      <c r="B179" s="47"/>
-      <c r="C179" s="47"/>
-      <c r="D179" s="47"/>
-      <c r="E179" s="47"/>
-      <c r="F179" s="47"/>
-      <c r="G179" s="47"/>
-      <c r="H179" s="47"/>
-      <c r="I179" s="47"/>
+      <c r="B179" s="48"/>
+      <c r="C179" s="48"/>
+      <c r="D179" s="48"/>
+      <c r="E179" s="48"/>
+      <c r="F179" s="48"/>
+      <c r="G179" s="48"/>
+      <c r="H179" s="48"/>
+      <c r="I179" s="48"/>
     </row>
     <row r="180" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="35"/>
-      <c r="B180" s="47"/>
-      <c r="C180" s="47"/>
-      <c r="D180" s="47"/>
-      <c r="E180" s="47"/>
-      <c r="F180" s="47"/>
-      <c r="G180" s="47"/>
-      <c r="H180" s="47"/>
-      <c r="I180" s="47"/>
+      <c r="B180" s="48"/>
+      <c r="C180" s="48"/>
+      <c r="D180" s="48"/>
+      <c r="E180" s="48"/>
+      <c r="F180" s="48"/>
+      <c r="G180" s="48"/>
+      <c r="H180" s="48"/>
+      <c r="I180" s="48"/>
     </row>
     <row r="181" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="35"/>
-      <c r="B181" s="47"/>
-      <c r="C181" s="47"/>
-      <c r="D181" s="47"/>
-      <c r="E181" s="47"/>
-      <c r="F181" s="47"/>
-      <c r="G181" s="47"/>
-      <c r="H181" s="47"/>
-      <c r="I181" s="47"/>
+      <c r="B181" s="48"/>
+      <c r="C181" s="48"/>
+      <c r="D181" s="48"/>
+      <c r="E181" s="48"/>
+      <c r="F181" s="48"/>
+      <c r="G181" s="48"/>
+      <c r="H181" s="48"/>
+      <c r="I181" s="48"/>
     </row>
     <row r="182" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="35"/>
@@ -3240,27 +3344,27 @@
     </row>
     <row r="184" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="35"/>
-      <c r="B184" s="47" t="s">
+      <c r="B184" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="C184" s="47"/>
-      <c r="D184" s="47"/>
-      <c r="E184" s="47"/>
-      <c r="F184" s="47"/>
-      <c r="G184" s="47"/>
-      <c r="H184" s="47"/>
-      <c r="I184" s="47"/>
+      <c r="C184" s="48"/>
+      <c r="D184" s="48"/>
+      <c r="E184" s="48"/>
+      <c r="F184" s="48"/>
+      <c r="G184" s="48"/>
+      <c r="H184" s="48"/>
+      <c r="I184" s="48"/>
     </row>
     <row r="185" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="35"/>
-      <c r="B185" s="47"/>
-      <c r="C185" s="47"/>
-      <c r="D185" s="47"/>
-      <c r="E185" s="47"/>
-      <c r="F185" s="47"/>
-      <c r="G185" s="47"/>
-      <c r="H185" s="47"/>
-      <c r="I185" s="47"/>
+      <c r="B185" s="48"/>
+      <c r="C185" s="48"/>
+      <c r="D185" s="48"/>
+      <c r="E185" s="48"/>
+      <c r="F185" s="48"/>
+      <c r="G185" s="48"/>
+      <c r="H185" s="48"/>
+      <c r="I185" s="48"/>
     </row>
     <row r="186" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
@@ -3350,16 +3454,16 @@
     </row>
     <row r="193" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="34"/>
-      <c r="B193" s="51" t="s">
+      <c r="B193" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C193" s="51"/>
-      <c r="D193" s="51"/>
-      <c r="E193" s="51"/>
-      <c r="F193" s="51"/>
-      <c r="G193" s="51"/>
-      <c r="H193" s="51"/>
-      <c r="I193" s="51"/>
+      <c r="C193" s="46"/>
+      <c r="D193" s="46"/>
+      <c r="E193" s="46"/>
+      <c r="F193" s="46"/>
+      <c r="G193" s="46"/>
+      <c r="H193" s="46"/>
+      <c r="I193" s="46"/>
       <c r="Q193" s="34"/>
     </row>
     <row r="194" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3537,16 +3641,16 @@
     </row>
     <row r="206" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="34"/>
-      <c r="B206" s="48" t="s">
+      <c r="B206" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C206" s="48"/>
-      <c r="D206" s="48"/>
-      <c r="E206" s="48"/>
-      <c r="F206" s="48"/>
-      <c r="G206" s="48"/>
-      <c r="H206" s="48"/>
-      <c r="I206" s="48"/>
+      <c r="C206" s="47"/>
+      <c r="D206" s="47"/>
+      <c r="E206" s="47"/>
+      <c r="F206" s="47"/>
+      <c r="G206" s="47"/>
+      <c r="H206" s="47"/>
+      <c r="I206" s="47"/>
       <c r="M206" s="7"/>
       <c r="N206" s="23"/>
       <c r="O206" s="22"/>
@@ -3613,16 +3717,16 @@
       <c r="P210"/>
     </row>
     <row r="211" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="51" t="s">
+      <c r="B211" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="C211" s="51"/>
-      <c r="D211" s="51"/>
-      <c r="E211" s="51"/>
-      <c r="F211" s="51"/>
-      <c r="G211" s="51"/>
-      <c r="H211" s="51"/>
-      <c r="I211" s="51"/>
+      <c r="C211" s="46"/>
+      <c r="D211" s="46"/>
+      <c r="E211" s="46"/>
+      <c r="F211" s="46"/>
+      <c r="G211" s="46"/>
+      <c r="H211" s="46"/>
+      <c r="I211" s="46"/>
       <c r="M211"/>
       <c r="N211"/>
     </row>
@@ -3631,14 +3735,14 @@
         <v>28</v>
       </c>
       <c r="C212" s="28"/>
-      <c r="D212" s="49" t="s">
+      <c r="D212" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E212" s="49"/>
-      <c r="F212" s="49" t="s">
+      <c r="E212" s="60"/>
+      <c r="F212" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G212" s="49"/>
+      <c r="G212" s="60"/>
       <c r="H212" s="9"/>
       <c r="Q212" s="5"/>
     </row>
@@ -3647,14 +3751,14 @@
         <v>24</v>
       </c>
       <c r="C213" s="28"/>
-      <c r="D213" s="49" t="s">
+      <c r="D213" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="E213" s="49"/>
-      <c r="F213" s="50">
+      <c r="E213" s="60"/>
+      <c r="F213" s="61">
         <v>10000000</v>
       </c>
-      <c r="G213" s="50"/>
+      <c r="G213" s="61"/>
       <c r="H213" s="23"/>
       <c r="I213" s="7"/>
       <c r="M213" s="5"/>
@@ -3668,14 +3772,14 @@
         <v>26</v>
       </c>
       <c r="C214" s="28"/>
-      <c r="D214" s="49" t="s">
+      <c r="D214" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E214" s="49"/>
-      <c r="F214" s="50">
+      <c r="E214" s="60"/>
+      <c r="F214" s="61">
         <v>20000000</v>
       </c>
-      <c r="G214" s="50"/>
+      <c r="G214" s="61"/>
       <c r="H214" s="23"/>
       <c r="M214" s="9"/>
     </row>
@@ -3715,50 +3819,50 @@
     </row>
     <row r="218" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
-      <c r="B218" s="47" t="s">
+      <c r="B218" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C218" s="47"/>
-      <c r="D218" s="47"/>
-      <c r="E218" s="47"/>
-      <c r="F218" s="47"/>
-      <c r="G218" s="47"/>
-      <c r="H218" s="47"/>
-      <c r="I218" s="47"/>
+      <c r="C218" s="48"/>
+      <c r="D218" s="48"/>
+      <c r="E218" s="48"/>
+      <c r="F218" s="48"/>
+      <c r="G218" s="48"/>
+      <c r="H218" s="48"/>
+      <c r="I218" s="48"/>
       <c r="M218" s="12"/>
     </row>
     <row r="219" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
-      <c r="B219" s="47"/>
-      <c r="C219" s="47"/>
-      <c r="D219" s="47"/>
-      <c r="E219" s="47"/>
-      <c r="F219" s="47"/>
-      <c r="G219" s="47"/>
-      <c r="H219" s="47"/>
-      <c r="I219" s="47"/>
+      <c r="B219" s="48"/>
+      <c r="C219" s="48"/>
+      <c r="D219" s="48"/>
+      <c r="E219" s="48"/>
+      <c r="F219" s="48"/>
+      <c r="G219" s="48"/>
+      <c r="H219" s="48"/>
+      <c r="I219" s="48"/>
     </row>
     <row r="220" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
-      <c r="B220" s="47"/>
-      <c r="C220" s="47"/>
-      <c r="D220" s="47"/>
-      <c r="E220" s="47"/>
-      <c r="F220" s="47"/>
-      <c r="G220" s="47"/>
-      <c r="H220" s="47"/>
-      <c r="I220" s="47"/>
+      <c r="B220" s="48"/>
+      <c r="C220" s="48"/>
+      <c r="D220" s="48"/>
+      <c r="E220" s="48"/>
+      <c r="F220" s="48"/>
+      <c r="G220" s="48"/>
+      <c r="H220" s="48"/>
+      <c r="I220" s="48"/>
     </row>
     <row r="221" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
-      <c r="B221" s="47"/>
-      <c r="C221" s="47"/>
-      <c r="D221" s="47"/>
-      <c r="E221" s="47"/>
-      <c r="F221" s="47"/>
-      <c r="G221" s="47"/>
-      <c r="H221" s="47"/>
-      <c r="I221" s="47"/>
+      <c r="B221" s="48"/>
+      <c r="C221" s="48"/>
+      <c r="D221" s="48"/>
+      <c r="E221" s="48"/>
+      <c r="F221" s="48"/>
+      <c r="G221" s="48"/>
+      <c r="H221" s="48"/>
+      <c r="I221" s="48"/>
       <c r="M221" s="5"/>
     </row>
     <row r="222" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3801,34 +3905,34 @@
       <c r="I224" s="21"/>
     </row>
     <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="47" t="s">
+      <c r="B225" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C225" s="47"/>
-      <c r="D225" s="47"/>
-      <c r="E225" s="47"/>
-      <c r="F225" s="47"/>
-      <c r="G225" s="47"/>
-      <c r="H225" s="47"/>
-      <c r="I225" s="47"/>
+      <c r="C225" s="48"/>
+      <c r="D225" s="48"/>
+      <c r="E225" s="48"/>
+      <c r="F225" s="48"/>
+      <c r="G225" s="48"/>
+      <c r="H225" s="48"/>
+      <c r="I225" s="48"/>
     </row>
     <row r="226" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="47"/>
-      <c r="C226" s="47"/>
-      <c r="D226" s="47"/>
-      <c r="E226" s="47"/>
-      <c r="F226" s="47"/>
-      <c r="G226" s="47"/>
-      <c r="H226" s="47"/>
-      <c r="I226" s="47"/>
+      <c r="B226" s="48"/>
+      <c r="C226" s="48"/>
+      <c r="D226" s="48"/>
+      <c r="E226" s="48"/>
+      <c r="F226" s="48"/>
+      <c r="G226" s="48"/>
+      <c r="H226" s="48"/>
+      <c r="I226" s="48"/>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="52" t="s">
+      <c r="B227" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C227" s="53"/>
-      <c r="D227" s="53"/>
-      <c r="E227" s="54"/>
+      <c r="C227" s="63"/>
+      <c r="D227" s="63"/>
+      <c r="E227" s="64"/>
       <c r="F227" s="41" t="s">
         <v>96</v>
       </c>
@@ -3838,50 +3942,50 @@
       <c r="H227" s="9"/>
     </row>
     <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="55"/>
-      <c r="C228" s="56"/>
-      <c r="D228" s="56"/>
-      <c r="E228" s="57"/>
+      <c r="B228" s="57"/>
+      <c r="C228" s="58"/>
+      <c r="D228" s="58"/>
+      <c r="E228" s="59"/>
       <c r="F228" s="31"/>
       <c r="G228" s="31"/>
       <c r="H228" s="23"/>
       <c r="I228" s="7"/>
     </row>
     <row r="229" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="55"/>
-      <c r="C229" s="56"/>
-      <c r="D229" s="56"/>
-      <c r="E229" s="57"/>
+      <c r="B229" s="57"/>
+      <c r="C229" s="58"/>
+      <c r="D229" s="58"/>
+      <c r="E229" s="59"/>
       <c r="F229" s="31"/>
       <c r="G229" s="31"/>
       <c r="H229" s="23"/>
       <c r="I229" s="7"/>
     </row>
     <row r="230" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="55"/>
-      <c r="C230" s="56"/>
-      <c r="D230" s="56"/>
-      <c r="E230" s="57"/>
+      <c r="B230" s="57"/>
+      <c r="C230" s="58"/>
+      <c r="D230" s="58"/>
+      <c r="E230" s="59"/>
       <c r="F230" s="31"/>
       <c r="G230" s="31"/>
       <c r="H230" s="23"/>
       <c r="I230" s="7"/>
     </row>
     <row r="231" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="55"/>
-      <c r="C231" s="56"/>
-      <c r="D231" s="56"/>
-      <c r="E231" s="57"/>
+      <c r="B231" s="57"/>
+      <c r="C231" s="58"/>
+      <c r="D231" s="58"/>
+      <c r="E231" s="59"/>
       <c r="F231" s="31"/>
       <c r="G231" s="31"/>
       <c r="H231" s="23"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C232" s="58" t="s">
+      <c r="C232" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="D232" s="58"/>
-      <c r="E232" s="58"/>
+      <c r="D232" s="56"/>
+      <c r="E232" s="56"/>
       <c r="F232" s="42">
         <f>SUM(F229:F231)</f>
         <v>0</v>
@@ -3907,38 +4011,38 @@
       <c r="H233" s="23"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B234" s="47" t="s">
+      <c r="B234" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C234" s="47"/>
-      <c r="D234" s="47"/>
-      <c r="E234" s="47"/>
-      <c r="F234" s="47"/>
-      <c r="G234" s="47"/>
-      <c r="H234" s="47"/>
-      <c r="I234" s="47"/>
+      <c r="C234" s="48"/>
+      <c r="D234" s="48"/>
+      <c r="E234" s="48"/>
+      <c r="F234" s="48"/>
+      <c r="G234" s="48"/>
+      <c r="H234" s="48"/>
+      <c r="I234" s="48"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="21"/>
-      <c r="B235" s="47"/>
-      <c r="C235" s="47"/>
-      <c r="D235" s="47"/>
-      <c r="E235" s="47"/>
-      <c r="F235" s="47"/>
-      <c r="G235" s="47"/>
-      <c r="H235" s="47"/>
-      <c r="I235" s="47"/>
+      <c r="B235" s="48"/>
+      <c r="C235" s="48"/>
+      <c r="D235" s="48"/>
+      <c r="E235" s="48"/>
+      <c r="F235" s="48"/>
+      <c r="G235" s="48"/>
+      <c r="H235" s="48"/>
+      <c r="I235" s="48"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="21"/>
-      <c r="B236" s="47"/>
-      <c r="C236" s="47"/>
-      <c r="D236" s="47"/>
-      <c r="E236" s="47"/>
-      <c r="F236" s="47"/>
-      <c r="G236" s="47"/>
-      <c r="H236" s="47"/>
-      <c r="I236" s="47"/>
+      <c r="B236" s="48"/>
+      <c r="C236" s="48"/>
+      <c r="D236" s="48"/>
+      <c r="E236" s="48"/>
+      <c r="F236" s="48"/>
+      <c r="G236" s="48"/>
+      <c r="H236" s="48"/>
+      <c r="I236" s="48"/>
     </row>
     <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
@@ -4117,11 +4221,11 @@
       <c r="B260" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F260" s="59">
+      <c r="F260" s="55">
         <f ca="1">TODAY()</f>
-        <v>45226</v>
-      </c>
-      <c r="G260" s="59"/>
+        <v>45250</v>
+      </c>
+      <c r="G260" s="55"/>
     </row>
     <row r="261" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="37" t="s">
@@ -4134,607 +4238,607 @@
       <c r="A262" s="8">
         <v>1</v>
       </c>
-      <c r="B262" s="46" t="s">
+      <c r="B262" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C262" s="46"/>
-      <c r="D262" s="46"/>
-      <c r="E262" s="46"/>
-      <c r="F262" s="46"/>
-      <c r="G262" s="46"/>
-      <c r="H262" s="46"/>
-      <c r="I262" s="46"/>
+      <c r="C262" s="54"/>
+      <c r="D262" s="54"/>
+      <c r="E262" s="54"/>
+      <c r="F262" s="54"/>
+      <c r="G262" s="54"/>
+      <c r="H262" s="54"/>
+      <c r="I262" s="54"/>
     </row>
     <row r="263" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
         <v>2</v>
       </c>
-      <c r="B263" s="46" t="s">
+      <c r="B263" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C263" s="46"/>
-      <c r="D263" s="46"/>
-      <c r="E263" s="46"/>
-      <c r="F263" s="46"/>
-      <c r="G263" s="46"/>
-      <c r="H263" s="46"/>
-      <c r="I263" s="46"/>
+      <c r="C263" s="54"/>
+      <c r="D263" s="54"/>
+      <c r="E263" s="54"/>
+      <c r="F263" s="54"/>
+      <c r="G263" s="54"/>
+      <c r="H263" s="54"/>
+      <c r="I263" s="54"/>
     </row>
     <row r="264" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
         <v>3</v>
       </c>
-      <c r="B264" s="46" t="s">
+      <c r="B264" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C264" s="46"/>
-      <c r="D264" s="46"/>
-      <c r="E264" s="46"/>
-      <c r="F264" s="46"/>
-      <c r="G264" s="46"/>
-      <c r="H264" s="46"/>
-      <c r="I264" s="46"/>
+      <c r="C264" s="54"/>
+      <c r="D264" s="54"/>
+      <c r="E264" s="54"/>
+      <c r="F264" s="54"/>
+      <c r="G264" s="54"/>
+      <c r="H264" s="54"/>
+      <c r="I264" s="54"/>
     </row>
     <row r="265" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
         <v>4</v>
       </c>
-      <c r="B265" s="46" t="s">
+      <c r="B265" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C265" s="46"/>
-      <c r="D265" s="46"/>
-      <c r="E265" s="46"/>
-      <c r="F265" s="46"/>
-      <c r="G265" s="46"/>
-      <c r="H265" s="46"/>
-      <c r="I265" s="46"/>
+      <c r="C265" s="54"/>
+      <c r="D265" s="54"/>
+      <c r="E265" s="54"/>
+      <c r="F265" s="54"/>
+      <c r="G265" s="54"/>
+      <c r="H265" s="54"/>
+      <c r="I265" s="54"/>
     </row>
     <row r="266" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
         <v>5</v>
       </c>
-      <c r="B266" s="46" t="s">
+      <c r="B266" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C266" s="46"/>
-      <c r="D266" s="46"/>
-      <c r="E266" s="46"/>
-      <c r="F266" s="46"/>
-      <c r="G266" s="46"/>
-      <c r="H266" s="46"/>
-      <c r="I266" s="46"/>
+      <c r="C266" s="54"/>
+      <c r="D266" s="54"/>
+      <c r="E266" s="54"/>
+      <c r="F266" s="54"/>
+      <c r="G266" s="54"/>
+      <c r="H266" s="54"/>
+      <c r="I266" s="54"/>
     </row>
     <row r="267" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="8"/>
-      <c r="B267" s="46" t="s">
+      <c r="B267" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C267" s="46"/>
-      <c r="D267" s="46"/>
-      <c r="E267" s="46"/>
-      <c r="F267" s="46"/>
-      <c r="G267" s="46"/>
-      <c r="H267" s="46"/>
-      <c r="I267" s="46"/>
+      <c r="C267" s="54"/>
+      <c r="D267" s="54"/>
+      <c r="E267" s="54"/>
+      <c r="F267" s="54"/>
+      <c r="G267" s="54"/>
+      <c r="H267" s="54"/>
+      <c r="I267" s="54"/>
     </row>
     <row r="268" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="8"/>
-      <c r="B268" s="46" t="s">
+      <c r="B268" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C268" s="46"/>
-      <c r="D268" s="46"/>
-      <c r="E268" s="46"/>
-      <c r="F268" s="46"/>
-      <c r="G268" s="46"/>
-      <c r="H268" s="46"/>
-      <c r="I268" s="46"/>
+      <c r="C268" s="54"/>
+      <c r="D268" s="54"/>
+      <c r="E268" s="54"/>
+      <c r="F268" s="54"/>
+      <c r="G268" s="54"/>
+      <c r="H268" s="54"/>
+      <c r="I268" s="54"/>
     </row>
     <row r="269" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="8"/>
-      <c r="B269" s="46" t="s">
+      <c r="B269" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C269" s="46"/>
-      <c r="D269" s="46"/>
-      <c r="E269" s="46"/>
-      <c r="F269" s="46"/>
-      <c r="G269" s="46"/>
-      <c r="H269" s="46"/>
-      <c r="I269" s="46"/>
+      <c r="C269" s="54"/>
+      <c r="D269" s="54"/>
+      <c r="E269" s="54"/>
+      <c r="F269" s="54"/>
+      <c r="G269" s="54"/>
+      <c r="H269" s="54"/>
+      <c r="I269" s="54"/>
     </row>
     <row r="270" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
         <v>6</v>
       </c>
-      <c r="B270" s="46" t="s">
+      <c r="B270" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C270" s="46"/>
-      <c r="D270" s="46"/>
-      <c r="E270" s="46"/>
-      <c r="F270" s="46"/>
-      <c r="G270" s="46"/>
-      <c r="H270" s="46"/>
-      <c r="I270" s="46"/>
+      <c r="C270" s="54"/>
+      <c r="D270" s="54"/>
+      <c r="E270" s="54"/>
+      <c r="F270" s="54"/>
+      <c r="G270" s="54"/>
+      <c r="H270" s="54"/>
+      <c r="I270" s="54"/>
     </row>
     <row r="271" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
-      <c r="B271" s="46" t="s">
+      <c r="B271" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C271" s="46"/>
-      <c r="D271" s="46"/>
-      <c r="E271" s="46"/>
-      <c r="F271" s="46"/>
-      <c r="G271" s="46"/>
-      <c r="H271" s="46"/>
-      <c r="I271" s="46"/>
+      <c r="C271" s="54"/>
+      <c r="D271" s="54"/>
+      <c r="E271" s="54"/>
+      <c r="F271" s="54"/>
+      <c r="G271" s="54"/>
+      <c r="H271" s="54"/>
+      <c r="I271" s="54"/>
     </row>
     <row r="272" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="8"/>
-      <c r="B272" s="46" t="s">
+      <c r="B272" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C272" s="46"/>
-      <c r="D272" s="46"/>
-      <c r="E272" s="46"/>
-      <c r="F272" s="46"/>
-      <c r="G272" s="46"/>
-      <c r="H272" s="46"/>
-      <c r="I272" s="46"/>
+      <c r="C272" s="54"/>
+      <c r="D272" s="54"/>
+      <c r="E272" s="54"/>
+      <c r="F272" s="54"/>
+      <c r="G272" s="54"/>
+      <c r="H272" s="54"/>
+      <c r="I272" s="54"/>
     </row>
     <row r="273" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>7</v>
       </c>
-      <c r="B273" s="46" t="s">
+      <c r="B273" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C273" s="46"/>
-      <c r="D273" s="46"/>
-      <c r="E273" s="46"/>
-      <c r="F273" s="46"/>
-      <c r="G273" s="46"/>
-      <c r="H273" s="46"/>
-      <c r="I273" s="46"/>
+      <c r="C273" s="54"/>
+      <c r="D273" s="54"/>
+      <c r="E273" s="54"/>
+      <c r="F273" s="54"/>
+      <c r="G273" s="54"/>
+      <c r="H273" s="54"/>
+      <c r="I273" s="54"/>
     </row>
     <row r="274" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>8</v>
       </c>
-      <c r="B274" s="46" t="s">
+      <c r="B274" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C274" s="46"/>
-      <c r="D274" s="46"/>
-      <c r="E274" s="46"/>
-      <c r="F274" s="46"/>
-      <c r="G274" s="46"/>
-      <c r="H274" s="46"/>
-      <c r="I274" s="46"/>
+      <c r="C274" s="54"/>
+      <c r="D274" s="54"/>
+      <c r="E274" s="54"/>
+      <c r="F274" s="54"/>
+      <c r="G274" s="54"/>
+      <c r="H274" s="54"/>
+      <c r="I274" s="54"/>
     </row>
     <row r="275" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="8"/>
-      <c r="B275" s="46" t="s">
+      <c r="B275" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C275" s="46"/>
-      <c r="D275" s="46"/>
-      <c r="E275" s="46"/>
-      <c r="F275" s="46"/>
-      <c r="G275" s="46"/>
-      <c r="H275" s="46"/>
-      <c r="I275" s="46"/>
+      <c r="C275" s="54"/>
+      <c r="D275" s="54"/>
+      <c r="E275" s="54"/>
+      <c r="F275" s="54"/>
+      <c r="G275" s="54"/>
+      <c r="H275" s="54"/>
+      <c r="I275" s="54"/>
     </row>
     <row r="276" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="8"/>
-      <c r="B276" s="46" t="s">
+      <c r="B276" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C276" s="46"/>
-      <c r="D276" s="46"/>
-      <c r="E276" s="46"/>
-      <c r="F276" s="46"/>
-      <c r="G276" s="46"/>
-      <c r="H276" s="46"/>
-      <c r="I276" s="46"/>
+      <c r="C276" s="54"/>
+      <c r="D276" s="54"/>
+      <c r="E276" s="54"/>
+      <c r="F276" s="54"/>
+      <c r="G276" s="54"/>
+      <c r="H276" s="54"/>
+      <c r="I276" s="54"/>
     </row>
     <row r="277" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="8"/>
-      <c r="B277" s="46" t="s">
+      <c r="B277" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C277" s="46"/>
-      <c r="D277" s="46"/>
-      <c r="E277" s="46"/>
-      <c r="F277" s="46"/>
-      <c r="G277" s="46"/>
-      <c r="H277" s="46"/>
-      <c r="I277" s="46"/>
+      <c r="C277" s="54"/>
+      <c r="D277" s="54"/>
+      <c r="E277" s="54"/>
+      <c r="F277" s="54"/>
+      <c r="G277" s="54"/>
+      <c r="H277" s="54"/>
+      <c r="I277" s="54"/>
     </row>
     <row r="278" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="8"/>
-      <c r="B278" s="46" t="s">
+      <c r="B278" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C278" s="46"/>
-      <c r="D278" s="46"/>
-      <c r="E278" s="46"/>
-      <c r="F278" s="46"/>
-      <c r="G278" s="46"/>
-      <c r="H278" s="46"/>
-      <c r="I278" s="46"/>
+      <c r="C278" s="54"/>
+      <c r="D278" s="54"/>
+      <c r="E278" s="54"/>
+      <c r="F278" s="54"/>
+      <c r="G278" s="54"/>
+      <c r="H278" s="54"/>
+      <c r="I278" s="54"/>
     </row>
     <row r="279" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="8"/>
-      <c r="B279" s="46" t="s">
+      <c r="B279" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C279" s="46"/>
-      <c r="D279" s="46"/>
-      <c r="E279" s="46"/>
-      <c r="F279" s="46"/>
-      <c r="G279" s="46"/>
-      <c r="H279" s="46"/>
-      <c r="I279" s="46"/>
+      <c r="C279" s="54"/>
+      <c r="D279" s="54"/>
+      <c r="E279" s="54"/>
+      <c r="F279" s="54"/>
+      <c r="G279" s="54"/>
+      <c r="H279" s="54"/>
+      <c r="I279" s="54"/>
     </row>
     <row r="280" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="8"/>
-      <c r="B280" s="46" t="s">
+      <c r="B280" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C280" s="46"/>
-      <c r="D280" s="46"/>
-      <c r="E280" s="46"/>
-      <c r="F280" s="46"/>
-      <c r="G280" s="46"/>
-      <c r="H280" s="46"/>
-      <c r="I280" s="46"/>
+      <c r="C280" s="54"/>
+      <c r="D280" s="54"/>
+      <c r="E280" s="54"/>
+      <c r="F280" s="54"/>
+      <c r="G280" s="54"/>
+      <c r="H280" s="54"/>
+      <c r="I280" s="54"/>
     </row>
     <row r="281" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>9</v>
       </c>
-      <c r="B281" s="46" t="s">
+      <c r="B281" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C281" s="46"/>
-      <c r="D281" s="46"/>
-      <c r="E281" s="46"/>
-      <c r="F281" s="46"/>
-      <c r="G281" s="46"/>
-      <c r="H281" s="46"/>
-      <c r="I281" s="46"/>
+      <c r="C281" s="54"/>
+      <c r="D281" s="54"/>
+      <c r="E281" s="54"/>
+      <c r="F281" s="54"/>
+      <c r="G281" s="54"/>
+      <c r="H281" s="54"/>
+      <c r="I281" s="54"/>
     </row>
     <row r="282" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
         <v>10</v>
       </c>
-      <c r="B282" s="46" t="s">
+      <c r="B282" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C282" s="46"/>
-      <c r="D282" s="46"/>
-      <c r="E282" s="46"/>
-      <c r="F282" s="46"/>
-      <c r="G282" s="46"/>
-      <c r="H282" s="46"/>
-      <c r="I282" s="46"/>
+      <c r="C282" s="54"/>
+      <c r="D282" s="54"/>
+      <c r="E282" s="54"/>
+      <c r="F282" s="54"/>
+      <c r="G282" s="54"/>
+      <c r="H282" s="54"/>
+      <c r="I282" s="54"/>
     </row>
     <row r="283" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="8"/>
-      <c r="B283" s="46" t="s">
+      <c r="B283" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C283" s="46"/>
-      <c r="D283" s="46"/>
-      <c r="E283" s="46"/>
-      <c r="F283" s="46"/>
-      <c r="G283" s="46"/>
-      <c r="H283" s="46"/>
-      <c r="I283" s="46"/>
+      <c r="C283" s="54"/>
+      <c r="D283" s="54"/>
+      <c r="E283" s="54"/>
+      <c r="F283" s="54"/>
+      <c r="G283" s="54"/>
+      <c r="H283" s="54"/>
+      <c r="I283" s="54"/>
     </row>
     <row r="284" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="8"/>
-      <c r="B284" s="46" t="s">
+      <c r="B284" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C284" s="46"/>
-      <c r="D284" s="46"/>
-      <c r="E284" s="46"/>
-      <c r="F284" s="46"/>
-      <c r="G284" s="46"/>
-      <c r="H284" s="46"/>
-      <c r="I284" s="46"/>
+      <c r="C284" s="54"/>
+      <c r="D284" s="54"/>
+      <c r="E284" s="54"/>
+      <c r="F284" s="54"/>
+      <c r="G284" s="54"/>
+      <c r="H284" s="54"/>
+      <c r="I284" s="54"/>
     </row>
     <row r="285" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="8"/>
-      <c r="B285" s="46" t="s">
+      <c r="B285" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C285" s="46"/>
-      <c r="D285" s="46"/>
-      <c r="E285" s="46"/>
-      <c r="F285" s="46"/>
-      <c r="G285" s="46"/>
-      <c r="H285" s="46"/>
-      <c r="I285" s="46"/>
+      <c r="C285" s="54"/>
+      <c r="D285" s="54"/>
+      <c r="E285" s="54"/>
+      <c r="F285" s="54"/>
+      <c r="G285" s="54"/>
+      <c r="H285" s="54"/>
+      <c r="I285" s="54"/>
     </row>
     <row r="286" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="8"/>
-      <c r="B286" s="46" t="s">
+      <c r="B286" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C286" s="46"/>
-      <c r="D286" s="46"/>
-      <c r="E286" s="46"/>
-      <c r="F286" s="46"/>
-      <c r="G286" s="46"/>
-      <c r="H286" s="46"/>
-      <c r="I286" s="46"/>
+      <c r="C286" s="54"/>
+      <c r="D286" s="54"/>
+      <c r="E286" s="54"/>
+      <c r="F286" s="54"/>
+      <c r="G286" s="54"/>
+      <c r="H286" s="54"/>
+      <c r="I286" s="54"/>
     </row>
     <row r="287" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>11</v>
       </c>
-      <c r="B287" s="46" t="s">
+      <c r="B287" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C287" s="46"/>
-      <c r="D287" s="46"/>
-      <c r="E287" s="46"/>
-      <c r="F287" s="46"/>
-      <c r="G287" s="46"/>
-      <c r="H287" s="46"/>
-      <c r="I287" s="46"/>
+      <c r="C287" s="54"/>
+      <c r="D287" s="54"/>
+      <c r="E287" s="54"/>
+      <c r="F287" s="54"/>
+      <c r="G287" s="54"/>
+      <c r="H287" s="54"/>
+      <c r="I287" s="54"/>
     </row>
     <row r="288" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="8"/>
-      <c r="B288" s="46" t="s">
+      <c r="B288" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C288" s="46"/>
-      <c r="D288" s="46"/>
-      <c r="E288" s="46"/>
-      <c r="F288" s="46"/>
-      <c r="G288" s="46"/>
-      <c r="H288" s="46"/>
-      <c r="I288" s="46"/>
+      <c r="C288" s="54"/>
+      <c r="D288" s="54"/>
+      <c r="E288" s="54"/>
+      <c r="F288" s="54"/>
+      <c r="G288" s="54"/>
+      <c r="H288" s="54"/>
+      <c r="I288" s="54"/>
     </row>
     <row r="289" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="8"/>
-      <c r="B289" s="46" t="s">
+      <c r="B289" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C289" s="46"/>
-      <c r="D289" s="46"/>
-      <c r="E289" s="46"/>
-      <c r="F289" s="46"/>
-      <c r="G289" s="46"/>
-      <c r="H289" s="46"/>
-      <c r="I289" s="46"/>
+      <c r="C289" s="54"/>
+      <c r="D289" s="54"/>
+      <c r="E289" s="54"/>
+      <c r="F289" s="54"/>
+      <c r="G289" s="54"/>
+      <c r="H289" s="54"/>
+      <c r="I289" s="54"/>
     </row>
     <row r="290" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
         <v>12</v>
       </c>
-      <c r="B290" s="46" t="s">
+      <c r="B290" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C290" s="46"/>
-      <c r="D290" s="46"/>
-      <c r="E290" s="46"/>
-      <c r="F290" s="46"/>
-      <c r="G290" s="46"/>
-      <c r="H290" s="46"/>
-      <c r="I290" s="46"/>
+      <c r="C290" s="54"/>
+      <c r="D290" s="54"/>
+      <c r="E290" s="54"/>
+      <c r="F290" s="54"/>
+      <c r="G290" s="54"/>
+      <c r="H290" s="54"/>
+      <c r="I290" s="54"/>
     </row>
     <row r="291" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="8"/>
-      <c r="B291" s="46" t="s">
+      <c r="B291" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C291" s="46"/>
-      <c r="D291" s="46"/>
-      <c r="E291" s="46"/>
-      <c r="F291" s="46"/>
-      <c r="G291" s="46"/>
-      <c r="H291" s="46"/>
-      <c r="I291" s="46"/>
+      <c r="C291" s="54"/>
+      <c r="D291" s="54"/>
+      <c r="E291" s="54"/>
+      <c r="F291" s="54"/>
+      <c r="G291" s="54"/>
+      <c r="H291" s="54"/>
+      <c r="I291" s="54"/>
     </row>
     <row r="292" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="8"/>
-      <c r="B292" s="46" t="s">
+      <c r="B292" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C292" s="46"/>
-      <c r="D292" s="46"/>
-      <c r="E292" s="46"/>
-      <c r="F292" s="46"/>
-      <c r="G292" s="46"/>
-      <c r="H292" s="46"/>
-      <c r="I292" s="46"/>
+      <c r="C292" s="54"/>
+      <c r="D292" s="54"/>
+      <c r="E292" s="54"/>
+      <c r="F292" s="54"/>
+      <c r="G292" s="54"/>
+      <c r="H292" s="54"/>
+      <c r="I292" s="54"/>
     </row>
     <row r="293" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="8"/>
-      <c r="B293" s="46" t="s">
+      <c r="B293" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C293" s="46"/>
-      <c r="D293" s="46"/>
-      <c r="E293" s="46"/>
-      <c r="F293" s="46"/>
-      <c r="G293" s="46"/>
-      <c r="H293" s="46"/>
-      <c r="I293" s="46"/>
+      <c r="C293" s="54"/>
+      <c r="D293" s="54"/>
+      <c r="E293" s="54"/>
+      <c r="F293" s="54"/>
+      <c r="G293" s="54"/>
+      <c r="H293" s="54"/>
+      <c r="I293" s="54"/>
     </row>
     <row r="294" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="8"/>
-      <c r="B294" s="46" t="s">
+      <c r="B294" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C294" s="46"/>
-      <c r="D294" s="46"/>
-      <c r="E294" s="46"/>
-      <c r="F294" s="46"/>
-      <c r="G294" s="46"/>
-      <c r="H294" s="46"/>
-      <c r="I294" s="46"/>
+      <c r="C294" s="54"/>
+      <c r="D294" s="54"/>
+      <c r="E294" s="54"/>
+      <c r="F294" s="54"/>
+      <c r="G294" s="54"/>
+      <c r="H294" s="54"/>
+      <c r="I294" s="54"/>
     </row>
     <row r="295" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>13</v>
       </c>
-      <c r="B295" s="46" t="s">
+      <c r="B295" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C295" s="46"/>
-      <c r="D295" s="46"/>
-      <c r="E295" s="46"/>
-      <c r="F295" s="46"/>
-      <c r="G295" s="46"/>
-      <c r="H295" s="46"/>
-      <c r="I295" s="46"/>
+      <c r="C295" s="54"/>
+      <c r="D295" s="54"/>
+      <c r="E295" s="54"/>
+      <c r="F295" s="54"/>
+      <c r="G295" s="54"/>
+      <c r="H295" s="54"/>
+      <c r="I295" s="54"/>
     </row>
     <row r="296" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="8"/>
-      <c r="B296" s="46" t="s">
+      <c r="B296" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C296" s="46"/>
-      <c r="D296" s="46"/>
-      <c r="E296" s="46"/>
-      <c r="F296" s="46"/>
-      <c r="G296" s="46"/>
-      <c r="H296" s="46"/>
-      <c r="I296" s="46"/>
+      <c r="C296" s="54"/>
+      <c r="D296" s="54"/>
+      <c r="E296" s="54"/>
+      <c r="F296" s="54"/>
+      <c r="G296" s="54"/>
+      <c r="H296" s="54"/>
+      <c r="I296" s="54"/>
     </row>
     <row r="297" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="8"/>
-      <c r="B297" s="46" t="s">
+      <c r="B297" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="C297" s="46"/>
-      <c r="D297" s="46"/>
-      <c r="E297" s="46"/>
-      <c r="F297" s="46"/>
-      <c r="G297" s="46"/>
-      <c r="H297" s="46"/>
-      <c r="I297" s="46"/>
+      <c r="C297" s="54"/>
+      <c r="D297" s="54"/>
+      <c r="E297" s="54"/>
+      <c r="F297" s="54"/>
+      <c r="G297" s="54"/>
+      <c r="H297" s="54"/>
+      <c r="I297" s="54"/>
     </row>
     <row r="298" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
         <v>14</v>
       </c>
-      <c r="B298" s="46" t="s">
+      <c r="B298" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C298" s="46"/>
-      <c r="D298" s="46"/>
-      <c r="E298" s="46"/>
-      <c r="F298" s="46"/>
-      <c r="G298" s="46"/>
-      <c r="H298" s="46"/>
-      <c r="I298" s="46"/>
+      <c r="C298" s="54"/>
+      <c r="D298" s="54"/>
+      <c r="E298" s="54"/>
+      <c r="F298" s="54"/>
+      <c r="G298" s="54"/>
+      <c r="H298" s="54"/>
+      <c r="I298" s="54"/>
     </row>
     <row r="299" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="8"/>
-      <c r="B299" s="46" t="s">
+      <c r="B299" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C299" s="46"/>
-      <c r="D299" s="46"/>
-      <c r="E299" s="46"/>
-      <c r="F299" s="46"/>
-      <c r="G299" s="46"/>
-      <c r="H299" s="46"/>
-      <c r="I299" s="46"/>
+      <c r="C299" s="54"/>
+      <c r="D299" s="54"/>
+      <c r="E299" s="54"/>
+      <c r="F299" s="54"/>
+      <c r="G299" s="54"/>
+      <c r="H299" s="54"/>
+      <c r="I299" s="54"/>
     </row>
     <row r="300" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="8"/>
-      <c r="B300" s="46" t="s">
+      <c r="B300" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C300" s="46"/>
-      <c r="D300" s="46"/>
-      <c r="E300" s="46"/>
-      <c r="F300" s="46"/>
-      <c r="G300" s="46"/>
-      <c r="H300" s="46"/>
-      <c r="I300" s="46"/>
+      <c r="C300" s="54"/>
+      <c r="D300" s="54"/>
+      <c r="E300" s="54"/>
+      <c r="F300" s="54"/>
+      <c r="G300" s="54"/>
+      <c r="H300" s="54"/>
+      <c r="I300" s="54"/>
     </row>
     <row r="301" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="8"/>
-      <c r="B301" s="46" t="s">
+      <c r="B301" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C301" s="46"/>
-      <c r="D301" s="46"/>
-      <c r="E301" s="46"/>
-      <c r="F301" s="46"/>
-      <c r="G301" s="46"/>
-      <c r="H301" s="46"/>
-      <c r="I301" s="46"/>
+      <c r="C301" s="54"/>
+      <c r="D301" s="54"/>
+      <c r="E301" s="54"/>
+      <c r="F301" s="54"/>
+      <c r="G301" s="54"/>
+      <c r="H301" s="54"/>
+      <c r="I301" s="54"/>
     </row>
     <row r="302" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="8"/>
-      <c r="B302" s="46" t="s">
+      <c r="B302" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="C302" s="46"/>
-      <c r="D302" s="46"/>
-      <c r="E302" s="46"/>
-      <c r="F302" s="46"/>
-      <c r="G302" s="46"/>
-      <c r="H302" s="46"/>
-      <c r="I302" s="46"/>
+      <c r="C302" s="54"/>
+      <c r="D302" s="54"/>
+      <c r="E302" s="54"/>
+      <c r="F302" s="54"/>
+      <c r="G302" s="54"/>
+      <c r="H302" s="54"/>
+      <c r="I302" s="54"/>
     </row>
     <row r="303" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
         <v>15</v>
       </c>
-      <c r="B303" s="46" t="s">
+      <c r="B303" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C303" s="46"/>
-      <c r="D303" s="46"/>
-      <c r="E303" s="46"/>
-      <c r="F303" s="46"/>
-      <c r="G303" s="46"/>
-      <c r="H303" s="46"/>
-      <c r="I303" s="46"/>
+      <c r="C303" s="54"/>
+      <c r="D303" s="54"/>
+      <c r="E303" s="54"/>
+      <c r="F303" s="54"/>
+      <c r="G303" s="54"/>
+      <c r="H303" s="54"/>
+      <c r="I303" s="54"/>
     </row>
     <row r="304" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
         <v>16</v>
       </c>
-      <c r="B304" s="46" t="s">
+      <c r="B304" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C304" s="46"/>
-      <c r="D304" s="46"/>
-      <c r="E304" s="46"/>
-      <c r="F304" s="46"/>
-      <c r="G304" s="46"/>
-      <c r="H304" s="46"/>
-      <c r="I304" s="46"/>
+      <c r="C304" s="54"/>
+      <c r="D304" s="54"/>
+      <c r="E304" s="54"/>
+      <c r="F304" s="54"/>
+      <c r="G304" s="54"/>
+      <c r="H304" s="54"/>
+      <c r="I304" s="54"/>
     </row>
     <row r="305" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
         <v>17</v>
       </c>
-      <c r="B305" s="46" t="s">
+      <c r="B305" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C305" s="46"/>
-      <c r="D305" s="46"/>
-      <c r="E305" s="46"/>
-      <c r="F305" s="46"/>
-      <c r="G305" s="46"/>
-      <c r="H305" s="46"/>
-      <c r="I305" s="46"/>
+      <c r="C305" s="54"/>
+      <c r="D305" s="54"/>
+      <c r="E305" s="54"/>
+      <c r="F305" s="54"/>
+      <c r="G305" s="54"/>
+      <c r="H305" s="54"/>
+      <c r="I305" s="54"/>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="27"/>
@@ -4753,55 +4857,27 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B193:I193"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B184:I185"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B178:I181"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="Q9:X9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A11:I14"/>
-    <mergeCell ref="M11:T14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A8:I9"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B304:I304"/>
-    <mergeCell ref="B293:I293"/>
-    <mergeCell ref="B294:I294"/>
-    <mergeCell ref="B295:I295"/>
-    <mergeCell ref="B296:I296"/>
-    <mergeCell ref="B297:I297"/>
-    <mergeCell ref="B298:I298"/>
-    <mergeCell ref="B299:I299"/>
-    <mergeCell ref="B300:I300"/>
-    <mergeCell ref="B301:I301"/>
-    <mergeCell ref="B302:I302"/>
-    <mergeCell ref="B303:I303"/>
-    <mergeCell ref="B279:I279"/>
-    <mergeCell ref="B292:I292"/>
-    <mergeCell ref="B281:I281"/>
-    <mergeCell ref="B282:I282"/>
-    <mergeCell ref="B283:I283"/>
-    <mergeCell ref="B284:I284"/>
-    <mergeCell ref="B285:I285"/>
-    <mergeCell ref="B286:I286"/>
-    <mergeCell ref="B287:I287"/>
-    <mergeCell ref="B288:I288"/>
-    <mergeCell ref="B289:I289"/>
-    <mergeCell ref="B290:I290"/>
-    <mergeCell ref="B291:I291"/>
+    <mergeCell ref="B305:I305"/>
+    <mergeCell ref="B218:I221"/>
+    <mergeCell ref="B206:I206"/>
+    <mergeCell ref="B225:I226"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="B211:I211"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="B229:E229"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="B262:I262"/>
+    <mergeCell ref="B263:I263"/>
+    <mergeCell ref="B264:I264"/>
+    <mergeCell ref="B265:I265"/>
+    <mergeCell ref="C232:E232"/>
+    <mergeCell ref="B231:E231"/>
     <mergeCell ref="B266:I266"/>
     <mergeCell ref="F260:G260"/>
     <mergeCell ref="B234:I236"/>
@@ -4818,27 +4894,55 @@
     <mergeCell ref="B275:I275"/>
     <mergeCell ref="B277:I277"/>
     <mergeCell ref="B278:I278"/>
-    <mergeCell ref="B263:I263"/>
-    <mergeCell ref="B264:I264"/>
-    <mergeCell ref="B265:I265"/>
-    <mergeCell ref="C232:E232"/>
-    <mergeCell ref="B231:E231"/>
-    <mergeCell ref="B305:I305"/>
-    <mergeCell ref="B218:I221"/>
-    <mergeCell ref="B206:I206"/>
-    <mergeCell ref="B225:I226"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="B211:I211"/>
-    <mergeCell ref="B227:E227"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="B229:E229"/>
-    <mergeCell ref="B230:E230"/>
-    <mergeCell ref="B262:I262"/>
+    <mergeCell ref="B279:I279"/>
+    <mergeCell ref="B292:I292"/>
+    <mergeCell ref="B281:I281"/>
+    <mergeCell ref="B282:I282"/>
+    <mergeCell ref="B283:I283"/>
+    <mergeCell ref="B284:I284"/>
+    <mergeCell ref="B285:I285"/>
+    <mergeCell ref="B286:I286"/>
+    <mergeCell ref="B287:I287"/>
+    <mergeCell ref="B288:I288"/>
+    <mergeCell ref="B289:I289"/>
+    <mergeCell ref="B290:I290"/>
+    <mergeCell ref="B291:I291"/>
+    <mergeCell ref="B304:I304"/>
+    <mergeCell ref="B293:I293"/>
+    <mergeCell ref="B294:I294"/>
+    <mergeCell ref="B295:I295"/>
+    <mergeCell ref="B296:I296"/>
+    <mergeCell ref="B297:I297"/>
+    <mergeCell ref="B298:I298"/>
+    <mergeCell ref="B299:I299"/>
+    <mergeCell ref="B300:I300"/>
+    <mergeCell ref="B301:I301"/>
+    <mergeCell ref="B302:I302"/>
+    <mergeCell ref="B303:I303"/>
+    <mergeCell ref="Q9:X9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A11:I14"/>
+    <mergeCell ref="M11:T14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A8:I9"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B193:I193"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B184:I185"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B178:I181"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">

--- a/app/resource/xlsx/fee_proposal_template_3.xlsx
+++ b/app/resource/xlsx/fee_proposal_template_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156BADC5-FCA2-451A-9D01-46D5B4F6A184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A947CD-B56A-42DB-8D57-DA30548CB3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
@@ -789,9 +789,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -800,9 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -818,65 +812,71 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1322,8 +1322,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X310"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A159" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:A175"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1342,16 +1342,16 @@
       <c r="A1" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47" t="e">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="15"/>
@@ -1359,10 +1359,10 @@
       <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="19"/>
@@ -1387,7 +1387,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="44"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="19"/>
       <c r="H4" s="1"/>
       <c r="L4" s="14"/>
@@ -1415,15 +1415,15 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1448,26 +1448,26 @@
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1475,93 +1475,93 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1590,16 +1590,16 @@
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="7"/>
@@ -1608,16 +1608,16 @@
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
@@ -1626,16 +1626,16 @@
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
@@ -1671,16 +1671,16 @@
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -1691,32 +1691,32 @@
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,46 +1741,46 @@
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
     </row>
@@ -1811,46 +1811,46 @@
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -1886,7 +1886,7 @@
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="13"/>
@@ -1914,18 +1914,18 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
       <c r="I44" s="33"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1991,41 +1991,43 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+    </row>
     <row r="51" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B51" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
       <c r="I51" s="33"/>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
+      <c r="A52" s="21"/>
       <c r="C52" s="3"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="I52" s="45"/>
+      <c r="I52" s="43"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="1"/>
       <c r="G53" s="1"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
+      <c r="A54" s="21"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="str">
+      <c r="A55" s="1" t="str">
         <f t="shared" ref="A55:A66" si="0">IF(B55&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -2038,14 +2040,14 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="str">
+      <c r="A56" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="str">
+      <c r="A57" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2057,7 +2059,7 @@
       <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="str">
+      <c r="A58" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2069,7 +2071,7 @@
       <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="str">
+      <c r="A59" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2081,7 +2083,7 @@
       <c r="H59" s="16"/>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="str">
+      <c r="A60" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2093,7 +2095,7 @@
       <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="str">
+      <c r="A61" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2105,7 +2107,7 @@
       <c r="H61" s="16"/>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="str">
+      <c r="A62" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2117,7 +2119,7 @@
       <c r="H62" s="16"/>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="str">
+      <c r="A63" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2129,7 +2131,7 @@
       <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="str">
+      <c r="A64" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2141,7 +2143,7 @@
       <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="str">
+      <c r="A65" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2153,7 +2155,7 @@
       <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="str">
+      <c r="A66" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2165,16 +2167,16 @@
       <c r="H66" s="16"/>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
+      <c r="A67" s="1"/>
       <c r="C67" s="3"/>
       <c r="E67" s="8"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
-      <c r="I67" s="45"/>
+      <c r="I67" s="43"/>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="65"/>
+      <c r="A68" s="21"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
@@ -2184,7 +2186,7 @@
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="str">
+      <c r="A69" s="1" t="str">
         <f t="shared" ref="A69:A74" si="1">IF(B69&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -2194,43 +2196,43 @@
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
+      <c r="A71" s="1"/>
       <c r="C71" s="3"/>
-      <c r="I71" s="45"/>
+      <c r="I71" s="43"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="str">
+      <c r="A72" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C72" s="3"/>
-      <c r="I72" s="45"/>
+      <c r="I72" s="43"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="str">
+      <c r="A73" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C73" s="3"/>
-      <c r="I73" s="45"/>
+      <c r="I73" s="43"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="str">
+      <c r="A74" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C74" s="3"/>
-      <c r="I74" s="45"/>
+      <c r="I74" s="43"/>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
+      <c r="A75" s="1"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
+      <c r="A76" s="21"/>
       <c r="C76" s="20"/>
       <c r="I76" s="1"/>
       <c r="J76" s="9"/>
@@ -2243,7 +2245,7 @@
       <c r="Q76" s="1"/>
     </row>
     <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="str">
+      <c r="A77" s="1" t="str">
         <f t="shared" ref="A77:A81" si="2">IF(B77&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -2256,7 +2258,7 @@
       <c r="I77" s="20"/>
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="str">
+      <c r="A78" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2269,7 +2271,7 @@
       <c r="I78" s="20"/>
     </row>
     <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="str">
+      <c r="A79" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2282,7 +2284,7 @@
       <c r="I79" s="20"/>
     </row>
     <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
+      <c r="A80" s="1"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
@@ -2292,7 +2294,7 @@
       <c r="I80" s="20"/>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="str">
+      <c r="A81" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2305,7 +2307,7 @@
       <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
+      <c r="A82" s="1"/>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
@@ -2315,7 +2317,7 @@
       <c r="I82" s="20"/>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
+      <c r="A83" s="1"/>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
@@ -2325,7 +2327,7 @@
       <c r="I83" s="20"/>
     </row>
     <row r="84" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
+      <c r="A84" s="1"/>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
@@ -2335,7 +2337,7 @@
       <c r="I84" s="20"/>
     </row>
     <row r="85" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
+      <c r="A85" s="1"/>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
@@ -2345,7 +2347,7 @@
       <c r="I85" s="20"/>
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
+      <c r="A86" s="1"/>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
@@ -2355,7 +2357,7 @@
       <c r="I86" s="20"/>
     </row>
     <row r="87" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
+      <c r="A87" s="1"/>
       <c r="C87" s="20"/>
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
@@ -2365,7 +2367,7 @@
       <c r="I87" s="20"/>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
+      <c r="A88" s="1"/>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
@@ -2375,7 +2377,7 @@
       <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
+      <c r="A89" s="1"/>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
@@ -2385,7 +2387,7 @@
       <c r="I89" s="20"/>
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
+      <c r="A90" s="1"/>
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
@@ -2395,7 +2397,7 @@
       <c r="I90" s="20"/>
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
+      <c r="A91" s="1"/>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
@@ -2405,7 +2407,7 @@
       <c r="I91" s="20"/>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
+      <c r="A92" s="1"/>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
@@ -2415,7 +2417,7 @@
       <c r="I92" s="20"/>
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
+      <c r="A93" s="1"/>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
@@ -2425,7 +2427,7 @@
       <c r="I93" s="20"/>
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
+      <c r="A94" s="1"/>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
@@ -2435,7 +2437,7 @@
       <c r="I94" s="20"/>
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
+      <c r="A95" s="1"/>
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
@@ -2445,7 +2447,7 @@
       <c r="I95" s="20"/>
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
+      <c r="A96" s="1"/>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
@@ -2455,7 +2457,7 @@
       <c r="I96" s="20"/>
     </row>
     <row r="97" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
+      <c r="A97" s="1"/>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
@@ -2465,7 +2467,7 @@
       <c r="I97" s="20"/>
     </row>
     <row r="98" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
+      <c r="A98" s="1"/>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
@@ -2475,7 +2477,7 @@
       <c r="I98" s="20"/>
     </row>
     <row r="99" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
+      <c r="A99" s="1"/>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
@@ -2485,7 +2487,7 @@
       <c r="I99" s="20"/>
     </row>
     <row r="100" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
+      <c r="A100" s="1"/>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
@@ -2495,7 +2497,7 @@
       <c r="I100" s="20"/>
     </row>
     <row r="101" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
+      <c r="A101" s="1"/>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
@@ -2505,7 +2507,7 @@
       <c r="I101" s="20"/>
     </row>
     <row r="102" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
+      <c r="A102" s="1"/>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
@@ -2515,7 +2517,7 @@
       <c r="I102" s="20"/>
     </row>
     <row r="103" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
+      <c r="A103" s="1"/>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
@@ -2525,7 +2527,7 @@
       <c r="I103" s="20"/>
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
+      <c r="A104" s="1"/>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
@@ -2535,7 +2537,7 @@
       <c r="I104" s="20"/>
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
+      <c r="A105" s="1"/>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
@@ -2545,7 +2547,7 @@
       <c r="I105" s="20"/>
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
+      <c r="A106" s="1"/>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
@@ -2555,7 +2557,7 @@
       <c r="I106" s="20"/>
     </row>
     <row r="107" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
+      <c r="A107" s="1"/>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
@@ -2565,7 +2567,7 @@
       <c r="I107" s="20"/>
     </row>
     <row r="108" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
+      <c r="A108" s="1"/>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
@@ -2575,7 +2577,7 @@
       <c r="I108" s="20"/>
     </row>
     <row r="109" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
+      <c r="A109" s="1"/>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
       <c r="E109" s="20"/>
@@ -2585,7 +2587,7 @@
       <c r="I109" s="20"/>
     </row>
     <row r="110" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
+      <c r="A110" s="1"/>
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
       <c r="E110" s="20"/>
@@ -2595,7 +2597,7 @@
       <c r="I110" s="20"/>
     </row>
     <row r="111" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
+      <c r="A111" s="1"/>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
@@ -2605,7 +2607,7 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
+      <c r="A112" s="1"/>
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
@@ -2615,7 +2617,7 @@
       <c r="I112" s="20"/>
     </row>
     <row r="113" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="12"/>
+      <c r="A113" s="1"/>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
@@ -2625,7 +2627,7 @@
       <c r="I113" s="20"/>
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
+      <c r="A114" s="1"/>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
@@ -2635,7 +2637,7 @@
       <c r="I114" s="20"/>
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
+      <c r="A115" s="1"/>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
@@ -2645,7 +2647,7 @@
       <c r="I115" s="20"/>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
+      <c r="A116" s="1"/>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
@@ -2655,7 +2657,7 @@
       <c r="I116" s="20"/>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
+      <c r="A117" s="1"/>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
@@ -2665,7 +2667,7 @@
       <c r="I117" s="20"/>
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
+      <c r="A118" s="1"/>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
@@ -2675,7 +2677,7 @@
       <c r="I118" s="20"/>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
+      <c r="A119" s="1"/>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
@@ -2685,7 +2687,7 @@
       <c r="I119" s="20"/>
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
+      <c r="A120" s="1"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
@@ -2695,7 +2697,7 @@
       <c r="I120" s="20"/>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
+      <c r="A121" s="1"/>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
@@ -2705,7 +2707,7 @@
       <c r="I121" s="20"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="12"/>
+      <c r="A122" s="1"/>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
@@ -2715,7 +2717,7 @@
       <c r="I122" s="20"/>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="12"/>
+      <c r="A123" s="1"/>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
@@ -2725,7 +2727,7 @@
       <c r="I123" s="20"/>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
+      <c r="A124" s="1"/>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
@@ -2735,7 +2737,7 @@
       <c r="I124" s="20"/>
     </row>
     <row r="125" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
+      <c r="A125" s="1"/>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
@@ -2745,7 +2747,7 @@
       <c r="I125" s="20"/>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
+      <c r="A126" s="1"/>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
@@ -2755,7 +2757,7 @@
       <c r="I126" s="20"/>
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
+      <c r="A127" s="1"/>
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
       <c r="E127" s="20"/>
@@ -2765,7 +2767,7 @@
       <c r="I127" s="20"/>
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
+      <c r="A128" s="1"/>
       <c r="C128" s="20"/>
       <c r="D128" s="20"/>
       <c r="E128" s="20"/>
@@ -2775,7 +2777,7 @@
       <c r="I128" s="20"/>
     </row>
     <row r="129" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="12"/>
+      <c r="A129" s="1"/>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
       <c r="E129" s="20"/>
@@ -2785,7 +2787,7 @@
       <c r="I129" s="20"/>
     </row>
     <row r="130" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
+      <c r="A130" s="1"/>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
       <c r="E130" s="20"/>
@@ -2795,7 +2797,7 @@
       <c r="I130" s="20"/>
     </row>
     <row r="131" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
+      <c r="A131" s="1"/>
       <c r="C131" s="20"/>
       <c r="D131" s="20"/>
       <c r="E131" s="20"/>
@@ -2805,7 +2807,7 @@
       <c r="I131" s="20"/>
     </row>
     <row r="132" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="12"/>
+      <c r="A132" s="1"/>
       <c r="C132" s="20"/>
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
@@ -2815,7 +2817,7 @@
       <c r="I132" s="20"/>
     </row>
     <row r="133" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
+      <c r="A133" s="1"/>
       <c r="C133" s="20"/>
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
@@ -2825,7 +2827,7 @@
       <c r="I133" s="20"/>
     </row>
     <row r="134" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
+      <c r="A134" s="1"/>
       <c r="C134" s="20"/>
       <c r="D134" s="20"/>
       <c r="E134" s="20"/>
@@ -2835,7 +2837,7 @@
       <c r="I134" s="20"/>
     </row>
     <row r="135" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="12"/>
+      <c r="A135" s="1"/>
       <c r="C135" s="20"/>
       <c r="D135" s="20"/>
       <c r="E135" s="20"/>
@@ -2845,7 +2847,7 @@
       <c r="I135" s="20"/>
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
+      <c r="A136" s="1"/>
       <c r="C136" s="20"/>
       <c r="D136" s="20"/>
       <c r="E136" s="20"/>
@@ -2855,7 +2857,7 @@
       <c r="I136" s="20"/>
     </row>
     <row r="137" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
+      <c r="A137" s="1"/>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
       <c r="E137" s="20"/>
@@ -2865,7 +2867,7 @@
       <c r="I137" s="20"/>
     </row>
     <row r="138" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="12"/>
+      <c r="A138" s="1"/>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
       <c r="E138" s="20"/>
@@ -2875,7 +2877,7 @@
       <c r="I138" s="20"/>
     </row>
     <row r="139" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
+      <c r="A139" s="1"/>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
       <c r="E139" s="20"/>
@@ -2885,7 +2887,7 @@
       <c r="I139" s="20"/>
     </row>
     <row r="140" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
+      <c r="A140" s="1"/>
       <c r="C140" s="20"/>
       <c r="D140" s="20"/>
       <c r="E140" s="20"/>
@@ -2895,7 +2897,7 @@
       <c r="I140" s="20"/>
     </row>
     <row r="141" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="12"/>
+      <c r="A141" s="1"/>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
       <c r="E141" s="20"/>
@@ -2905,7 +2907,7 @@
       <c r="I141" s="20"/>
     </row>
     <row r="142" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
+      <c r="A142" s="1"/>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
       <c r="E142" s="20"/>
@@ -2915,7 +2917,7 @@
       <c r="I142" s="20"/>
     </row>
     <row r="143" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
+      <c r="A143" s="1"/>
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
       <c r="E143" s="20"/>
@@ -2925,7 +2927,7 @@
       <c r="I143" s="20"/>
     </row>
     <row r="144" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="12"/>
+      <c r="A144" s="1"/>
       <c r="C144" s="20"/>
       <c r="D144" s="20"/>
       <c r="E144" s="20"/>
@@ -2935,7 +2937,7 @@
       <c r="I144" s="20"/>
     </row>
     <row r="145" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
+      <c r="A145" s="1"/>
       <c r="C145" s="20"/>
       <c r="D145" s="20"/>
       <c r="E145" s="20"/>
@@ -2945,7 +2947,7 @@
       <c r="I145" s="20"/>
     </row>
     <row r="146" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
+      <c r="A146" s="1"/>
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
       <c r="E146" s="20"/>
@@ -2955,7 +2957,7 @@
       <c r="I146" s="20"/>
     </row>
     <row r="147" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
+      <c r="A147" s="1"/>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
@@ -2965,7 +2967,7 @@
       <c r="I147" s="20"/>
     </row>
     <row r="148" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
+      <c r="A148" s="1"/>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
       <c r="E148" s="20"/>
@@ -2975,7 +2977,7 @@
       <c r="I148" s="20"/>
     </row>
     <row r="149" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
+      <c r="A149" s="1"/>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
       <c r="E149" s="20"/>
@@ -2985,7 +2987,7 @@
       <c r="I149" s="20"/>
     </row>
     <row r="150" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="12"/>
+      <c r="A150" s="1"/>
       <c r="C150" s="20"/>
       <c r="D150" s="20"/>
       <c r="E150" s="20"/>
@@ -2995,7 +2997,7 @@
       <c r="I150" s="20"/>
     </row>
     <row r="151" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
+      <c r="A151" s="1"/>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
       <c r="E151" s="20"/>
@@ -3005,7 +3007,7 @@
       <c r="I151" s="20"/>
     </row>
     <row r="152" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
+      <c r="A152" s="1"/>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
       <c r="E152" s="20"/>
@@ -3015,7 +3017,7 @@
       <c r="I152" s="20"/>
     </row>
     <row r="153" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="12"/>
+      <c r="A153" s="1"/>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
       <c r="E153" s="20"/>
@@ -3025,7 +3027,7 @@
       <c r="I153" s="20"/>
     </row>
     <row r="154" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="12"/>
+      <c r="A154" s="1"/>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
       <c r="E154" s="20"/>
@@ -3035,7 +3037,7 @@
       <c r="I154" s="20"/>
     </row>
     <row r="155" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="12"/>
+      <c r="A155" s="1"/>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
       <c r="E155" s="20"/>
@@ -3045,7 +3047,7 @@
       <c r="I155" s="20"/>
     </row>
     <row r="156" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="12"/>
+      <c r="A156" s="1"/>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
       <c r="E156" s="20"/>
@@ -3055,7 +3057,7 @@
       <c r="I156" s="20"/>
     </row>
     <row r="157" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="12"/>
+      <c r="A157" s="1"/>
       <c r="C157" s="20"/>
       <c r="D157" s="20"/>
       <c r="E157" s="20"/>
@@ -3065,7 +3067,7 @@
       <c r="I157" s="20"/>
     </row>
     <row r="158" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="12"/>
+      <c r="A158" s="1"/>
       <c r="C158" s="20"/>
       <c r="D158" s="20"/>
       <c r="E158" s="20"/>
@@ -3075,7 +3077,7 @@
       <c r="I158" s="20"/>
     </row>
     <row r="159" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
+      <c r="A159" s="1"/>
       <c r="C159" s="20"/>
       <c r="D159" s="20"/>
       <c r="E159" s="20"/>
@@ -3085,7 +3087,7 @@
       <c r="I159" s="20"/>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
+      <c r="A160" s="1"/>
       <c r="C160" s="20"/>
       <c r="D160" s="20"/>
       <c r="E160" s="20"/>
@@ -3095,7 +3097,7 @@
       <c r="I160" s="20"/>
     </row>
     <row r="161" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="12"/>
+      <c r="A161" s="1"/>
       <c r="C161" s="20"/>
       <c r="D161" s="20"/>
       <c r="E161" s="20"/>
@@ -3105,7 +3107,7 @@
       <c r="I161" s="20"/>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="12"/>
+      <c r="A162" s="1"/>
       <c r="C162" s="20"/>
       <c r="D162" s="20"/>
       <c r="E162" s="20"/>
@@ -3115,7 +3117,7 @@
       <c r="I162" s="20"/>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="12"/>
+      <c r="A163" s="1"/>
       <c r="C163" s="20"/>
       <c r="D163" s="20"/>
       <c r="E163" s="20"/>
@@ -3125,7 +3127,7 @@
       <c r="I163" s="20"/>
     </row>
     <row r="164" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="12"/>
+      <c r="A164" s="1"/>
       <c r="C164" s="20"/>
       <c r="D164" s="20"/>
       <c r="E164" s="20"/>
@@ -3135,7 +3137,7 @@
       <c r="I164" s="20"/>
     </row>
     <row r="165" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="12"/>
+      <c r="A165" s="1"/>
       <c r="C165" s="20"/>
       <c r="D165" s="20"/>
       <c r="E165" s="20"/>
@@ -3145,7 +3147,7 @@
       <c r="I165" s="20"/>
     </row>
     <row r="166" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="12"/>
+      <c r="A166" s="1"/>
       <c r="C166" s="20"/>
       <c r="D166" s="20"/>
       <c r="E166" s="20"/>
@@ -3155,7 +3157,7 @@
       <c r="I166" s="20"/>
     </row>
     <row r="167" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="12"/>
+      <c r="A167" s="1"/>
       <c r="C167" s="20"/>
       <c r="D167" s="20"/>
       <c r="E167" s="20"/>
@@ -3165,7 +3167,7 @@
       <c r="I167" s="20"/>
     </row>
     <row r="168" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="12"/>
+      <c r="A168" s="1"/>
       <c r="C168" s="20"/>
       <c r="D168" s="20"/>
       <c r="E168" s="20"/>
@@ -3175,7 +3177,7 @@
       <c r="I168" s="20"/>
     </row>
     <row r="169" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="12"/>
+      <c r="A169" s="1"/>
       <c r="C169" s="20"/>
       <c r="D169" s="20"/>
       <c r="E169" s="20"/>
@@ -3185,7 +3187,7 @@
       <c r="I169" s="20"/>
     </row>
     <row r="170" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="12"/>
+      <c r="A170" s="1"/>
       <c r="C170" s="20"/>
       <c r="D170" s="20"/>
       <c r="E170" s="20"/>
@@ -3195,7 +3197,7 @@
       <c r="I170" s="20"/>
     </row>
     <row r="171" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="12"/>
+      <c r="A171" s="1"/>
       <c r="C171" s="20"/>
       <c r="D171" s="20"/>
       <c r="E171" s="20"/>
@@ -3205,7 +3207,7 @@
       <c r="I171" s="20"/>
     </row>
     <row r="172" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="12"/>
+      <c r="A172" s="1"/>
       <c r="C172" s="20"/>
       <c r="D172" s="20"/>
       <c r="E172" s="20"/>
@@ -3215,7 +3217,7 @@
       <c r="I172" s="20"/>
     </row>
     <row r="173" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="12"/>
+      <c r="A173" s="1"/>
       <c r="C173" s="20"/>
       <c r="D173" s="20"/>
       <c r="E173" s="20"/>
@@ -3225,7 +3227,7 @@
       <c r="I173" s="20"/>
     </row>
     <row r="174" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="12"/>
+      <c r="A174" s="1"/>
       <c r="C174" s="20"/>
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
@@ -3235,7 +3237,7 @@
       <c r="I174" s="20"/>
     </row>
     <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="12"/>
+      <c r="A175" s="1"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="16"/>
@@ -3245,7 +3247,7 @@
       <c r="H175" s="16"/>
     </row>
     <row r="176" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="35" t="s">
+      <c r="A176" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B176" s="34" t="s">
@@ -3259,7 +3261,7 @@
       <c r="I176" s="33"/>
     </row>
     <row r="177" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="40" t="s">
+      <c r="A177" s="63" t="s">
         <v>117</v>
       </c>
       <c r="B177" s="34" t="s">
@@ -3273,53 +3275,53 @@
       <c r="I177" s="33"/>
     </row>
     <row r="178" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="35"/>
-      <c r="B178" s="48" t="s">
+      <c r="A178" s="33"/>
+      <c r="B178" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="C178" s="48"/>
-      <c r="D178" s="48"/>
-      <c r="E178" s="48"/>
-      <c r="F178" s="48"/>
-      <c r="G178" s="48"/>
-      <c r="H178" s="48"/>
-      <c r="I178" s="48"/>
+      <c r="C178" s="45"/>
+      <c r="D178" s="45"/>
+      <c r="E178" s="45"/>
+      <c r="F178" s="45"/>
+      <c r="G178" s="45"/>
+      <c r="H178" s="45"/>
+      <c r="I178" s="45"/>
     </row>
     <row r="179" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="35"/>
-      <c r="B179" s="48"/>
-      <c r="C179" s="48"/>
-      <c r="D179" s="48"/>
-      <c r="E179" s="48"/>
-      <c r="F179" s="48"/>
-      <c r="G179" s="48"/>
-      <c r="H179" s="48"/>
-      <c r="I179" s="48"/>
+      <c r="A179" s="33"/>
+      <c r="B179" s="45"/>
+      <c r="C179" s="45"/>
+      <c r="D179" s="45"/>
+      <c r="E179" s="45"/>
+      <c r="F179" s="45"/>
+      <c r="G179" s="45"/>
+      <c r="H179" s="45"/>
+      <c r="I179" s="45"/>
     </row>
     <row r="180" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="35"/>
-      <c r="B180" s="48"/>
-      <c r="C180" s="48"/>
-      <c r="D180" s="48"/>
-      <c r="E180" s="48"/>
-      <c r="F180" s="48"/>
-      <c r="G180" s="48"/>
-      <c r="H180" s="48"/>
-      <c r="I180" s="48"/>
+      <c r="A180" s="33"/>
+      <c r="B180" s="45"/>
+      <c r="C180" s="45"/>
+      <c r="D180" s="45"/>
+      <c r="E180" s="45"/>
+      <c r="F180" s="45"/>
+      <c r="G180" s="45"/>
+      <c r="H180" s="45"/>
+      <c r="I180" s="45"/>
     </row>
     <row r="181" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="35"/>
-      <c r="B181" s="48"/>
-      <c r="C181" s="48"/>
-      <c r="D181" s="48"/>
-      <c r="E181" s="48"/>
-      <c r="F181" s="48"/>
-      <c r="G181" s="48"/>
-      <c r="H181" s="48"/>
-      <c r="I181" s="48"/>
+      <c r="A181" s="33"/>
+      <c r="B181" s="45"/>
+      <c r="C181" s="45"/>
+      <c r="D181" s="45"/>
+      <c r="E181" s="45"/>
+      <c r="F181" s="45"/>
+      <c r="G181" s="45"/>
+      <c r="H181" s="45"/>
+      <c r="I181" s="45"/>
     </row>
     <row r="182" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="35"/>
+      <c r="A182" s="33"/>
       <c r="B182" s="34"/>
       <c r="D182" s="16"/>
       <c r="E182" s="16"/>
@@ -3329,7 +3331,7 @@
       <c r="I182" s="33"/>
     </row>
     <row r="183" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="34">
+      <c r="A183" s="63">
         <v>3.2</v>
       </c>
       <c r="B183" s="34" t="s">
@@ -3343,31 +3345,31 @@
       <c r="I183" s="33"/>
     </row>
     <row r="184" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="35"/>
-      <c r="B184" s="48" t="s">
+      <c r="A184" s="33"/>
+      <c r="B184" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="C184" s="48"/>
-      <c r="D184" s="48"/>
-      <c r="E184" s="48"/>
-      <c r="F184" s="48"/>
-      <c r="G184" s="48"/>
-      <c r="H184" s="48"/>
-      <c r="I184" s="48"/>
+      <c r="C184" s="45"/>
+      <c r="D184" s="45"/>
+      <c r="E184" s="45"/>
+      <c r="F184" s="45"/>
+      <c r="G184" s="45"/>
+      <c r="H184" s="45"/>
+      <c r="I184" s="45"/>
     </row>
     <row r="185" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="35"/>
-      <c r="B185" s="48"/>
-      <c r="C185" s="48"/>
-      <c r="D185" s="48"/>
-      <c r="E185" s="48"/>
-      <c r="F185" s="48"/>
-      <c r="G185" s="48"/>
-      <c r="H185" s="48"/>
-      <c r="I185" s="48"/>
+      <c r="A185" s="33"/>
+      <c r="B185" s="45"/>
+      <c r="C185" s="45"/>
+      <c r="D185" s="45"/>
+      <c r="E185" s="45"/>
+      <c r="F185" s="45"/>
+      <c r="G185" s="45"/>
+      <c r="H185" s="45"/>
+      <c r="I185" s="45"/>
     </row>
     <row r="186" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="10" t="s">
+      <c r="A186" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B186" s="7" t="s">
@@ -3381,7 +3383,7 @@
       <c r="I186" s="33"/>
     </row>
     <row r="187" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="s">
+      <c r="A187" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B187" s="7" t="s">
@@ -3395,7 +3397,7 @@
       <c r="I187" s="33"/>
     </row>
     <row r="188" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="10" t="s">
+      <c r="A188" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B188" s="7" t="s">
@@ -3409,7 +3411,7 @@
       <c r="I188" s="33"/>
     </row>
     <row r="189" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="10"/>
+      <c r="A189" s="1"/>
       <c r="B189" s="7"/>
       <c r="D189" s="16"/>
       <c r="E189" s="16"/>
@@ -3419,7 +3421,7 @@
       <c r="I189" s="33"/>
     </row>
     <row r="190" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="10"/>
+      <c r="A190" s="1"/>
       <c r="B190" s="7"/>
       <c r="D190" s="16"/>
       <c r="E190" s="16"/>
@@ -3429,7 +3431,7 @@
       <c r="I190" s="33"/>
     </row>
     <row r="191" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="35"/>
+      <c r="A191" s="33"/>
       <c r="B191" s="34"/>
       <c r="D191" s="16"/>
       <c r="E191" s="16"/>
@@ -3439,7 +3441,7 @@
       <c r="I191" s="33"/>
     </row>
     <row r="192" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="34">
+      <c r="A192" s="63">
         <v>3.3</v>
       </c>
       <c r="B192" s="34" t="s">
@@ -3453,21 +3455,21 @@
       <c r="I192" s="33"/>
     </row>
     <row r="193" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="34"/>
-      <c r="B193" s="46" t="s">
+      <c r="A193" s="63"/>
+      <c r="B193" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C193" s="46"/>
-      <c r="D193" s="46"/>
-      <c r="E193" s="46"/>
-      <c r="F193" s="46"/>
-      <c r="G193" s="46"/>
-      <c r="H193" s="46"/>
-      <c r="I193" s="46"/>
+      <c r="C193" s="49"/>
+      <c r="D193" s="49"/>
+      <c r="E193" s="49"/>
+      <c r="F193" s="49"/>
+      <c r="G193" s="49"/>
+      <c r="H193" s="49"/>
+      <c r="I193" s="49"/>
       <c r="Q193" s="34"/>
     </row>
     <row r="194" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="10" t="str">
+      <c r="A194" s="1" t="str">
         <f t="shared" ref="A194:A203" si="3">IF(B194&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -3482,7 +3484,7 @@
       <c r="Q194" s="10"/>
     </row>
     <row r="195" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="10" t="str">
+      <c r="A195" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3497,7 +3499,7 @@
       <c r="Q195" s="10"/>
     </row>
     <row r="196" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="10" t="str">
+      <c r="A196" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3513,7 +3515,7 @@
       <c r="R196" s="7"/>
     </row>
     <row r="197" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="10" t="str">
+      <c r="A197" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3528,7 +3530,7 @@
       <c r="Q197" s="10"/>
     </row>
     <row r="198" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="10" t="str">
+      <c r="A198" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3543,7 +3545,7 @@
       <c r="Q198" s="10"/>
     </row>
     <row r="199" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="10" t="str">
+      <c r="A199" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3559,7 +3561,7 @@
       <c r="R199" s="7"/>
     </row>
     <row r="200" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="10" t="str">
+      <c r="A200" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3574,7 +3576,7 @@
       <c r="Q200" s="10"/>
     </row>
     <row r="201" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="10" t="str">
+      <c r="A201" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3585,7 +3587,7 @@
       <c r="Q201" s="10"/>
     </row>
     <row r="202" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="10" t="str">
+      <c r="A202" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3600,7 +3602,7 @@
       <c r="Q202" s="10"/>
     </row>
     <row r="203" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="10" t="str">
+      <c r="A203" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3615,6 +3617,7 @@
       <c r="Q203" s="10"/>
     </row>
     <row r="204" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="64"/>
       <c r="M204" s="5" t="str">
         <f t="array" ref="M204">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
@@ -3624,7 +3627,7 @@
       <c r="P204" s="9"/>
     </row>
     <row r="205" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="34">
+      <c r="A205" s="63">
         <v>3.4</v>
       </c>
       <c r="B205" s="34" t="s">
@@ -3640,17 +3643,17 @@
       <c r="Q205" s="5"/>
     </row>
     <row r="206" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="34"/>
-      <c r="B206" s="47" t="s">
+      <c r="A206" s="63"/>
+      <c r="B206" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C206" s="47"/>
-      <c r="D206" s="47"/>
-      <c r="E206" s="47"/>
-      <c r="F206" s="47"/>
-      <c r="G206" s="47"/>
-      <c r="H206" s="47"/>
-      <c r="I206" s="47"/>
+      <c r="C206" s="46"/>
+      <c r="D206" s="46"/>
+      <c r="E206" s="46"/>
+      <c r="F206" s="46"/>
+      <c r="G206" s="46"/>
+      <c r="H206" s="46"/>
+      <c r="I206" s="46"/>
       <c r="M206" s="7"/>
       <c r="N206" s="23"/>
       <c r="O206" s="22"/>
@@ -3658,11 +3661,11 @@
       <c r="Q206" s="5"/>
     </row>
     <row r="207" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="34"/>
+      <c r="A207" s="63"/>
       <c r="B207" t="s">
         <v>9</v>
       </c>
-      <c r="E207" s="38" t="s">
+      <c r="E207" s="37" t="s">
         <v>119</v>
       </c>
       <c r="M207" s="12"/>
@@ -3672,6 +3675,7 @@
       <c r="Q207" s="5"/>
     </row>
     <row r="208" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
       <c r="B208" t="s">
         <v>12</v>
       </c>
@@ -3683,7 +3687,7 @@
       <c r="Q208" s="5"/>
     </row>
     <row r="209" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209"/>
+      <c r="A209" s="1"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
       <c r="D209" s="16"/>
@@ -3699,7 +3703,7 @@
       <c r="Q209" s="5"/>
     </row>
     <row r="210" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="35" t="s">
+      <c r="A210" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B210" s="34" t="s">
@@ -3717,48 +3721,51 @@
       <c r="P210"/>
     </row>
     <row r="211" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="46" t="s">
+      <c r="A211" s="64"/>
+      <c r="B211" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C211" s="46"/>
-      <c r="D211" s="46"/>
-      <c r="E211" s="46"/>
-      <c r="F211" s="46"/>
-      <c r="G211" s="46"/>
-      <c r="H211" s="46"/>
-      <c r="I211" s="46"/>
+      <c r="C211" s="49"/>
+      <c r="D211" s="49"/>
+      <c r="E211" s="49"/>
+      <c r="F211" s="49"/>
+      <c r="G211" s="49"/>
+      <c r="H211" s="49"/>
+      <c r="I211" s="49"/>
       <c r="M211"/>
       <c r="N211"/>
     </row>
     <row r="212" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
       <c r="B212" s="28" t="s">
         <v>28</v>
       </c>
       <c r="C212" s="28"/>
-      <c r="D212" s="60" t="s">
+      <c r="D212" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="E212" s="60"/>
-      <c r="F212" s="60" t="s">
+      <c r="E212" s="47"/>
+      <c r="F212" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G212" s="60"/>
+      <c r="G212" s="47"/>
       <c r="H212" s="9"/>
       <c r="Q212" s="5"/>
     </row>
     <row r="213" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
       <c r="B213" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C213" s="28"/>
-      <c r="D213" s="60" t="s">
+      <c r="D213" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="E213" s="60"/>
-      <c r="F213" s="61">
+      <c r="E213" s="47"/>
+      <c r="F213" s="48">
         <v>10000000</v>
       </c>
-      <c r="G213" s="61"/>
+      <c r="G213" s="48"/>
       <c r="H213" s="23"/>
       <c r="I213" s="7"/>
       <c r="M213" s="5"/>
@@ -3768,22 +3775,24 @@
       <c r="Q213" s="5"/>
     </row>
     <row r="214" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
       <c r="B214" s="28" t="s">
         <v>26</v>
       </c>
       <c r="C214" s="28"/>
-      <c r="D214" s="60" t="s">
+      <c r="D214" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E214" s="60"/>
-      <c r="F214" s="61">
+      <c r="E214" s="47"/>
+      <c r="F214" s="48">
         <v>20000000</v>
       </c>
-      <c r="G214" s="61"/>
+      <c r="G214" s="48"/>
       <c r="H214" s="23"/>
       <c r="M214" s="9"/>
     </row>
     <row r="215" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
       <c r="B215" s="12" t="s">
         <v>120</v>
       </c>
@@ -3796,6 +3805,7 @@
       <c r="M215" s="23"/>
     </row>
     <row r="216" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
       <c r="D216" s="12"/>
@@ -3807,62 +3817,62 @@
       <c r="M216" s="23"/>
     </row>
     <row r="217" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="35" t="s">
+      <c r="A217" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B217" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C217" s="36"/>
+      <c r="C217" s="35"/>
       <c r="I217" s="33"/>
       <c r="M217" s="22"/>
     </row>
     <row r="218" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
-      <c r="B218" s="48" t="s">
+      <c r="B218" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C218" s="48"/>
-      <c r="D218" s="48"/>
-      <c r="E218" s="48"/>
-      <c r="F218" s="48"/>
-      <c r="G218" s="48"/>
-      <c r="H218" s="48"/>
-      <c r="I218" s="48"/>
+      <c r="C218" s="45"/>
+      <c r="D218" s="45"/>
+      <c r="E218" s="45"/>
+      <c r="F218" s="45"/>
+      <c r="G218" s="45"/>
+      <c r="H218" s="45"/>
+      <c r="I218" s="45"/>
       <c r="M218" s="12"/>
     </row>
     <row r="219" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
-      <c r="B219" s="48"/>
-      <c r="C219" s="48"/>
-      <c r="D219" s="48"/>
-      <c r="E219" s="48"/>
-      <c r="F219" s="48"/>
-      <c r="G219" s="48"/>
-      <c r="H219" s="48"/>
-      <c r="I219" s="48"/>
+      <c r="B219" s="45"/>
+      <c r="C219" s="45"/>
+      <c r="D219" s="45"/>
+      <c r="E219" s="45"/>
+      <c r="F219" s="45"/>
+      <c r="G219" s="45"/>
+      <c r="H219" s="45"/>
+      <c r="I219" s="45"/>
     </row>
     <row r="220" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
-      <c r="B220" s="48"/>
-      <c r="C220" s="48"/>
-      <c r="D220" s="48"/>
-      <c r="E220" s="48"/>
-      <c r="F220" s="48"/>
-      <c r="G220" s="48"/>
-      <c r="H220" s="48"/>
-      <c r="I220" s="48"/>
+      <c r="B220" s="45"/>
+      <c r="C220" s="45"/>
+      <c r="D220" s="45"/>
+      <c r="E220" s="45"/>
+      <c r="F220" s="45"/>
+      <c r="G220" s="45"/>
+      <c r="H220" s="45"/>
+      <c r="I220" s="45"/>
     </row>
     <row r="221" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
-      <c r="B221" s="48"/>
-      <c r="C221" s="48"/>
-      <c r="D221" s="48"/>
-      <c r="E221" s="48"/>
-      <c r="F221" s="48"/>
-      <c r="G221" s="48"/>
-      <c r="H221" s="48"/>
-      <c r="I221" s="48"/>
+      <c r="B221" s="45"/>
+      <c r="C221" s="45"/>
+      <c r="D221" s="45"/>
+      <c r="E221" s="45"/>
+      <c r="F221" s="45"/>
+      <c r="G221" s="45"/>
+      <c r="H221" s="45"/>
+      <c r="I221" s="45"/>
       <c r="M221" s="5"/>
     </row>
     <row r="222" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3877,7 +3887,7 @@
       <c r="I222" s="13"/>
     </row>
     <row r="223" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="35" t="s">
+      <c r="A223" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B223" s="34" t="s">
@@ -3905,92 +3915,100 @@
       <c r="I224" s="21"/>
     </row>
     <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="48" t="s">
+      <c r="A225" s="1"/>
+      <c r="B225" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C225" s="48"/>
-      <c r="D225" s="48"/>
-      <c r="E225" s="48"/>
-      <c r="F225" s="48"/>
-      <c r="G225" s="48"/>
-      <c r="H225" s="48"/>
-      <c r="I225" s="48"/>
+      <c r="C225" s="45"/>
+      <c r="D225" s="45"/>
+      <c r="E225" s="45"/>
+      <c r="F225" s="45"/>
+      <c r="G225" s="45"/>
+      <c r="H225" s="45"/>
+      <c r="I225" s="45"/>
     </row>
     <row r="226" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="48"/>
-      <c r="C226" s="48"/>
-      <c r="D226" s="48"/>
-      <c r="E226" s="48"/>
-      <c r="F226" s="48"/>
-      <c r="G226" s="48"/>
-      <c r="H226" s="48"/>
-      <c r="I226" s="48"/>
+      <c r="A226" s="1"/>
+      <c r="B226" s="45"/>
+      <c r="C226" s="45"/>
+      <c r="D226" s="45"/>
+      <c r="E226" s="45"/>
+      <c r="F226" s="45"/>
+      <c r="G226" s="45"/>
+      <c r="H226" s="45"/>
+      <c r="I226" s="45"/>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="62" t="s">
+      <c r="A227" s="1"/>
+      <c r="B227" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C227" s="63"/>
-      <c r="D227" s="63"/>
-      <c r="E227" s="64"/>
-      <c r="F227" s="41" t="s">
+      <c r="C227" s="51"/>
+      <c r="D227" s="51"/>
+      <c r="E227" s="52"/>
+      <c r="F227" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="G227" s="41" t="s">
+      <c r="G227" s="39" t="s">
         <v>97</v>
       </c>
       <c r="H227" s="9"/>
     </row>
     <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="57"/>
-      <c r="C228" s="58"/>
-      <c r="D228" s="58"/>
-      <c r="E228" s="59"/>
+      <c r="A228" s="1"/>
+      <c r="B228" s="53"/>
+      <c r="C228" s="54"/>
+      <c r="D228" s="54"/>
+      <c r="E228" s="55"/>
       <c r="F228" s="31"/>
       <c r="G228" s="31"/>
       <c r="H228" s="23"/>
       <c r="I228" s="7"/>
     </row>
     <row r="229" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="57"/>
-      <c r="C229" s="58"/>
-      <c r="D229" s="58"/>
-      <c r="E229" s="59"/>
+      <c r="A229" s="1"/>
+      <c r="B229" s="53"/>
+      <c r="C229" s="54"/>
+      <c r="D229" s="54"/>
+      <c r="E229" s="55"/>
       <c r="F229" s="31"/>
       <c r="G229" s="31"/>
       <c r="H229" s="23"/>
       <c r="I229" s="7"/>
     </row>
     <row r="230" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="57"/>
-      <c r="C230" s="58"/>
-      <c r="D230" s="58"/>
-      <c r="E230" s="59"/>
+      <c r="A230" s="1"/>
+      <c r="B230" s="53"/>
+      <c r="C230" s="54"/>
+      <c r="D230" s="54"/>
+      <c r="E230" s="55"/>
       <c r="F230" s="31"/>
       <c r="G230" s="31"/>
       <c r="H230" s="23"/>
       <c r="I230" s="7"/>
     </row>
     <row r="231" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="57"/>
-      <c r="C231" s="58"/>
-      <c r="D231" s="58"/>
-      <c r="E231" s="59"/>
+      <c r="A231" s="1"/>
+      <c r="B231" s="53"/>
+      <c r="C231" s="54"/>
+      <c r="D231" s="54"/>
+      <c r="E231" s="55"/>
       <c r="F231" s="31"/>
       <c r="G231" s="31"/>
       <c r="H231" s="23"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
       <c r="C232" s="56" t="s">
         <v>95</v>
       </c>
       <c r="D232" s="56"/>
       <c r="E232" s="56"/>
-      <c r="F232" s="42">
+      <c r="F232" s="40">
         <f>SUM(F229:F231)</f>
         <v>0</v>
       </c>
-      <c r="G232" s="42">
+      <c r="G232" s="40">
         <f>SUM(G229:G231)</f>
         <v>0</v>
       </c>
@@ -4011,40 +4029,42 @@
       <c r="H233" s="23"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B234" s="48" t="s">
+      <c r="A234" s="1"/>
+      <c r="B234" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C234" s="48"/>
-      <c r="D234" s="48"/>
-      <c r="E234" s="48"/>
-      <c r="F234" s="48"/>
-      <c r="G234" s="48"/>
-      <c r="H234" s="48"/>
-      <c r="I234" s="48"/>
+      <c r="C234" s="45"/>
+      <c r="D234" s="45"/>
+      <c r="E234" s="45"/>
+      <c r="F234" s="45"/>
+      <c r="G234" s="45"/>
+      <c r="H234" s="45"/>
+      <c r="I234" s="45"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="21"/>
-      <c r="B235" s="48"/>
-      <c r="C235" s="48"/>
-      <c r="D235" s="48"/>
-      <c r="E235" s="48"/>
-      <c r="F235" s="48"/>
-      <c r="G235" s="48"/>
-      <c r="H235" s="48"/>
-      <c r="I235" s="48"/>
+      <c r="B235" s="45"/>
+      <c r="C235" s="45"/>
+      <c r="D235" s="45"/>
+      <c r="E235" s="45"/>
+      <c r="F235" s="45"/>
+      <c r="G235" s="45"/>
+      <c r="H235" s="45"/>
+      <c r="I235" s="45"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="21"/>
-      <c r="B236" s="48"/>
-      <c r="C236" s="48"/>
-      <c r="D236" s="48"/>
-      <c r="E236" s="48"/>
-      <c r="F236" s="48"/>
-      <c r="G236" s="48"/>
-      <c r="H236" s="48"/>
-      <c r="I236" s="48"/>
+      <c r="B236" s="45"/>
+      <c r="C236" s="45"/>
+      <c r="D236" s="45"/>
+      <c r="E236" s="45"/>
+      <c r="F236" s="45"/>
+      <c r="G236" s="45"/>
+      <c r="H236" s="45"/>
+      <c r="I236" s="45"/>
     </row>
     <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
       <c r="B237" t="s">
         <v>16</v>
       </c>
@@ -4060,6 +4080,7 @@
       <c r="H237" s="24"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
       <c r="B238" t="s">
         <v>135</v>
       </c>
@@ -4075,6 +4096,7 @@
       <c r="H238" s="24"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
       <c r="B239" t="s">
         <v>136</v>
       </c>
@@ -4090,6 +4112,7 @@
       <c r="H239" s="24"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
       <c r="E240" s="25"/>
       <c r="F240" s="25"/>
       <c r="H240" s="24"/>
@@ -4106,18 +4129,19 @@
       <c r="H241" s="24"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
       <c r="B242" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C242" s="43"/>
-      <c r="D242" s="43"/>
-      <c r="E242" s="43"/>
-      <c r="F242" s="42"/>
-      <c r="G242" s="42"/>
+      <c r="C242" s="41"/>
+      <c r="D242" s="41"/>
+      <c r="E242" s="41"/>
+      <c r="F242" s="40"/>
+      <c r="G242" s="40"/>
       <c r="H242" s="23"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="17"/>
+      <c r="A243" s="65"/>
       <c r="B243" s="17"/>
       <c r="C243" s="17"/>
       <c r="D243" s="17"/>
@@ -4128,7 +4152,7 @@
       <c r="I243" s="17"/>
     </row>
     <row r="244" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="35" t="s">
+      <c r="A244" s="33" t="s">
         <v>42</v>
       </c>
       <c r="B244" s="34" t="s">
@@ -4152,6 +4176,7 @@
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
       <c r="B247" s="12" t="s">
         <v>45</v>
       </c>
@@ -4160,9 +4185,11 @@
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
       <c r="B248" s="12"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
       <c r="B249" s="12" t="s">
         <v>46</v>
       </c>
@@ -4171,64 +4198,75 @@
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
       <c r="B250" s="12"/>
       <c r="F250" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
       <c r="B251" s="12"/>
       <c r="F251" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
       <c r="B252" s="12"/>
       <c r="F252" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
       <c r="B253" s="12"/>
       <c r="F253" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
       <c r="B254" s="12"/>
       <c r="F254" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
       <c r="B255" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
       <c r="B256" s="10"/>
     </row>
     <row r="257" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
       <c r="B257" s="10"/>
     </row>
     <row r="258" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
       <c r="B258" s="10"/>
     </row>
     <row r="259" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
       <c r="B259" s="10"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
       <c r="B260" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F260" s="55">
+      <c r="F260" s="57">
         <f ca="1">TODAY()</f>
-        <v>45250</v>
-      </c>
-      <c r="G260" s="55"/>
+        <v>45264</v>
+      </c>
+      <c r="G260" s="57"/>
     </row>
     <row r="261" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="37" t="s">
+      <c r="A261" s="36" t="s">
         <v>50</v>
       </c>
       <c r="C261" s="6"/>
@@ -4238,607 +4276,607 @@
       <c r="A262" s="8">
         <v>1</v>
       </c>
-      <c r="B262" s="54" t="s">
+      <c r="B262" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C262" s="54"/>
-      <c r="D262" s="54"/>
-      <c r="E262" s="54"/>
-      <c r="F262" s="54"/>
-      <c r="G262" s="54"/>
-      <c r="H262" s="54"/>
-      <c r="I262" s="54"/>
+      <c r="C262" s="44"/>
+      <c r="D262" s="44"/>
+      <c r="E262" s="44"/>
+      <c r="F262" s="44"/>
+      <c r="G262" s="44"/>
+      <c r="H262" s="44"/>
+      <c r="I262" s="44"/>
     </row>
     <row r="263" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
         <v>2</v>
       </c>
-      <c r="B263" s="54" t="s">
+      <c r="B263" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C263" s="54"/>
-      <c r="D263" s="54"/>
-      <c r="E263" s="54"/>
-      <c r="F263" s="54"/>
-      <c r="G263" s="54"/>
-      <c r="H263" s="54"/>
-      <c r="I263" s="54"/>
+      <c r="C263" s="44"/>
+      <c r="D263" s="44"/>
+      <c r="E263" s="44"/>
+      <c r="F263" s="44"/>
+      <c r="G263" s="44"/>
+      <c r="H263" s="44"/>
+      <c r="I263" s="44"/>
     </row>
     <row r="264" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
         <v>3</v>
       </c>
-      <c r="B264" s="54" t="s">
+      <c r="B264" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C264" s="54"/>
-      <c r="D264" s="54"/>
-      <c r="E264" s="54"/>
-      <c r="F264" s="54"/>
-      <c r="G264" s="54"/>
-      <c r="H264" s="54"/>
-      <c r="I264" s="54"/>
+      <c r="C264" s="44"/>
+      <c r="D264" s="44"/>
+      <c r="E264" s="44"/>
+      <c r="F264" s="44"/>
+      <c r="G264" s="44"/>
+      <c r="H264" s="44"/>
+      <c r="I264" s="44"/>
     </row>
     <row r="265" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
         <v>4</v>
       </c>
-      <c r="B265" s="54" t="s">
+      <c r="B265" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C265" s="54"/>
-      <c r="D265" s="54"/>
-      <c r="E265" s="54"/>
-      <c r="F265" s="54"/>
-      <c r="G265" s="54"/>
-      <c r="H265" s="54"/>
-      <c r="I265" s="54"/>
+      <c r="C265" s="44"/>
+      <c r="D265" s="44"/>
+      <c r="E265" s="44"/>
+      <c r="F265" s="44"/>
+      <c r="G265" s="44"/>
+      <c r="H265" s="44"/>
+      <c r="I265" s="44"/>
     </row>
     <row r="266" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
         <v>5</v>
       </c>
-      <c r="B266" s="54" t="s">
+      <c r="B266" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C266" s="54"/>
-      <c r="D266" s="54"/>
-      <c r="E266" s="54"/>
-      <c r="F266" s="54"/>
-      <c r="G266" s="54"/>
-      <c r="H266" s="54"/>
-      <c r="I266" s="54"/>
+      <c r="C266" s="44"/>
+      <c r="D266" s="44"/>
+      <c r="E266" s="44"/>
+      <c r="F266" s="44"/>
+      <c r="G266" s="44"/>
+      <c r="H266" s="44"/>
+      <c r="I266" s="44"/>
     </row>
     <row r="267" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="8"/>
-      <c r="B267" s="54" t="s">
+      <c r="B267" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C267" s="54"/>
-      <c r="D267" s="54"/>
-      <c r="E267" s="54"/>
-      <c r="F267" s="54"/>
-      <c r="G267" s="54"/>
-      <c r="H267" s="54"/>
-      <c r="I267" s="54"/>
+      <c r="C267" s="44"/>
+      <c r="D267" s="44"/>
+      <c r="E267" s="44"/>
+      <c r="F267" s="44"/>
+      <c r="G267" s="44"/>
+      <c r="H267" s="44"/>
+      <c r="I267" s="44"/>
     </row>
     <row r="268" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="8"/>
-      <c r="B268" s="54" t="s">
+      <c r="B268" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C268" s="54"/>
-      <c r="D268" s="54"/>
-      <c r="E268" s="54"/>
-      <c r="F268" s="54"/>
-      <c r="G268" s="54"/>
-      <c r="H268" s="54"/>
-      <c r="I268" s="54"/>
+      <c r="C268" s="44"/>
+      <c r="D268" s="44"/>
+      <c r="E268" s="44"/>
+      <c r="F268" s="44"/>
+      <c r="G268" s="44"/>
+      <c r="H268" s="44"/>
+      <c r="I268" s="44"/>
     </row>
     <row r="269" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="8"/>
-      <c r="B269" s="54" t="s">
+      <c r="B269" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C269" s="54"/>
-      <c r="D269" s="54"/>
-      <c r="E269" s="54"/>
-      <c r="F269" s="54"/>
-      <c r="G269" s="54"/>
-      <c r="H269" s="54"/>
-      <c r="I269" s="54"/>
+      <c r="C269" s="44"/>
+      <c r="D269" s="44"/>
+      <c r="E269" s="44"/>
+      <c r="F269" s="44"/>
+      <c r="G269" s="44"/>
+      <c r="H269" s="44"/>
+      <c r="I269" s="44"/>
     </row>
     <row r="270" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
         <v>6</v>
       </c>
-      <c r="B270" s="54" t="s">
+      <c r="B270" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C270" s="54"/>
-      <c r="D270" s="54"/>
-      <c r="E270" s="54"/>
-      <c r="F270" s="54"/>
-      <c r="G270" s="54"/>
-      <c r="H270" s="54"/>
-      <c r="I270" s="54"/>
+      <c r="C270" s="44"/>
+      <c r="D270" s="44"/>
+      <c r="E270" s="44"/>
+      <c r="F270" s="44"/>
+      <c r="G270" s="44"/>
+      <c r="H270" s="44"/>
+      <c r="I270" s="44"/>
     </row>
     <row r="271" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
-      <c r="B271" s="54" t="s">
+      <c r="B271" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C271" s="54"/>
-      <c r="D271" s="54"/>
-      <c r="E271" s="54"/>
-      <c r="F271" s="54"/>
-      <c r="G271" s="54"/>
-      <c r="H271" s="54"/>
-      <c r="I271" s="54"/>
+      <c r="C271" s="44"/>
+      <c r="D271" s="44"/>
+      <c r="E271" s="44"/>
+      <c r="F271" s="44"/>
+      <c r="G271" s="44"/>
+      <c r="H271" s="44"/>
+      <c r="I271" s="44"/>
     </row>
     <row r="272" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="8"/>
-      <c r="B272" s="54" t="s">
+      <c r="B272" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C272" s="54"/>
-      <c r="D272" s="54"/>
-      <c r="E272" s="54"/>
-      <c r="F272" s="54"/>
-      <c r="G272" s="54"/>
-      <c r="H272" s="54"/>
-      <c r="I272" s="54"/>
+      <c r="C272" s="44"/>
+      <c r="D272" s="44"/>
+      <c r="E272" s="44"/>
+      <c r="F272" s="44"/>
+      <c r="G272" s="44"/>
+      <c r="H272" s="44"/>
+      <c r="I272" s="44"/>
     </row>
     <row r="273" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>7</v>
       </c>
-      <c r="B273" s="54" t="s">
+      <c r="B273" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C273" s="54"/>
-      <c r="D273" s="54"/>
-      <c r="E273" s="54"/>
-      <c r="F273" s="54"/>
-      <c r="G273" s="54"/>
-      <c r="H273" s="54"/>
-      <c r="I273" s="54"/>
+      <c r="C273" s="44"/>
+      <c r="D273" s="44"/>
+      <c r="E273" s="44"/>
+      <c r="F273" s="44"/>
+      <c r="G273" s="44"/>
+      <c r="H273" s="44"/>
+      <c r="I273" s="44"/>
     </row>
     <row r="274" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>8</v>
       </c>
-      <c r="B274" s="54" t="s">
+      <c r="B274" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C274" s="54"/>
-      <c r="D274" s="54"/>
-      <c r="E274" s="54"/>
-      <c r="F274" s="54"/>
-      <c r="G274" s="54"/>
-      <c r="H274" s="54"/>
-      <c r="I274" s="54"/>
+      <c r="C274" s="44"/>
+      <c r="D274" s="44"/>
+      <c r="E274" s="44"/>
+      <c r="F274" s="44"/>
+      <c r="G274" s="44"/>
+      <c r="H274" s="44"/>
+      <c r="I274" s="44"/>
     </row>
     <row r="275" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="8"/>
-      <c r="B275" s="54" t="s">
+      <c r="B275" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C275" s="54"/>
-      <c r="D275" s="54"/>
-      <c r="E275" s="54"/>
-      <c r="F275" s="54"/>
-      <c r="G275" s="54"/>
-      <c r="H275" s="54"/>
-      <c r="I275" s="54"/>
+      <c r="C275" s="44"/>
+      <c r="D275" s="44"/>
+      <c r="E275" s="44"/>
+      <c r="F275" s="44"/>
+      <c r="G275" s="44"/>
+      <c r="H275" s="44"/>
+      <c r="I275" s="44"/>
     </row>
     <row r="276" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="8"/>
-      <c r="B276" s="54" t="s">
+      <c r="B276" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C276" s="54"/>
-      <c r="D276" s="54"/>
-      <c r="E276" s="54"/>
-      <c r="F276" s="54"/>
-      <c r="G276" s="54"/>
-      <c r="H276" s="54"/>
-      <c r="I276" s="54"/>
+      <c r="C276" s="44"/>
+      <c r="D276" s="44"/>
+      <c r="E276" s="44"/>
+      <c r="F276" s="44"/>
+      <c r="G276" s="44"/>
+      <c r="H276" s="44"/>
+      <c r="I276" s="44"/>
     </row>
     <row r="277" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="8"/>
-      <c r="B277" s="54" t="s">
+      <c r="B277" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C277" s="54"/>
-      <c r="D277" s="54"/>
-      <c r="E277" s="54"/>
-      <c r="F277" s="54"/>
-      <c r="G277" s="54"/>
-      <c r="H277" s="54"/>
-      <c r="I277" s="54"/>
+      <c r="C277" s="44"/>
+      <c r="D277" s="44"/>
+      <c r="E277" s="44"/>
+      <c r="F277" s="44"/>
+      <c r="G277" s="44"/>
+      <c r="H277" s="44"/>
+      <c r="I277" s="44"/>
     </row>
     <row r="278" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="8"/>
-      <c r="B278" s="54" t="s">
+      <c r="B278" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C278" s="54"/>
-      <c r="D278" s="54"/>
-      <c r="E278" s="54"/>
-      <c r="F278" s="54"/>
-      <c r="G278" s="54"/>
-      <c r="H278" s="54"/>
-      <c r="I278" s="54"/>
+      <c r="C278" s="44"/>
+      <c r="D278" s="44"/>
+      <c r="E278" s="44"/>
+      <c r="F278" s="44"/>
+      <c r="G278" s="44"/>
+      <c r="H278" s="44"/>
+      <c r="I278" s="44"/>
     </row>
     <row r="279" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="8"/>
-      <c r="B279" s="54" t="s">
+      <c r="B279" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C279" s="54"/>
-      <c r="D279" s="54"/>
-      <c r="E279" s="54"/>
-      <c r="F279" s="54"/>
-      <c r="G279" s="54"/>
-      <c r="H279" s="54"/>
-      <c r="I279" s="54"/>
+      <c r="C279" s="44"/>
+      <c r="D279" s="44"/>
+      <c r="E279" s="44"/>
+      <c r="F279" s="44"/>
+      <c r="G279" s="44"/>
+      <c r="H279" s="44"/>
+      <c r="I279" s="44"/>
     </row>
     <row r="280" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="8"/>
-      <c r="B280" s="54" t="s">
+      <c r="B280" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C280" s="54"/>
-      <c r="D280" s="54"/>
-      <c r="E280" s="54"/>
-      <c r="F280" s="54"/>
-      <c r="G280" s="54"/>
-      <c r="H280" s="54"/>
-      <c r="I280" s="54"/>
+      <c r="C280" s="44"/>
+      <c r="D280" s="44"/>
+      <c r="E280" s="44"/>
+      <c r="F280" s="44"/>
+      <c r="G280" s="44"/>
+      <c r="H280" s="44"/>
+      <c r="I280" s="44"/>
     </row>
     <row r="281" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>9</v>
       </c>
-      <c r="B281" s="54" t="s">
+      <c r="B281" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C281" s="54"/>
-      <c r="D281" s="54"/>
-      <c r="E281" s="54"/>
-      <c r="F281" s="54"/>
-      <c r="G281" s="54"/>
-      <c r="H281" s="54"/>
-      <c r="I281" s="54"/>
+      <c r="C281" s="44"/>
+      <c r="D281" s="44"/>
+      <c r="E281" s="44"/>
+      <c r="F281" s="44"/>
+      <c r="G281" s="44"/>
+      <c r="H281" s="44"/>
+      <c r="I281" s="44"/>
     </row>
     <row r="282" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
         <v>10</v>
       </c>
-      <c r="B282" s="54" t="s">
+      <c r="B282" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C282" s="54"/>
-      <c r="D282" s="54"/>
-      <c r="E282" s="54"/>
-      <c r="F282" s="54"/>
-      <c r="G282" s="54"/>
-      <c r="H282" s="54"/>
-      <c r="I282" s="54"/>
+      <c r="C282" s="44"/>
+      <c r="D282" s="44"/>
+      <c r="E282" s="44"/>
+      <c r="F282" s="44"/>
+      <c r="G282" s="44"/>
+      <c r="H282" s="44"/>
+      <c r="I282" s="44"/>
     </row>
     <row r="283" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="8"/>
-      <c r="B283" s="54" t="s">
+      <c r="B283" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C283" s="54"/>
-      <c r="D283" s="54"/>
-      <c r="E283" s="54"/>
-      <c r="F283" s="54"/>
-      <c r="G283" s="54"/>
-      <c r="H283" s="54"/>
-      <c r="I283" s="54"/>
+      <c r="C283" s="44"/>
+      <c r="D283" s="44"/>
+      <c r="E283" s="44"/>
+      <c r="F283" s="44"/>
+      <c r="G283" s="44"/>
+      <c r="H283" s="44"/>
+      <c r="I283" s="44"/>
     </row>
     <row r="284" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="8"/>
-      <c r="B284" s="54" t="s">
+      <c r="B284" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C284" s="54"/>
-      <c r="D284" s="54"/>
-      <c r="E284" s="54"/>
-      <c r="F284" s="54"/>
-      <c r="G284" s="54"/>
-      <c r="H284" s="54"/>
-      <c r="I284" s="54"/>
+      <c r="C284" s="44"/>
+      <c r="D284" s="44"/>
+      <c r="E284" s="44"/>
+      <c r="F284" s="44"/>
+      <c r="G284" s="44"/>
+      <c r="H284" s="44"/>
+      <c r="I284" s="44"/>
     </row>
     <row r="285" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="8"/>
-      <c r="B285" s="54" t="s">
+      <c r="B285" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C285" s="54"/>
-      <c r="D285" s="54"/>
-      <c r="E285" s="54"/>
-      <c r="F285" s="54"/>
-      <c r="G285" s="54"/>
-      <c r="H285" s="54"/>
-      <c r="I285" s="54"/>
+      <c r="C285" s="44"/>
+      <c r="D285" s="44"/>
+      <c r="E285" s="44"/>
+      <c r="F285" s="44"/>
+      <c r="G285" s="44"/>
+      <c r="H285" s="44"/>
+      <c r="I285" s="44"/>
     </row>
     <row r="286" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="8"/>
-      <c r="B286" s="54" t="s">
+      <c r="B286" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C286" s="54"/>
-      <c r="D286" s="54"/>
-      <c r="E286" s="54"/>
-      <c r="F286" s="54"/>
-      <c r="G286" s="54"/>
-      <c r="H286" s="54"/>
-      <c r="I286" s="54"/>
+      <c r="C286" s="44"/>
+      <c r="D286" s="44"/>
+      <c r="E286" s="44"/>
+      <c r="F286" s="44"/>
+      <c r="G286" s="44"/>
+      <c r="H286" s="44"/>
+      <c r="I286" s="44"/>
     </row>
     <row r="287" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>11</v>
       </c>
-      <c r="B287" s="54" t="s">
+      <c r="B287" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C287" s="54"/>
-      <c r="D287" s="54"/>
-      <c r="E287" s="54"/>
-      <c r="F287" s="54"/>
-      <c r="G287" s="54"/>
-      <c r="H287" s="54"/>
-      <c r="I287" s="54"/>
+      <c r="C287" s="44"/>
+      <c r="D287" s="44"/>
+      <c r="E287" s="44"/>
+      <c r="F287" s="44"/>
+      <c r="G287" s="44"/>
+      <c r="H287" s="44"/>
+      <c r="I287" s="44"/>
     </row>
     <row r="288" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="8"/>
-      <c r="B288" s="54" t="s">
+      <c r="B288" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C288" s="54"/>
-      <c r="D288" s="54"/>
-      <c r="E288" s="54"/>
-      <c r="F288" s="54"/>
-      <c r="G288" s="54"/>
-      <c r="H288" s="54"/>
-      <c r="I288" s="54"/>
+      <c r="C288" s="44"/>
+      <c r="D288" s="44"/>
+      <c r="E288" s="44"/>
+      <c r="F288" s="44"/>
+      <c r="G288" s="44"/>
+      <c r="H288" s="44"/>
+      <c r="I288" s="44"/>
     </row>
     <row r="289" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="8"/>
-      <c r="B289" s="54" t="s">
+      <c r="B289" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C289" s="54"/>
-      <c r="D289" s="54"/>
-      <c r="E289" s="54"/>
-      <c r="F289" s="54"/>
-      <c r="G289" s="54"/>
-      <c r="H289" s="54"/>
-      <c r="I289" s="54"/>
+      <c r="C289" s="44"/>
+      <c r="D289" s="44"/>
+      <c r="E289" s="44"/>
+      <c r="F289" s="44"/>
+      <c r="G289" s="44"/>
+      <c r="H289" s="44"/>
+      <c r="I289" s="44"/>
     </row>
     <row r="290" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
         <v>12</v>
       </c>
-      <c r="B290" s="54" t="s">
+      <c r="B290" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C290" s="54"/>
-      <c r="D290" s="54"/>
-      <c r="E290" s="54"/>
-      <c r="F290" s="54"/>
-      <c r="G290" s="54"/>
-      <c r="H290" s="54"/>
-      <c r="I290" s="54"/>
+      <c r="C290" s="44"/>
+      <c r="D290" s="44"/>
+      <c r="E290" s="44"/>
+      <c r="F290" s="44"/>
+      <c r="G290" s="44"/>
+      <c r="H290" s="44"/>
+      <c r="I290" s="44"/>
     </row>
     <row r="291" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="8"/>
-      <c r="B291" s="54" t="s">
+      <c r="B291" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C291" s="54"/>
-      <c r="D291" s="54"/>
-      <c r="E291" s="54"/>
-      <c r="F291" s="54"/>
-      <c r="G291" s="54"/>
-      <c r="H291" s="54"/>
-      <c r="I291" s="54"/>
+      <c r="C291" s="44"/>
+      <c r="D291" s="44"/>
+      <c r="E291" s="44"/>
+      <c r="F291" s="44"/>
+      <c r="G291" s="44"/>
+      <c r="H291" s="44"/>
+      <c r="I291" s="44"/>
     </row>
     <row r="292" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="8"/>
-      <c r="B292" s="54" t="s">
+      <c r="B292" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C292" s="54"/>
-      <c r="D292" s="54"/>
-      <c r="E292" s="54"/>
-      <c r="F292" s="54"/>
-      <c r="G292" s="54"/>
-      <c r="H292" s="54"/>
-      <c r="I292" s="54"/>
+      <c r="C292" s="44"/>
+      <c r="D292" s="44"/>
+      <c r="E292" s="44"/>
+      <c r="F292" s="44"/>
+      <c r="G292" s="44"/>
+      <c r="H292" s="44"/>
+      <c r="I292" s="44"/>
     </row>
     <row r="293" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="8"/>
-      <c r="B293" s="54" t="s">
+      <c r="B293" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C293" s="54"/>
-      <c r="D293" s="54"/>
-      <c r="E293" s="54"/>
-      <c r="F293" s="54"/>
-      <c r="G293" s="54"/>
-      <c r="H293" s="54"/>
-      <c r="I293" s="54"/>
+      <c r="C293" s="44"/>
+      <c r="D293" s="44"/>
+      <c r="E293" s="44"/>
+      <c r="F293" s="44"/>
+      <c r="G293" s="44"/>
+      <c r="H293" s="44"/>
+      <c r="I293" s="44"/>
     </row>
     <row r="294" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="8"/>
-      <c r="B294" s="54" t="s">
+      <c r="B294" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C294" s="54"/>
-      <c r="D294" s="54"/>
-      <c r="E294" s="54"/>
-      <c r="F294" s="54"/>
-      <c r="G294" s="54"/>
-      <c r="H294" s="54"/>
-      <c r="I294" s="54"/>
+      <c r="C294" s="44"/>
+      <c r="D294" s="44"/>
+      <c r="E294" s="44"/>
+      <c r="F294" s="44"/>
+      <c r="G294" s="44"/>
+      <c r="H294" s="44"/>
+      <c r="I294" s="44"/>
     </row>
     <row r="295" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>13</v>
       </c>
-      <c r="B295" s="54" t="s">
+      <c r="B295" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C295" s="54"/>
-      <c r="D295" s="54"/>
-      <c r="E295" s="54"/>
-      <c r="F295" s="54"/>
-      <c r="G295" s="54"/>
-      <c r="H295" s="54"/>
-      <c r="I295" s="54"/>
+      <c r="C295" s="44"/>
+      <c r="D295" s="44"/>
+      <c r="E295" s="44"/>
+      <c r="F295" s="44"/>
+      <c r="G295" s="44"/>
+      <c r="H295" s="44"/>
+      <c r="I295" s="44"/>
     </row>
     <row r="296" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="8"/>
-      <c r="B296" s="54" t="s">
+      <c r="B296" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C296" s="54"/>
-      <c r="D296" s="54"/>
-      <c r="E296" s="54"/>
-      <c r="F296" s="54"/>
-      <c r="G296" s="54"/>
-      <c r="H296" s="54"/>
-      <c r="I296" s="54"/>
+      <c r="C296" s="44"/>
+      <c r="D296" s="44"/>
+      <c r="E296" s="44"/>
+      <c r="F296" s="44"/>
+      <c r="G296" s="44"/>
+      <c r="H296" s="44"/>
+      <c r="I296" s="44"/>
     </row>
     <row r="297" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="8"/>
-      <c r="B297" s="54" t="s">
+      <c r="B297" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C297" s="54"/>
-      <c r="D297" s="54"/>
-      <c r="E297" s="54"/>
-      <c r="F297" s="54"/>
-      <c r="G297" s="54"/>
-      <c r="H297" s="54"/>
-      <c r="I297" s="54"/>
+      <c r="C297" s="44"/>
+      <c r="D297" s="44"/>
+      <c r="E297" s="44"/>
+      <c r="F297" s="44"/>
+      <c r="G297" s="44"/>
+      <c r="H297" s="44"/>
+      <c r="I297" s="44"/>
     </row>
     <row r="298" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
         <v>14</v>
       </c>
-      <c r="B298" s="54" t="s">
+      <c r="B298" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C298" s="54"/>
-      <c r="D298" s="54"/>
-      <c r="E298" s="54"/>
-      <c r="F298" s="54"/>
-      <c r="G298" s="54"/>
-      <c r="H298" s="54"/>
-      <c r="I298" s="54"/>
+      <c r="C298" s="44"/>
+      <c r="D298" s="44"/>
+      <c r="E298" s="44"/>
+      <c r="F298" s="44"/>
+      <c r="G298" s="44"/>
+      <c r="H298" s="44"/>
+      <c r="I298" s="44"/>
     </row>
     <row r="299" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="8"/>
-      <c r="B299" s="54" t="s">
+      <c r="B299" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="C299" s="54"/>
-      <c r="D299" s="54"/>
-      <c r="E299" s="54"/>
-      <c r="F299" s="54"/>
-      <c r="G299" s="54"/>
-      <c r="H299" s="54"/>
-      <c r="I299" s="54"/>
+      <c r="C299" s="44"/>
+      <c r="D299" s="44"/>
+      <c r="E299" s="44"/>
+      <c r="F299" s="44"/>
+      <c r="G299" s="44"/>
+      <c r="H299" s="44"/>
+      <c r="I299" s="44"/>
     </row>
     <row r="300" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="8"/>
-      <c r="B300" s="54" t="s">
+      <c r="B300" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C300" s="54"/>
-      <c r="D300" s="54"/>
-      <c r="E300" s="54"/>
-      <c r="F300" s="54"/>
-      <c r="G300" s="54"/>
-      <c r="H300" s="54"/>
-      <c r="I300" s="54"/>
+      <c r="C300" s="44"/>
+      <c r="D300" s="44"/>
+      <c r="E300" s="44"/>
+      <c r="F300" s="44"/>
+      <c r="G300" s="44"/>
+      <c r="H300" s="44"/>
+      <c r="I300" s="44"/>
     </row>
     <row r="301" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="8"/>
-      <c r="B301" s="54" t="s">
+      <c r="B301" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C301" s="54"/>
-      <c r="D301" s="54"/>
-      <c r="E301" s="54"/>
-      <c r="F301" s="54"/>
-      <c r="G301" s="54"/>
-      <c r="H301" s="54"/>
-      <c r="I301" s="54"/>
+      <c r="C301" s="44"/>
+      <c r="D301" s="44"/>
+      <c r="E301" s="44"/>
+      <c r="F301" s="44"/>
+      <c r="G301" s="44"/>
+      <c r="H301" s="44"/>
+      <c r="I301" s="44"/>
     </row>
     <row r="302" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="8"/>
-      <c r="B302" s="54" t="s">
+      <c r="B302" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C302" s="54"/>
-      <c r="D302" s="54"/>
-      <c r="E302" s="54"/>
-      <c r="F302" s="54"/>
-      <c r="G302" s="54"/>
-      <c r="H302" s="54"/>
-      <c r="I302" s="54"/>
+      <c r="C302" s="44"/>
+      <c r="D302" s="44"/>
+      <c r="E302" s="44"/>
+      <c r="F302" s="44"/>
+      <c r="G302" s="44"/>
+      <c r="H302" s="44"/>
+      <c r="I302" s="44"/>
     </row>
     <row r="303" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
         <v>15</v>
       </c>
-      <c r="B303" s="54" t="s">
+      <c r="B303" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C303" s="54"/>
-      <c r="D303" s="54"/>
-      <c r="E303" s="54"/>
-      <c r="F303" s="54"/>
-      <c r="G303" s="54"/>
-      <c r="H303" s="54"/>
-      <c r="I303" s="54"/>
+      <c r="C303" s="44"/>
+      <c r="D303" s="44"/>
+      <c r="E303" s="44"/>
+      <c r="F303" s="44"/>
+      <c r="G303" s="44"/>
+      <c r="H303" s="44"/>
+      <c r="I303" s="44"/>
     </row>
     <row r="304" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
         <v>16</v>
       </c>
-      <c r="B304" s="54" t="s">
+      <c r="B304" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="C304" s="54"/>
-      <c r="D304" s="54"/>
-      <c r="E304" s="54"/>
-      <c r="F304" s="54"/>
-      <c r="G304" s="54"/>
-      <c r="H304" s="54"/>
-      <c r="I304" s="54"/>
+      <c r="C304" s="44"/>
+      <c r="D304" s="44"/>
+      <c r="E304" s="44"/>
+      <c r="F304" s="44"/>
+      <c r="G304" s="44"/>
+      <c r="H304" s="44"/>
+      <c r="I304" s="44"/>
     </row>
     <row r="305" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
         <v>17</v>
       </c>
-      <c r="B305" s="54" t="s">
+      <c r="B305" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C305" s="54"/>
-      <c r="D305" s="54"/>
-      <c r="E305" s="54"/>
-      <c r="F305" s="54"/>
-      <c r="G305" s="54"/>
-      <c r="H305" s="54"/>
-      <c r="I305" s="54"/>
+      <c r="C305" s="44"/>
+      <c r="D305" s="44"/>
+      <c r="E305" s="44"/>
+      <c r="F305" s="44"/>
+      <c r="G305" s="44"/>
+      <c r="H305" s="44"/>
+      <c r="I305" s="44"/>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="27"/>
@@ -4857,6 +4895,76 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="B193:I193"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B184:I185"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B178:I181"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="Q9:X9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A11:I14"/>
+    <mergeCell ref="M11:T14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A8:I9"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B304:I304"/>
+    <mergeCell ref="B293:I293"/>
+    <mergeCell ref="B294:I294"/>
+    <mergeCell ref="B295:I295"/>
+    <mergeCell ref="B296:I296"/>
+    <mergeCell ref="B297:I297"/>
+    <mergeCell ref="B298:I298"/>
+    <mergeCell ref="B299:I299"/>
+    <mergeCell ref="B300:I300"/>
+    <mergeCell ref="B301:I301"/>
+    <mergeCell ref="B302:I302"/>
+    <mergeCell ref="B303:I303"/>
+    <mergeCell ref="B279:I279"/>
+    <mergeCell ref="B292:I292"/>
+    <mergeCell ref="B281:I281"/>
+    <mergeCell ref="B282:I282"/>
+    <mergeCell ref="B283:I283"/>
+    <mergeCell ref="B284:I284"/>
+    <mergeCell ref="B285:I285"/>
+    <mergeCell ref="B286:I286"/>
+    <mergeCell ref="B287:I287"/>
+    <mergeCell ref="B288:I288"/>
+    <mergeCell ref="B289:I289"/>
+    <mergeCell ref="B290:I290"/>
+    <mergeCell ref="B291:I291"/>
+    <mergeCell ref="B266:I266"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="B234:I236"/>
+    <mergeCell ref="B280:I280"/>
+    <mergeCell ref="B267:I267"/>
+    <mergeCell ref="B268:I268"/>
+    <mergeCell ref="B269:I269"/>
+    <mergeCell ref="B270:I270"/>
+    <mergeCell ref="B276:I276"/>
+    <mergeCell ref="B271:I271"/>
+    <mergeCell ref="B272:I272"/>
+    <mergeCell ref="B273:I273"/>
+    <mergeCell ref="B274:I274"/>
+    <mergeCell ref="B275:I275"/>
+    <mergeCell ref="B277:I277"/>
+    <mergeCell ref="B278:I278"/>
+    <mergeCell ref="B263:I263"/>
+    <mergeCell ref="B264:I264"/>
+    <mergeCell ref="B265:I265"/>
+    <mergeCell ref="C232:E232"/>
+    <mergeCell ref="B231:E231"/>
     <mergeCell ref="B305:I305"/>
     <mergeCell ref="B218:I221"/>
     <mergeCell ref="B206:I206"/>
@@ -4873,76 +4981,6 @@
     <mergeCell ref="B229:E229"/>
     <mergeCell ref="B230:E230"/>
     <mergeCell ref="B262:I262"/>
-    <mergeCell ref="B263:I263"/>
-    <mergeCell ref="B264:I264"/>
-    <mergeCell ref="B265:I265"/>
-    <mergeCell ref="C232:E232"/>
-    <mergeCell ref="B231:E231"/>
-    <mergeCell ref="B266:I266"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="B234:I236"/>
-    <mergeCell ref="B280:I280"/>
-    <mergeCell ref="B267:I267"/>
-    <mergeCell ref="B268:I268"/>
-    <mergeCell ref="B269:I269"/>
-    <mergeCell ref="B270:I270"/>
-    <mergeCell ref="B276:I276"/>
-    <mergeCell ref="B271:I271"/>
-    <mergeCell ref="B272:I272"/>
-    <mergeCell ref="B273:I273"/>
-    <mergeCell ref="B274:I274"/>
-    <mergeCell ref="B275:I275"/>
-    <mergeCell ref="B277:I277"/>
-    <mergeCell ref="B278:I278"/>
-    <mergeCell ref="B279:I279"/>
-    <mergeCell ref="B292:I292"/>
-    <mergeCell ref="B281:I281"/>
-    <mergeCell ref="B282:I282"/>
-    <mergeCell ref="B283:I283"/>
-    <mergeCell ref="B284:I284"/>
-    <mergeCell ref="B285:I285"/>
-    <mergeCell ref="B286:I286"/>
-    <mergeCell ref="B287:I287"/>
-    <mergeCell ref="B288:I288"/>
-    <mergeCell ref="B289:I289"/>
-    <mergeCell ref="B290:I290"/>
-    <mergeCell ref="B291:I291"/>
-    <mergeCell ref="B304:I304"/>
-    <mergeCell ref="B293:I293"/>
-    <mergeCell ref="B294:I294"/>
-    <mergeCell ref="B295:I295"/>
-    <mergeCell ref="B296:I296"/>
-    <mergeCell ref="B297:I297"/>
-    <mergeCell ref="B298:I298"/>
-    <mergeCell ref="B299:I299"/>
-    <mergeCell ref="B300:I300"/>
-    <mergeCell ref="B301:I301"/>
-    <mergeCell ref="B302:I302"/>
-    <mergeCell ref="B303:I303"/>
-    <mergeCell ref="Q9:X9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A11:I14"/>
-    <mergeCell ref="M11:T14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A8:I9"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B193:I193"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B184:I185"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B178:I181"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">

--- a/app/resource/xlsx/fee_proposal_template_3.xlsx
+++ b/app/resource/xlsx/fee_proposal_template_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A947CD-B56A-42DB-8D57-DA30548CB3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9980F110-1334-4CC2-BC32-5C9DA2ABBC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
@@ -405,9 +405,6 @@
     <t>Receive base building drawings detailing information of air conditioning and ventilation provision</t>
   </si>
   <si>
-    <t>ATT:</t>
-  </si>
-  <si>
     <t>6.2</t>
   </si>
   <si>
@@ -498,6 +495,9 @@
   </si>
   <si>
     <t>Perform site visit (if included), obtain site photos(inside and outside of the tenancy, shopfront, roof)</t>
+  </si>
+  <si>
+    <t>ATT:</t>
   </si>
 </sst>
 </file>
@@ -812,14 +812,56 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -827,9 +869,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -838,45 +877,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1023,9 +1023,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1063,7 +1063,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1169,7 +1169,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1311,7 +1311,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1322,9 +1322,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X310"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:A260"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1340,18 +1338,13 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="e">
-        <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
-        <v>#REF!</v>
+        <v>142</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="15"/>
@@ -1359,10 +1352,10 @@
       <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="19"/>
@@ -1397,10 +1390,7 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="str">
-        <f>CONCATENATE("Dear ", IF(B1&lt;&gt;"", IFERROR(LEFT(B1,FIND(" ",B1)-1),B1),""), ",")</f>
-        <v>Dear ,</v>
-      </c>
+      <c r="A5" s="12"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1415,15 +1405,15 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1448,26 +1438,26 @@
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1475,93 +1465,93 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
+      <c r="A11" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1590,16 +1580,16 @@
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="B17" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="7"/>
@@ -1608,16 +1598,16 @@
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="B18" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
@@ -1626,16 +1616,16 @@
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
@@ -1671,16 +1661,16 @@
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -1691,32 +1681,32 @@
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
+      <c r="B23" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
+      <c r="B24" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,46 +1731,46 @@
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
     </row>
@@ -1811,46 +1801,46 @@
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -1900,7 +1890,7 @@
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1910,7 +1900,7 @@
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -3251,7 +3241,7 @@
         <v>21</v>
       </c>
       <c r="B176" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D176" s="16"/>
       <c r="E176" s="16"/>
@@ -3261,11 +3251,11 @@
       <c r="I176" s="33"/>
     </row>
     <row r="177" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="63" t="s">
-        <v>117</v>
+      <c r="A177" s="44" t="s">
+        <v>116</v>
       </c>
       <c r="B177" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
@@ -3276,49 +3266,49 @@
     </row>
     <row r="178" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="33"/>
-      <c r="B178" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C178" s="45"/>
-      <c r="D178" s="45"/>
-      <c r="E178" s="45"/>
-      <c r="F178" s="45"/>
-      <c r="G178" s="45"/>
-      <c r="H178" s="45"/>
-      <c r="I178" s="45"/>
+      <c r="B178" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C178" s="49"/>
+      <c r="D178" s="49"/>
+      <c r="E178" s="49"/>
+      <c r="F178" s="49"/>
+      <c r="G178" s="49"/>
+      <c r="H178" s="49"/>
+      <c r="I178" s="49"/>
     </row>
     <row r="179" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="33"/>
-      <c r="B179" s="45"/>
-      <c r="C179" s="45"/>
-      <c r="D179" s="45"/>
-      <c r="E179" s="45"/>
-      <c r="F179" s="45"/>
-      <c r="G179" s="45"/>
-      <c r="H179" s="45"/>
-      <c r="I179" s="45"/>
+      <c r="B179" s="49"/>
+      <c r="C179" s="49"/>
+      <c r="D179" s="49"/>
+      <c r="E179" s="49"/>
+      <c r="F179" s="49"/>
+      <c r="G179" s="49"/>
+      <c r="H179" s="49"/>
+      <c r="I179" s="49"/>
     </row>
     <row r="180" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="33"/>
-      <c r="B180" s="45"/>
-      <c r="C180" s="45"/>
-      <c r="D180" s="45"/>
-      <c r="E180" s="45"/>
-      <c r="F180" s="45"/>
-      <c r="G180" s="45"/>
-      <c r="H180" s="45"/>
-      <c r="I180" s="45"/>
+      <c r="B180" s="49"/>
+      <c r="C180" s="49"/>
+      <c r="D180" s="49"/>
+      <c r="E180" s="49"/>
+      <c r="F180" s="49"/>
+      <c r="G180" s="49"/>
+      <c r="H180" s="49"/>
+      <c r="I180" s="49"/>
     </row>
     <row r="181" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="33"/>
-      <c r="B181" s="45"/>
-      <c r="C181" s="45"/>
-      <c r="D181" s="45"/>
-      <c r="E181" s="45"/>
-      <c r="F181" s="45"/>
-      <c r="G181" s="45"/>
-      <c r="H181" s="45"/>
-      <c r="I181" s="45"/>
+      <c r="B181" s="49"/>
+      <c r="C181" s="49"/>
+      <c r="D181" s="49"/>
+      <c r="E181" s="49"/>
+      <c r="F181" s="49"/>
+      <c r="G181" s="49"/>
+      <c r="H181" s="49"/>
+      <c r="I181" s="49"/>
     </row>
     <row r="182" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="33"/>
@@ -3331,11 +3321,11 @@
       <c r="I182" s="33"/>
     </row>
     <row r="183" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="63">
+      <c r="A183" s="44">
         <v>3.2</v>
       </c>
       <c r="B183" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D183" s="16"/>
       <c r="E183" s="16"/>
@@ -3346,34 +3336,34 @@
     </row>
     <row r="184" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="33"/>
-      <c r="B184" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C184" s="45"/>
-      <c r="D184" s="45"/>
-      <c r="E184" s="45"/>
-      <c r="F184" s="45"/>
-      <c r="G184" s="45"/>
-      <c r="H184" s="45"/>
-      <c r="I184" s="45"/>
+      <c r="B184" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C184" s="49"/>
+      <c r="D184" s="49"/>
+      <c r="E184" s="49"/>
+      <c r="F184" s="49"/>
+      <c r="G184" s="49"/>
+      <c r="H184" s="49"/>
+      <c r="I184" s="49"/>
     </row>
     <row r="185" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="33"/>
-      <c r="B185" s="45"/>
-      <c r="C185" s="45"/>
-      <c r="D185" s="45"/>
-      <c r="E185" s="45"/>
-      <c r="F185" s="45"/>
-      <c r="G185" s="45"/>
-      <c r="H185" s="45"/>
-      <c r="I185" s="45"/>
+      <c r="B185" s="49"/>
+      <c r="C185" s="49"/>
+      <c r="D185" s="49"/>
+      <c r="E185" s="49"/>
+      <c r="F185" s="49"/>
+      <c r="G185" s="49"/>
+      <c r="H185" s="49"/>
+      <c r="I185" s="49"/>
     </row>
     <row r="186" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D186" s="16"/>
       <c r="E186" s="16"/>
@@ -3387,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D187" s="16"/>
       <c r="E187" s="16"/>
@@ -3401,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D188" s="16"/>
       <c r="E188" s="16"/>
@@ -3441,11 +3431,11 @@
       <c r="I191" s="33"/>
     </row>
     <row r="192" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="63">
+      <c r="A192" s="44">
         <v>3.3</v>
       </c>
       <c r="B192" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D192" s="16"/>
       <c r="E192" s="16"/>
@@ -3455,17 +3445,17 @@
       <c r="I192" s="33"/>
     </row>
     <row r="193" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="63"/>
-      <c r="B193" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="C193" s="49"/>
-      <c r="D193" s="49"/>
-      <c r="E193" s="49"/>
-      <c r="F193" s="49"/>
-      <c r="G193" s="49"/>
-      <c r="H193" s="49"/>
-      <c r="I193" s="49"/>
+      <c r="A193" s="44"/>
+      <c r="B193" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C193" s="47"/>
+      <c r="D193" s="47"/>
+      <c r="E193" s="47"/>
+      <c r="F193" s="47"/>
+      <c r="G193" s="47"/>
+      <c r="H193" s="47"/>
+      <c r="I193" s="47"/>
       <c r="Q193" s="34"/>
     </row>
     <row r="194" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3617,7 +3607,7 @@
       <c r="Q203" s="10"/>
     </row>
     <row r="204" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="64"/>
+      <c r="A204" s="45"/>
       <c r="M204" s="5" t="str">
         <f t="array" ref="M204">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
@@ -3627,11 +3617,11 @@
       <c r="P204" s="9"/>
     </row>
     <row r="205" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="63">
+      <c r="A205" s="44">
         <v>3.4</v>
       </c>
       <c r="B205" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M205" s="5" t="str">
         <f t="array" ref="M205">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
@@ -3643,17 +3633,17 @@
       <c r="Q205" s="5"/>
     </row>
     <row r="206" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="63"/>
-      <c r="B206" s="46" t="s">
+      <c r="A206" s="44"/>
+      <c r="B206" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C206" s="46"/>
-      <c r="D206" s="46"/>
-      <c r="E206" s="46"/>
-      <c r="F206" s="46"/>
-      <c r="G206" s="46"/>
-      <c r="H206" s="46"/>
-      <c r="I206" s="46"/>
+      <c r="C206" s="48"/>
+      <c r="D206" s="48"/>
+      <c r="E206" s="48"/>
+      <c r="F206" s="48"/>
+      <c r="G206" s="48"/>
+      <c r="H206" s="48"/>
+      <c r="I206" s="48"/>
       <c r="M206" s="7"/>
       <c r="N206" s="23"/>
       <c r="O206" s="22"/>
@@ -3661,12 +3651,12 @@
       <c r="Q206" s="5"/>
     </row>
     <row r="207" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="63"/>
+      <c r="A207" s="44"/>
       <c r="B207" t="s">
         <v>9</v>
       </c>
       <c r="E207" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M207" s="12"/>
       <c r="N207" s="7"/>
@@ -3721,17 +3711,17 @@
       <c r="P210"/>
     </row>
     <row r="211" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="64"/>
-      <c r="B211" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C211" s="49"/>
-      <c r="D211" s="49"/>
-      <c r="E211" s="49"/>
-      <c r="F211" s="49"/>
-      <c r="G211" s="49"/>
-      <c r="H211" s="49"/>
-      <c r="I211" s="49"/>
+      <c r="A211" s="45"/>
+      <c r="B211" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C211" s="47"/>
+      <c r="D211" s="47"/>
+      <c r="E211" s="47"/>
+      <c r="F211" s="47"/>
+      <c r="G211" s="47"/>
+      <c r="H211" s="47"/>
+      <c r="I211" s="47"/>
       <c r="M211"/>
       <c r="N211"/>
     </row>
@@ -3741,14 +3731,14 @@
         <v>28</v>
       </c>
       <c r="C212" s="28"/>
-      <c r="D212" s="47" t="s">
+      <c r="D212" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="E212" s="47"/>
-      <c r="F212" s="47" t="s">
+      <c r="E212" s="61"/>
+      <c r="F212" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="G212" s="47"/>
+      <c r="G212" s="61"/>
       <c r="H212" s="9"/>
       <c r="Q212" s="5"/>
     </row>
@@ -3758,14 +3748,14 @@
         <v>24</v>
       </c>
       <c r="C213" s="28"/>
-      <c r="D213" s="47" t="s">
+      <c r="D213" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="E213" s="47"/>
-      <c r="F213" s="48">
+      <c r="E213" s="61"/>
+      <c r="F213" s="62">
         <v>10000000</v>
       </c>
-      <c r="G213" s="48"/>
+      <c r="G213" s="62"/>
       <c r="H213" s="23"/>
       <c r="I213" s="7"/>
       <c r="M213" s="5"/>
@@ -3780,21 +3770,21 @@
         <v>26</v>
       </c>
       <c r="C214" s="28"/>
-      <c r="D214" s="47" t="s">
+      <c r="D214" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="E214" s="47"/>
-      <c r="F214" s="48">
+      <c r="E214" s="61"/>
+      <c r="F214" s="62">
         <v>20000000</v>
       </c>
-      <c r="G214" s="48"/>
+      <c r="G214" s="62"/>
       <c r="H214" s="23"/>
       <c r="M214" s="9"/>
     </row>
     <row r="215" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C215" s="12"/>
       <c r="D215" s="12"/>
@@ -3829,50 +3819,50 @@
     </row>
     <row r="218" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
-      <c r="B218" s="45" t="s">
+      <c r="B218" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="C218" s="45"/>
-      <c r="D218" s="45"/>
-      <c r="E218" s="45"/>
-      <c r="F218" s="45"/>
-      <c r="G218" s="45"/>
-      <c r="H218" s="45"/>
-      <c r="I218" s="45"/>
+      <c r="C218" s="49"/>
+      <c r="D218" s="49"/>
+      <c r="E218" s="49"/>
+      <c r="F218" s="49"/>
+      <c r="G218" s="49"/>
+      <c r="H218" s="49"/>
+      <c r="I218" s="49"/>
       <c r="M218" s="12"/>
     </row>
     <row r="219" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
-      <c r="B219" s="45"/>
-      <c r="C219" s="45"/>
-      <c r="D219" s="45"/>
-      <c r="E219" s="45"/>
-      <c r="F219" s="45"/>
-      <c r="G219" s="45"/>
-      <c r="H219" s="45"/>
-      <c r="I219" s="45"/>
+      <c r="B219" s="49"/>
+      <c r="C219" s="49"/>
+      <c r="D219" s="49"/>
+      <c r="E219" s="49"/>
+      <c r="F219" s="49"/>
+      <c r="G219" s="49"/>
+      <c r="H219" s="49"/>
+      <c r="I219" s="49"/>
     </row>
     <row r="220" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
-      <c r="B220" s="45"/>
-      <c r="C220" s="45"/>
-      <c r="D220" s="45"/>
-      <c r="E220" s="45"/>
-      <c r="F220" s="45"/>
-      <c r="G220" s="45"/>
-      <c r="H220" s="45"/>
-      <c r="I220" s="45"/>
+      <c r="B220" s="49"/>
+      <c r="C220" s="49"/>
+      <c r="D220" s="49"/>
+      <c r="E220" s="49"/>
+      <c r="F220" s="49"/>
+      <c r="G220" s="49"/>
+      <c r="H220" s="49"/>
+      <c r="I220" s="49"/>
     </row>
     <row r="221" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
-      <c r="B221" s="45"/>
-      <c r="C221" s="45"/>
-      <c r="D221" s="45"/>
-      <c r="E221" s="45"/>
-      <c r="F221" s="45"/>
-      <c r="G221" s="45"/>
-      <c r="H221" s="45"/>
-      <c r="I221" s="45"/>
+      <c r="B221" s="49"/>
+      <c r="C221" s="49"/>
+      <c r="D221" s="49"/>
+      <c r="E221" s="49"/>
+      <c r="F221" s="49"/>
+      <c r="G221" s="49"/>
+      <c r="H221" s="49"/>
+      <c r="I221" s="49"/>
       <c r="M221" s="5"/>
     </row>
     <row r="222" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3916,36 +3906,36 @@
     </row>
     <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
-      <c r="B225" s="45" t="s">
+      <c r="B225" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C225" s="45"/>
-      <c r="D225" s="45"/>
-      <c r="E225" s="45"/>
-      <c r="F225" s="45"/>
-      <c r="G225" s="45"/>
-      <c r="H225" s="45"/>
-      <c r="I225" s="45"/>
+      <c r="C225" s="49"/>
+      <c r="D225" s="49"/>
+      <c r="E225" s="49"/>
+      <c r="F225" s="49"/>
+      <c r="G225" s="49"/>
+      <c r="H225" s="49"/>
+      <c r="I225" s="49"/>
     </row>
     <row r="226" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
-      <c r="B226" s="45"/>
-      <c r="C226" s="45"/>
-      <c r="D226" s="45"/>
-      <c r="E226" s="45"/>
-      <c r="F226" s="45"/>
-      <c r="G226" s="45"/>
-      <c r="H226" s="45"/>
-      <c r="I226" s="45"/>
+      <c r="B226" s="49"/>
+      <c r="C226" s="49"/>
+      <c r="D226" s="49"/>
+      <c r="E226" s="49"/>
+      <c r="F226" s="49"/>
+      <c r="G226" s="49"/>
+      <c r="H226" s="49"/>
+      <c r="I226" s="49"/>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
-      <c r="B227" s="50" t="s">
+      <c r="B227" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C227" s="51"/>
-      <c r="D227" s="51"/>
-      <c r="E227" s="52"/>
+      <c r="C227" s="64"/>
+      <c r="D227" s="64"/>
+      <c r="E227" s="65"/>
       <c r="F227" s="39" t="s">
         <v>96</v>
       </c>
@@ -3956,10 +3946,10 @@
     </row>
     <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
-      <c r="B228" s="53"/>
-      <c r="C228" s="54"/>
-      <c r="D228" s="54"/>
-      <c r="E228" s="55"/>
+      <c r="B228" s="58"/>
+      <c r="C228" s="59"/>
+      <c r="D228" s="59"/>
+      <c r="E228" s="60"/>
       <c r="F228" s="31"/>
       <c r="G228" s="31"/>
       <c r="H228" s="23"/>
@@ -3967,10 +3957,10 @@
     </row>
     <row r="229" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
-      <c r="B229" s="53"/>
-      <c r="C229" s="54"/>
-      <c r="D229" s="54"/>
-      <c r="E229" s="55"/>
+      <c r="B229" s="58"/>
+      <c r="C229" s="59"/>
+      <c r="D229" s="59"/>
+      <c r="E229" s="60"/>
       <c r="F229" s="31"/>
       <c r="G229" s="31"/>
       <c r="H229" s="23"/>
@@ -3978,10 +3968,10 @@
     </row>
     <row r="230" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
-      <c r="B230" s="53"/>
-      <c r="C230" s="54"/>
-      <c r="D230" s="54"/>
-      <c r="E230" s="55"/>
+      <c r="B230" s="58"/>
+      <c r="C230" s="59"/>
+      <c r="D230" s="59"/>
+      <c r="E230" s="60"/>
       <c r="F230" s="31"/>
       <c r="G230" s="31"/>
       <c r="H230" s="23"/>
@@ -3989,21 +3979,21 @@
     </row>
     <row r="231" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
-      <c r="B231" s="53"/>
-      <c r="C231" s="54"/>
-      <c r="D231" s="54"/>
-      <c r="E231" s="55"/>
+      <c r="B231" s="58"/>
+      <c r="C231" s="59"/>
+      <c r="D231" s="59"/>
+      <c r="E231" s="60"/>
       <c r="F231" s="31"/>
       <c r="G231" s="31"/>
       <c r="H231" s="23"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
-      <c r="C232" s="56" t="s">
+      <c r="C232" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D232" s="56"/>
-      <c r="E232" s="56"/>
+      <c r="D232" s="57"/>
+      <c r="E232" s="57"/>
       <c r="F232" s="40">
         <f>SUM(F229:F231)</f>
         <v>0</v>
@@ -4016,10 +4006,10 @@
     </row>
     <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C233" s="12"/>
       <c r="D233" s="12"/>
@@ -4030,38 +4020,38 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
-      <c r="B234" s="45" t="s">
+      <c r="B234" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C234" s="45"/>
-      <c r="D234" s="45"/>
-      <c r="E234" s="45"/>
-      <c r="F234" s="45"/>
-      <c r="G234" s="45"/>
-      <c r="H234" s="45"/>
-      <c r="I234" s="45"/>
+      <c r="C234" s="49"/>
+      <c r="D234" s="49"/>
+      <c r="E234" s="49"/>
+      <c r="F234" s="49"/>
+      <c r="G234" s="49"/>
+      <c r="H234" s="49"/>
+      <c r="I234" s="49"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="21"/>
-      <c r="B235" s="45"/>
-      <c r="C235" s="45"/>
-      <c r="D235" s="45"/>
-      <c r="E235" s="45"/>
-      <c r="F235" s="45"/>
-      <c r="G235" s="45"/>
-      <c r="H235" s="45"/>
-      <c r="I235" s="45"/>
+      <c r="B235" s="49"/>
+      <c r="C235" s="49"/>
+      <c r="D235" s="49"/>
+      <c r="E235" s="49"/>
+      <c r="F235" s="49"/>
+      <c r="G235" s="49"/>
+      <c r="H235" s="49"/>
+      <c r="I235" s="49"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="21"/>
-      <c r="B236" s="45"/>
-      <c r="C236" s="45"/>
-      <c r="D236" s="45"/>
-      <c r="E236" s="45"/>
-      <c r="F236" s="45"/>
-      <c r="G236" s="45"/>
-      <c r="H236" s="45"/>
-      <c r="I236" s="45"/>
+      <c r="B236" s="49"/>
+      <c r="C236" s="49"/>
+      <c r="D236" s="49"/>
+      <c r="E236" s="49"/>
+      <c r="F236" s="49"/>
+      <c r="G236" s="49"/>
+      <c r="H236" s="49"/>
+      <c r="I236" s="49"/>
     </row>
     <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
@@ -4082,7 +4072,7 @@
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D238" t="s">
         <v>10</v>
@@ -4098,7 +4088,7 @@
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D239" t="s">
         <v>10</v>
@@ -4107,7 +4097,7 @@
         <v>450</v>
       </c>
       <c r="F239" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H239" s="24"/>
     </row>
@@ -4119,10 +4109,10 @@
     </row>
     <row r="241" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E241" s="25"/>
       <c r="F241" s="25"/>
@@ -4131,7 +4121,7 @@
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C242" s="41"/>
       <c r="D242" s="41"/>
@@ -4141,7 +4131,7 @@
       <c r="H242" s="23"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="65"/>
+      <c r="A243" s="46"/>
       <c r="B243" s="17"/>
       <c r="C243" s="17"/>
       <c r="D243" s="17"/>
@@ -4259,11 +4249,11 @@
       <c r="B260" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F260" s="57">
+      <c r="F260" s="56">
         <f ca="1">TODAY()</f>
-        <v>45264</v>
-      </c>
-      <c r="G260" s="57"/>
+        <v>45272</v>
+      </c>
+      <c r="G260" s="56"/>
     </row>
     <row r="261" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="36" t="s">
@@ -4276,607 +4266,607 @@
       <c r="A262" s="8">
         <v>1</v>
       </c>
-      <c r="B262" s="44" t="s">
+      <c r="B262" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C262" s="44"/>
-      <c r="D262" s="44"/>
-      <c r="E262" s="44"/>
-      <c r="F262" s="44"/>
-      <c r="G262" s="44"/>
-      <c r="H262" s="44"/>
-      <c r="I262" s="44"/>
+      <c r="C262" s="55"/>
+      <c r="D262" s="55"/>
+      <c r="E262" s="55"/>
+      <c r="F262" s="55"/>
+      <c r="G262" s="55"/>
+      <c r="H262" s="55"/>
+      <c r="I262" s="55"/>
     </row>
     <row r="263" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
         <v>2</v>
       </c>
-      <c r="B263" s="44" t="s">
+      <c r="B263" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C263" s="44"/>
-      <c r="D263" s="44"/>
-      <c r="E263" s="44"/>
-      <c r="F263" s="44"/>
-      <c r="G263" s="44"/>
-      <c r="H263" s="44"/>
-      <c r="I263" s="44"/>
+      <c r="C263" s="55"/>
+      <c r="D263" s="55"/>
+      <c r="E263" s="55"/>
+      <c r="F263" s="55"/>
+      <c r="G263" s="55"/>
+      <c r="H263" s="55"/>
+      <c r="I263" s="55"/>
     </row>
     <row r="264" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
         <v>3</v>
       </c>
-      <c r="B264" s="44" t="s">
+      <c r="B264" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C264" s="44"/>
-      <c r="D264" s="44"/>
-      <c r="E264" s="44"/>
-      <c r="F264" s="44"/>
-      <c r="G264" s="44"/>
-      <c r="H264" s="44"/>
-      <c r="I264" s="44"/>
+      <c r="C264" s="55"/>
+      <c r="D264" s="55"/>
+      <c r="E264" s="55"/>
+      <c r="F264" s="55"/>
+      <c r="G264" s="55"/>
+      <c r="H264" s="55"/>
+      <c r="I264" s="55"/>
     </row>
     <row r="265" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
         <v>4</v>
       </c>
-      <c r="B265" s="44" t="s">
+      <c r="B265" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C265" s="44"/>
-      <c r="D265" s="44"/>
-      <c r="E265" s="44"/>
-      <c r="F265" s="44"/>
-      <c r="G265" s="44"/>
-      <c r="H265" s="44"/>
-      <c r="I265" s="44"/>
+      <c r="C265" s="55"/>
+      <c r="D265" s="55"/>
+      <c r="E265" s="55"/>
+      <c r="F265" s="55"/>
+      <c r="G265" s="55"/>
+      <c r="H265" s="55"/>
+      <c r="I265" s="55"/>
     </row>
     <row r="266" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
         <v>5</v>
       </c>
-      <c r="B266" s="44" t="s">
+      <c r="B266" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C266" s="44"/>
-      <c r="D266" s="44"/>
-      <c r="E266" s="44"/>
-      <c r="F266" s="44"/>
-      <c r="G266" s="44"/>
-      <c r="H266" s="44"/>
-      <c r="I266" s="44"/>
+      <c r="C266" s="55"/>
+      <c r="D266" s="55"/>
+      <c r="E266" s="55"/>
+      <c r="F266" s="55"/>
+      <c r="G266" s="55"/>
+      <c r="H266" s="55"/>
+      <c r="I266" s="55"/>
     </row>
     <row r="267" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="8"/>
-      <c r="B267" s="44" t="s">
+      <c r="B267" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C267" s="44"/>
-      <c r="D267" s="44"/>
-      <c r="E267" s="44"/>
-      <c r="F267" s="44"/>
-      <c r="G267" s="44"/>
-      <c r="H267" s="44"/>
-      <c r="I267" s="44"/>
+      <c r="C267" s="55"/>
+      <c r="D267" s="55"/>
+      <c r="E267" s="55"/>
+      <c r="F267" s="55"/>
+      <c r="G267" s="55"/>
+      <c r="H267" s="55"/>
+      <c r="I267" s="55"/>
     </row>
     <row r="268" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="8"/>
-      <c r="B268" s="44" t="s">
+      <c r="B268" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C268" s="44"/>
-      <c r="D268" s="44"/>
-      <c r="E268" s="44"/>
-      <c r="F268" s="44"/>
-      <c r="G268" s="44"/>
-      <c r="H268" s="44"/>
-      <c r="I268" s="44"/>
+      <c r="C268" s="55"/>
+      <c r="D268" s="55"/>
+      <c r="E268" s="55"/>
+      <c r="F268" s="55"/>
+      <c r="G268" s="55"/>
+      <c r="H268" s="55"/>
+      <c r="I268" s="55"/>
     </row>
     <row r="269" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="8"/>
-      <c r="B269" s="44" t="s">
+      <c r="B269" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C269" s="44"/>
-      <c r="D269" s="44"/>
-      <c r="E269" s="44"/>
-      <c r="F269" s="44"/>
-      <c r="G269" s="44"/>
-      <c r="H269" s="44"/>
-      <c r="I269" s="44"/>
+      <c r="C269" s="55"/>
+      <c r="D269" s="55"/>
+      <c r="E269" s="55"/>
+      <c r="F269" s="55"/>
+      <c r="G269" s="55"/>
+      <c r="H269" s="55"/>
+      <c r="I269" s="55"/>
     </row>
     <row r="270" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
         <v>6</v>
       </c>
-      <c r="B270" s="44" t="s">
+      <c r="B270" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C270" s="44"/>
-      <c r="D270" s="44"/>
-      <c r="E270" s="44"/>
-      <c r="F270" s="44"/>
-      <c r="G270" s="44"/>
-      <c r="H270" s="44"/>
-      <c r="I270" s="44"/>
+      <c r="C270" s="55"/>
+      <c r="D270" s="55"/>
+      <c r="E270" s="55"/>
+      <c r="F270" s="55"/>
+      <c r="G270" s="55"/>
+      <c r="H270" s="55"/>
+      <c r="I270" s="55"/>
     </row>
     <row r="271" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
-      <c r="B271" s="44" t="s">
+      <c r="B271" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C271" s="44"/>
-      <c r="D271" s="44"/>
-      <c r="E271" s="44"/>
-      <c r="F271" s="44"/>
-      <c r="G271" s="44"/>
-      <c r="H271" s="44"/>
-      <c r="I271" s="44"/>
+      <c r="C271" s="55"/>
+      <c r="D271" s="55"/>
+      <c r="E271" s="55"/>
+      <c r="F271" s="55"/>
+      <c r="G271" s="55"/>
+      <c r="H271" s="55"/>
+      <c r="I271" s="55"/>
     </row>
     <row r="272" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="8"/>
-      <c r="B272" s="44" t="s">
+      <c r="B272" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C272" s="44"/>
-      <c r="D272" s="44"/>
-      <c r="E272" s="44"/>
-      <c r="F272" s="44"/>
-      <c r="G272" s="44"/>
-      <c r="H272" s="44"/>
-      <c r="I272" s="44"/>
+      <c r="C272" s="55"/>
+      <c r="D272" s="55"/>
+      <c r="E272" s="55"/>
+      <c r="F272" s="55"/>
+      <c r="G272" s="55"/>
+      <c r="H272" s="55"/>
+      <c r="I272" s="55"/>
     </row>
     <row r="273" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>7</v>
       </c>
-      <c r="B273" s="44" t="s">
+      <c r="B273" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C273" s="44"/>
-      <c r="D273" s="44"/>
-      <c r="E273" s="44"/>
-      <c r="F273" s="44"/>
-      <c r="G273" s="44"/>
-      <c r="H273" s="44"/>
-      <c r="I273" s="44"/>
+      <c r="C273" s="55"/>
+      <c r="D273" s="55"/>
+      <c r="E273" s="55"/>
+      <c r="F273" s="55"/>
+      <c r="G273" s="55"/>
+      <c r="H273" s="55"/>
+      <c r="I273" s="55"/>
     </row>
     <row r="274" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>8</v>
       </c>
-      <c r="B274" s="44" t="s">
+      <c r="B274" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C274" s="44"/>
-      <c r="D274" s="44"/>
-      <c r="E274" s="44"/>
-      <c r="F274" s="44"/>
-      <c r="G274" s="44"/>
-      <c r="H274" s="44"/>
-      <c r="I274" s="44"/>
+      <c r="C274" s="55"/>
+      <c r="D274" s="55"/>
+      <c r="E274" s="55"/>
+      <c r="F274" s="55"/>
+      <c r="G274" s="55"/>
+      <c r="H274" s="55"/>
+      <c r="I274" s="55"/>
     </row>
     <row r="275" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="8"/>
-      <c r="B275" s="44" t="s">
+      <c r="B275" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C275" s="44"/>
-      <c r="D275" s="44"/>
-      <c r="E275" s="44"/>
-      <c r="F275" s="44"/>
-      <c r="G275" s="44"/>
-      <c r="H275" s="44"/>
-      <c r="I275" s="44"/>
+      <c r="C275" s="55"/>
+      <c r="D275" s="55"/>
+      <c r="E275" s="55"/>
+      <c r="F275" s="55"/>
+      <c r="G275" s="55"/>
+      <c r="H275" s="55"/>
+      <c r="I275" s="55"/>
     </row>
     <row r="276" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="8"/>
-      <c r="B276" s="44" t="s">
+      <c r="B276" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C276" s="44"/>
-      <c r="D276" s="44"/>
-      <c r="E276" s="44"/>
-      <c r="F276" s="44"/>
-      <c r="G276" s="44"/>
-      <c r="H276" s="44"/>
-      <c r="I276" s="44"/>
+      <c r="C276" s="55"/>
+      <c r="D276" s="55"/>
+      <c r="E276" s="55"/>
+      <c r="F276" s="55"/>
+      <c r="G276" s="55"/>
+      <c r="H276" s="55"/>
+      <c r="I276" s="55"/>
     </row>
     <row r="277" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="8"/>
-      <c r="B277" s="44" t="s">
+      <c r="B277" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C277" s="44"/>
-      <c r="D277" s="44"/>
-      <c r="E277" s="44"/>
-      <c r="F277" s="44"/>
-      <c r="G277" s="44"/>
-      <c r="H277" s="44"/>
-      <c r="I277" s="44"/>
+      <c r="C277" s="55"/>
+      <c r="D277" s="55"/>
+      <c r="E277" s="55"/>
+      <c r="F277" s="55"/>
+      <c r="G277" s="55"/>
+      <c r="H277" s="55"/>
+      <c r="I277" s="55"/>
     </row>
     <row r="278" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="8"/>
-      <c r="B278" s="44" t="s">
+      <c r="B278" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C278" s="44"/>
-      <c r="D278" s="44"/>
-      <c r="E278" s="44"/>
-      <c r="F278" s="44"/>
-      <c r="G278" s="44"/>
-      <c r="H278" s="44"/>
-      <c r="I278" s="44"/>
+      <c r="C278" s="55"/>
+      <c r="D278" s="55"/>
+      <c r="E278" s="55"/>
+      <c r="F278" s="55"/>
+      <c r="G278" s="55"/>
+      <c r="H278" s="55"/>
+      <c r="I278" s="55"/>
     </row>
     <row r="279" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="8"/>
-      <c r="B279" s="44" t="s">
+      <c r="B279" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C279" s="44"/>
-      <c r="D279" s="44"/>
-      <c r="E279" s="44"/>
-      <c r="F279" s="44"/>
-      <c r="G279" s="44"/>
-      <c r="H279" s="44"/>
-      <c r="I279" s="44"/>
+      <c r="C279" s="55"/>
+      <c r="D279" s="55"/>
+      <c r="E279" s="55"/>
+      <c r="F279" s="55"/>
+      <c r="G279" s="55"/>
+      <c r="H279" s="55"/>
+      <c r="I279" s="55"/>
     </row>
     <row r="280" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="8"/>
-      <c r="B280" s="44" t="s">
+      <c r="B280" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C280" s="44"/>
-      <c r="D280" s="44"/>
-      <c r="E280" s="44"/>
-      <c r="F280" s="44"/>
-      <c r="G280" s="44"/>
-      <c r="H280" s="44"/>
-      <c r="I280" s="44"/>
+      <c r="C280" s="55"/>
+      <c r="D280" s="55"/>
+      <c r="E280" s="55"/>
+      <c r="F280" s="55"/>
+      <c r="G280" s="55"/>
+      <c r="H280" s="55"/>
+      <c r="I280" s="55"/>
     </row>
     <row r="281" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>9</v>
       </c>
-      <c r="B281" s="44" t="s">
+      <c r="B281" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C281" s="44"/>
-      <c r="D281" s="44"/>
-      <c r="E281" s="44"/>
-      <c r="F281" s="44"/>
-      <c r="G281" s="44"/>
-      <c r="H281" s="44"/>
-      <c r="I281" s="44"/>
+      <c r="C281" s="55"/>
+      <c r="D281" s="55"/>
+      <c r="E281" s="55"/>
+      <c r="F281" s="55"/>
+      <c r="G281" s="55"/>
+      <c r="H281" s="55"/>
+      <c r="I281" s="55"/>
     </row>
     <row r="282" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
         <v>10</v>
       </c>
-      <c r="B282" s="44" t="s">
+      <c r="B282" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C282" s="44"/>
-      <c r="D282" s="44"/>
-      <c r="E282" s="44"/>
-      <c r="F282" s="44"/>
-      <c r="G282" s="44"/>
-      <c r="H282" s="44"/>
-      <c r="I282" s="44"/>
+      <c r="C282" s="55"/>
+      <c r="D282" s="55"/>
+      <c r="E282" s="55"/>
+      <c r="F282" s="55"/>
+      <c r="G282" s="55"/>
+      <c r="H282" s="55"/>
+      <c r="I282" s="55"/>
     </row>
     <row r="283" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="8"/>
-      <c r="B283" s="44" t="s">
+      <c r="B283" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C283" s="44"/>
-      <c r="D283" s="44"/>
-      <c r="E283" s="44"/>
-      <c r="F283" s="44"/>
-      <c r="G283" s="44"/>
-      <c r="H283" s="44"/>
-      <c r="I283" s="44"/>
+      <c r="C283" s="55"/>
+      <c r="D283" s="55"/>
+      <c r="E283" s="55"/>
+      <c r="F283" s="55"/>
+      <c r="G283" s="55"/>
+      <c r="H283" s="55"/>
+      <c r="I283" s="55"/>
     </row>
     <row r="284" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="8"/>
-      <c r="B284" s="44" t="s">
+      <c r="B284" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="C284" s="44"/>
-      <c r="D284" s="44"/>
-      <c r="E284" s="44"/>
-      <c r="F284" s="44"/>
-      <c r="G284" s="44"/>
-      <c r="H284" s="44"/>
-      <c r="I284" s="44"/>
+      <c r="C284" s="55"/>
+      <c r="D284" s="55"/>
+      <c r="E284" s="55"/>
+      <c r="F284" s="55"/>
+      <c r="G284" s="55"/>
+      <c r="H284" s="55"/>
+      <c r="I284" s="55"/>
     </row>
     <row r="285" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="8"/>
-      <c r="B285" s="44" t="s">
+      <c r="B285" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C285" s="44"/>
-      <c r="D285" s="44"/>
-      <c r="E285" s="44"/>
-      <c r="F285" s="44"/>
-      <c r="G285" s="44"/>
-      <c r="H285" s="44"/>
-      <c r="I285" s="44"/>
+      <c r="C285" s="55"/>
+      <c r="D285" s="55"/>
+      <c r="E285" s="55"/>
+      <c r="F285" s="55"/>
+      <c r="G285" s="55"/>
+      <c r="H285" s="55"/>
+      <c r="I285" s="55"/>
     </row>
     <row r="286" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="8"/>
-      <c r="B286" s="44" t="s">
+      <c r="B286" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C286" s="44"/>
-      <c r="D286" s="44"/>
-      <c r="E286" s="44"/>
-      <c r="F286" s="44"/>
-      <c r="G286" s="44"/>
-      <c r="H286" s="44"/>
-      <c r="I286" s="44"/>
+      <c r="C286" s="55"/>
+      <c r="D286" s="55"/>
+      <c r="E286" s="55"/>
+      <c r="F286" s="55"/>
+      <c r="G286" s="55"/>
+      <c r="H286" s="55"/>
+      <c r="I286" s="55"/>
     </row>
     <row r="287" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>11</v>
       </c>
-      <c r="B287" s="44" t="s">
+      <c r="B287" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C287" s="44"/>
-      <c r="D287" s="44"/>
-      <c r="E287" s="44"/>
-      <c r="F287" s="44"/>
-      <c r="G287" s="44"/>
-      <c r="H287" s="44"/>
-      <c r="I287" s="44"/>
+      <c r="C287" s="55"/>
+      <c r="D287" s="55"/>
+      <c r="E287" s="55"/>
+      <c r="F287" s="55"/>
+      <c r="G287" s="55"/>
+      <c r="H287" s="55"/>
+      <c r="I287" s="55"/>
     </row>
     <row r="288" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="8"/>
-      <c r="B288" s="44" t="s">
+      <c r="B288" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C288" s="44"/>
-      <c r="D288" s="44"/>
-      <c r="E288" s="44"/>
-      <c r="F288" s="44"/>
-      <c r="G288" s="44"/>
-      <c r="H288" s="44"/>
-      <c r="I288" s="44"/>
+      <c r="C288" s="55"/>
+      <c r="D288" s="55"/>
+      <c r="E288" s="55"/>
+      <c r="F288" s="55"/>
+      <c r="G288" s="55"/>
+      <c r="H288" s="55"/>
+      <c r="I288" s="55"/>
     </row>
     <row r="289" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="8"/>
-      <c r="B289" s="44" t="s">
+      <c r="B289" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C289" s="44"/>
-      <c r="D289" s="44"/>
-      <c r="E289" s="44"/>
-      <c r="F289" s="44"/>
-      <c r="G289" s="44"/>
-      <c r="H289" s="44"/>
-      <c r="I289" s="44"/>
+      <c r="C289" s="55"/>
+      <c r="D289" s="55"/>
+      <c r="E289" s="55"/>
+      <c r="F289" s="55"/>
+      <c r="G289" s="55"/>
+      <c r="H289" s="55"/>
+      <c r="I289" s="55"/>
     </row>
     <row r="290" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
         <v>12</v>
       </c>
-      <c r="B290" s="44" t="s">
+      <c r="B290" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C290" s="44"/>
-      <c r="D290" s="44"/>
-      <c r="E290" s="44"/>
-      <c r="F290" s="44"/>
-      <c r="G290" s="44"/>
-      <c r="H290" s="44"/>
-      <c r="I290" s="44"/>
+      <c r="C290" s="55"/>
+      <c r="D290" s="55"/>
+      <c r="E290" s="55"/>
+      <c r="F290" s="55"/>
+      <c r="G290" s="55"/>
+      <c r="H290" s="55"/>
+      <c r="I290" s="55"/>
     </row>
     <row r="291" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="8"/>
-      <c r="B291" s="44" t="s">
+      <c r="B291" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="C291" s="44"/>
-      <c r="D291" s="44"/>
-      <c r="E291" s="44"/>
-      <c r="F291" s="44"/>
-      <c r="G291" s="44"/>
-      <c r="H291" s="44"/>
-      <c r="I291" s="44"/>
+      <c r="C291" s="55"/>
+      <c r="D291" s="55"/>
+      <c r="E291" s="55"/>
+      <c r="F291" s="55"/>
+      <c r="G291" s="55"/>
+      <c r="H291" s="55"/>
+      <c r="I291" s="55"/>
     </row>
     <row r="292" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="8"/>
-      <c r="B292" s="44" t="s">
+      <c r="B292" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C292" s="44"/>
-      <c r="D292" s="44"/>
-      <c r="E292" s="44"/>
-      <c r="F292" s="44"/>
-      <c r="G292" s="44"/>
-      <c r="H292" s="44"/>
-      <c r="I292" s="44"/>
+      <c r="C292" s="55"/>
+      <c r="D292" s="55"/>
+      <c r="E292" s="55"/>
+      <c r="F292" s="55"/>
+      <c r="G292" s="55"/>
+      <c r="H292" s="55"/>
+      <c r="I292" s="55"/>
     </row>
     <row r="293" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="8"/>
-      <c r="B293" s="44" t="s">
+      <c r="B293" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C293" s="44"/>
-      <c r="D293" s="44"/>
-      <c r="E293" s="44"/>
-      <c r="F293" s="44"/>
-      <c r="G293" s="44"/>
-      <c r="H293" s="44"/>
-      <c r="I293" s="44"/>
+      <c r="C293" s="55"/>
+      <c r="D293" s="55"/>
+      <c r="E293" s="55"/>
+      <c r="F293" s="55"/>
+      <c r="G293" s="55"/>
+      <c r="H293" s="55"/>
+      <c r="I293" s="55"/>
     </row>
     <row r="294" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="8"/>
-      <c r="B294" s="44" t="s">
+      <c r="B294" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C294" s="44"/>
-      <c r="D294" s="44"/>
-      <c r="E294" s="44"/>
-      <c r="F294" s="44"/>
-      <c r="G294" s="44"/>
-      <c r="H294" s="44"/>
-      <c r="I294" s="44"/>
+      <c r="C294" s="55"/>
+      <c r="D294" s="55"/>
+      <c r="E294" s="55"/>
+      <c r="F294" s="55"/>
+      <c r="G294" s="55"/>
+      <c r="H294" s="55"/>
+      <c r="I294" s="55"/>
     </row>
     <row r="295" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>13</v>
       </c>
-      <c r="B295" s="44" t="s">
+      <c r="B295" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C295" s="44"/>
-      <c r="D295" s="44"/>
-      <c r="E295" s="44"/>
-      <c r="F295" s="44"/>
-      <c r="G295" s="44"/>
-      <c r="H295" s="44"/>
-      <c r="I295" s="44"/>
+      <c r="C295" s="55"/>
+      <c r="D295" s="55"/>
+      <c r="E295" s="55"/>
+      <c r="F295" s="55"/>
+      <c r="G295" s="55"/>
+      <c r="H295" s="55"/>
+      <c r="I295" s="55"/>
     </row>
     <row r="296" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="8"/>
-      <c r="B296" s="44" t="s">
+      <c r="B296" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C296" s="44"/>
-      <c r="D296" s="44"/>
-      <c r="E296" s="44"/>
-      <c r="F296" s="44"/>
-      <c r="G296" s="44"/>
-      <c r="H296" s="44"/>
-      <c r="I296" s="44"/>
+      <c r="C296" s="55"/>
+      <c r="D296" s="55"/>
+      <c r="E296" s="55"/>
+      <c r="F296" s="55"/>
+      <c r="G296" s="55"/>
+      <c r="H296" s="55"/>
+      <c r="I296" s="55"/>
     </row>
     <row r="297" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="8"/>
-      <c r="B297" s="44" t="s">
+      <c r="B297" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C297" s="44"/>
-      <c r="D297" s="44"/>
-      <c r="E297" s="44"/>
-      <c r="F297" s="44"/>
-      <c r="G297" s="44"/>
-      <c r="H297" s="44"/>
-      <c r="I297" s="44"/>
+      <c r="C297" s="55"/>
+      <c r="D297" s="55"/>
+      <c r="E297" s="55"/>
+      <c r="F297" s="55"/>
+      <c r="G297" s="55"/>
+      <c r="H297" s="55"/>
+      <c r="I297" s="55"/>
     </row>
     <row r="298" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
         <v>14</v>
       </c>
-      <c r="B298" s="44" t="s">
+      <c r="B298" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C298" s="44"/>
-      <c r="D298" s="44"/>
-      <c r="E298" s="44"/>
-      <c r="F298" s="44"/>
-      <c r="G298" s="44"/>
-      <c r="H298" s="44"/>
-      <c r="I298" s="44"/>
+      <c r="C298" s="55"/>
+      <c r="D298" s="55"/>
+      <c r="E298" s="55"/>
+      <c r="F298" s="55"/>
+      <c r="G298" s="55"/>
+      <c r="H298" s="55"/>
+      <c r="I298" s="55"/>
     </row>
     <row r="299" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="8"/>
-      <c r="B299" s="44" t="s">
+      <c r="B299" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C299" s="44"/>
-      <c r="D299" s="44"/>
-      <c r="E299" s="44"/>
-      <c r="F299" s="44"/>
-      <c r="G299" s="44"/>
-      <c r="H299" s="44"/>
-      <c r="I299" s="44"/>
+      <c r="C299" s="55"/>
+      <c r="D299" s="55"/>
+      <c r="E299" s="55"/>
+      <c r="F299" s="55"/>
+      <c r="G299" s="55"/>
+      <c r="H299" s="55"/>
+      <c r="I299" s="55"/>
     </row>
     <row r="300" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="8"/>
-      <c r="B300" s="44" t="s">
+      <c r="B300" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C300" s="44"/>
-      <c r="D300" s="44"/>
-      <c r="E300" s="44"/>
-      <c r="F300" s="44"/>
-      <c r="G300" s="44"/>
-      <c r="H300" s="44"/>
-      <c r="I300" s="44"/>
+      <c r="C300" s="55"/>
+      <c r="D300" s="55"/>
+      <c r="E300" s="55"/>
+      <c r="F300" s="55"/>
+      <c r="G300" s="55"/>
+      <c r="H300" s="55"/>
+      <c r="I300" s="55"/>
     </row>
     <row r="301" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="8"/>
-      <c r="B301" s="44" t="s">
+      <c r="B301" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="C301" s="44"/>
-      <c r="D301" s="44"/>
-      <c r="E301" s="44"/>
-      <c r="F301" s="44"/>
-      <c r="G301" s="44"/>
-      <c r="H301" s="44"/>
-      <c r="I301" s="44"/>
+      <c r="C301" s="55"/>
+      <c r="D301" s="55"/>
+      <c r="E301" s="55"/>
+      <c r="F301" s="55"/>
+      <c r="G301" s="55"/>
+      <c r="H301" s="55"/>
+      <c r="I301" s="55"/>
     </row>
     <row r="302" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="8"/>
-      <c r="B302" s="44" t="s">
+      <c r="B302" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="C302" s="44"/>
-      <c r="D302" s="44"/>
-      <c r="E302" s="44"/>
-      <c r="F302" s="44"/>
-      <c r="G302" s="44"/>
-      <c r="H302" s="44"/>
-      <c r="I302" s="44"/>
+      <c r="C302" s="55"/>
+      <c r="D302" s="55"/>
+      <c r="E302" s="55"/>
+      <c r="F302" s="55"/>
+      <c r="G302" s="55"/>
+      <c r="H302" s="55"/>
+      <c r="I302" s="55"/>
     </row>
     <row r="303" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
         <v>15</v>
       </c>
-      <c r="B303" s="44" t="s">
+      <c r="B303" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C303" s="44"/>
-      <c r="D303" s="44"/>
-      <c r="E303" s="44"/>
-      <c r="F303" s="44"/>
-      <c r="G303" s="44"/>
-      <c r="H303" s="44"/>
-      <c r="I303" s="44"/>
+      <c r="C303" s="55"/>
+      <c r="D303" s="55"/>
+      <c r="E303" s="55"/>
+      <c r="F303" s="55"/>
+      <c r="G303" s="55"/>
+      <c r="H303" s="55"/>
+      <c r="I303" s="55"/>
     </row>
     <row r="304" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
         <v>16</v>
       </c>
-      <c r="B304" s="44" t="s">
+      <c r="B304" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C304" s="44"/>
-      <c r="D304" s="44"/>
-      <c r="E304" s="44"/>
-      <c r="F304" s="44"/>
-      <c r="G304" s="44"/>
-      <c r="H304" s="44"/>
-      <c r="I304" s="44"/>
+      <c r="C304" s="55"/>
+      <c r="D304" s="55"/>
+      <c r="E304" s="55"/>
+      <c r="F304" s="55"/>
+      <c r="G304" s="55"/>
+      <c r="H304" s="55"/>
+      <c r="I304" s="55"/>
     </row>
     <row r="305" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
         <v>17</v>
       </c>
-      <c r="B305" s="44" t="s">
+      <c r="B305" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C305" s="44"/>
-      <c r="D305" s="44"/>
-      <c r="E305" s="44"/>
-      <c r="F305" s="44"/>
-      <c r="G305" s="44"/>
-      <c r="H305" s="44"/>
-      <c r="I305" s="44"/>
+      <c r="C305" s="55"/>
+      <c r="D305" s="55"/>
+      <c r="E305" s="55"/>
+      <c r="F305" s="55"/>
+      <c r="G305" s="55"/>
+      <c r="H305" s="55"/>
+      <c r="I305" s="55"/>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="27"/>
@@ -4894,28 +4884,56 @@
       <c r="A310" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="B193:I193"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B184:I185"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B178:I181"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="Q9:X9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A11:I14"/>
-    <mergeCell ref="M11:T14"/>
-    <mergeCell ref="H2:I2"/>
+  <mergeCells count="85">
+    <mergeCell ref="B305:I305"/>
+    <mergeCell ref="B218:I221"/>
+    <mergeCell ref="B206:I206"/>
+    <mergeCell ref="B225:I226"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="B211:I211"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="B229:E229"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="B262:I262"/>
+    <mergeCell ref="B263:I263"/>
+    <mergeCell ref="B264:I264"/>
+    <mergeCell ref="B265:I265"/>
+    <mergeCell ref="C232:E232"/>
+    <mergeCell ref="B231:E231"/>
+    <mergeCell ref="B266:I266"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="B234:I236"/>
+    <mergeCell ref="B280:I280"/>
+    <mergeCell ref="B267:I267"/>
+    <mergeCell ref="B268:I268"/>
+    <mergeCell ref="B269:I269"/>
+    <mergeCell ref="B270:I270"/>
+    <mergeCell ref="B276:I276"/>
+    <mergeCell ref="B271:I271"/>
+    <mergeCell ref="B272:I272"/>
+    <mergeCell ref="B273:I273"/>
+    <mergeCell ref="B274:I274"/>
+    <mergeCell ref="B275:I275"/>
+    <mergeCell ref="B277:I277"/>
+    <mergeCell ref="B278:I278"/>
+    <mergeCell ref="B292:I292"/>
+    <mergeCell ref="B281:I281"/>
+    <mergeCell ref="B282:I282"/>
+    <mergeCell ref="B283:I283"/>
+    <mergeCell ref="B284:I284"/>
+    <mergeCell ref="B285:I285"/>
+    <mergeCell ref="B286:I286"/>
+    <mergeCell ref="B287:I287"/>
+    <mergeCell ref="B288:I288"/>
+    <mergeCell ref="B289:I289"/>
+    <mergeCell ref="B290:I290"/>
+    <mergeCell ref="B291:I291"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A8:I9"/>
     <mergeCell ref="A6:I6"/>
@@ -4932,55 +4950,26 @@
     <mergeCell ref="B302:I302"/>
     <mergeCell ref="B303:I303"/>
     <mergeCell ref="B279:I279"/>
-    <mergeCell ref="B292:I292"/>
-    <mergeCell ref="B281:I281"/>
-    <mergeCell ref="B282:I282"/>
-    <mergeCell ref="B283:I283"/>
-    <mergeCell ref="B284:I284"/>
-    <mergeCell ref="B285:I285"/>
-    <mergeCell ref="B286:I286"/>
-    <mergeCell ref="B287:I287"/>
-    <mergeCell ref="B288:I288"/>
-    <mergeCell ref="B289:I289"/>
-    <mergeCell ref="B290:I290"/>
-    <mergeCell ref="B291:I291"/>
-    <mergeCell ref="B266:I266"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="B234:I236"/>
-    <mergeCell ref="B280:I280"/>
-    <mergeCell ref="B267:I267"/>
-    <mergeCell ref="B268:I268"/>
-    <mergeCell ref="B269:I269"/>
-    <mergeCell ref="B270:I270"/>
-    <mergeCell ref="B276:I276"/>
-    <mergeCell ref="B271:I271"/>
-    <mergeCell ref="B272:I272"/>
-    <mergeCell ref="B273:I273"/>
-    <mergeCell ref="B274:I274"/>
-    <mergeCell ref="B275:I275"/>
-    <mergeCell ref="B277:I277"/>
-    <mergeCell ref="B278:I278"/>
-    <mergeCell ref="B263:I263"/>
-    <mergeCell ref="B264:I264"/>
-    <mergeCell ref="B265:I265"/>
-    <mergeCell ref="C232:E232"/>
-    <mergeCell ref="B231:E231"/>
-    <mergeCell ref="B305:I305"/>
-    <mergeCell ref="B218:I221"/>
-    <mergeCell ref="B206:I206"/>
-    <mergeCell ref="B225:I226"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="B211:I211"/>
-    <mergeCell ref="B227:E227"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="B229:E229"/>
-    <mergeCell ref="B230:E230"/>
-    <mergeCell ref="B262:I262"/>
+    <mergeCell ref="Q9:X9"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A11:I14"/>
+    <mergeCell ref="M11:T14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B193:I193"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B184:I185"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B178:I181"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">

--- a/app/resource/xlsx/fee_proposal_template_3.xlsx
+++ b/app/resource/xlsx/fee_proposal_template_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9980F110-1334-4CC2-BC32-5C9DA2ABBC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5164D6-CCA8-482C-95D6-D7D9C6FA69DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="ClientCompany">#REF!</definedName>
     <definedName name="MainContactAddress">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Fee Proposal'!$A$1:$I$309</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Fee Proposal'!$A$1:$I$308</definedName>
     <definedName name="ProjectName">#REF!</definedName>
     <definedName name="ProjectType">#REF!</definedName>
     <definedName name="QuotationNumber">#REF!</definedName>
@@ -402,9 +402,6 @@
     <t>Note: We also offer optional installation service. Please contact us for further discussion.</t>
   </si>
   <si>
-    <t>Receive base building drawings detailing information of air conditioning and ventilation provision</t>
-  </si>
-  <si>
     <t>6.2</t>
   </si>
   <si>
@@ -488,9 +485,6 @@
     <t>Payment is due within 14 days of the date of invoice.</t>
   </si>
   <si>
-    <t>Identify scope of work, air conditioning and ventilation requirements.</t>
-  </si>
-  <si>
     <t>Confirm specific requirements from the base building and other stakeholders</t>
   </si>
   <si>
@@ -498,6 +492,12 @@
   </si>
   <si>
     <t>ATT:</t>
+  </si>
+  <si>
+    <t>Identify scope of work, confirm what items are needed.</t>
+  </si>
+  <si>
+    <t>Receive base building drawings detailing information of service provision</t>
   </si>
 </sst>
 </file>
@@ -848,11 +848,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -862,21 +877,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -927,7 +927,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>323023</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>16567</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="737151" cy="746051"/>
@@ -1320,9 +1320,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96441BBC-02AB-4FA6-8E6A-4E6138E77562}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:X310"/>
+  <dimension ref="A1:X309"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A223" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A232" sqref="A232:XFD232"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1338,7 +1340,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>108</v>
@@ -1477,7 +1479,7 @@
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
@@ -1581,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
@@ -1599,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
@@ -1662,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
@@ -1682,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
@@ -1698,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
@@ -1890,7 +1892,7 @@
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1900,7 +1902,7 @@
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2008,7 +2010,7 @@
       <c r="I52" s="43"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="21"/>
       <c r="G53" s="1"/>
       <c r="I53" s="1"/>
     </row>
@@ -2017,10 +2019,7 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="str">
-        <f t="shared" ref="A55:A66" si="0">IF(B55&lt;&gt;"","•","")</f>
-        <v/>
-      </c>
+      <c r="A55" s="21"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -2030,139 +2029,106 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A56" s="21"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A57" s="21"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A58" s="21"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A59" s="21"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A60" s="21"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A61" s="21"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A62" s="21"/>
       <c r="C62" s="26"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A63" s="21"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A64" s="21"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A65" s="21"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A66" s="21"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="21"/>
       <c r="C67" s="3"/>
       <c r="E67" s="8"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
       <c r="I67" s="43"/>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2170,55 +2136,43 @@
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="str">
-        <f t="shared" ref="A69:A74" si="1">IF(B69&lt;&gt;"","•","")</f>
-        <v/>
-      </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
+      <c r="A69" s="21"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="21"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="21"/>
       <c r="C71" s="3"/>
       <c r="I71" s="43"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="A72" s="21"/>
       <c r="C72" s="3"/>
       <c r="I72" s="43"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="A73" s="21"/>
       <c r="C73" s="3"/>
       <c r="I73" s="43"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="A74" s="21"/>
       <c r="C74" s="3"/>
       <c r="I74" s="43"/>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="21"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2235,10 +2189,7 @@
       <c r="Q76" s="1"/>
     </row>
     <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="str">
-        <f t="shared" ref="A77:A81" si="2">IF(B77&lt;&gt;"","•","")</f>
-        <v/>
-      </c>
+      <c r="A77" s="21"/>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
@@ -2248,10 +2199,7 @@
       <c r="I77" s="20"/>
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="A78" s="21"/>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
@@ -2261,10 +2209,7 @@
       <c r="I78" s="20"/>
     </row>
     <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="A79" s="21"/>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
@@ -2274,7 +2219,7 @@
       <c r="I79" s="20"/>
     </row>
     <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" s="21"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
@@ -2284,10 +2229,7 @@
       <c r="I80" s="20"/>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="A81" s="21"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
@@ -2297,7 +2239,7 @@
       <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="A82" s="21"/>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
@@ -2307,7 +2249,7 @@
       <c r="I82" s="20"/>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="A83" s="21"/>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
@@ -2317,7 +2259,7 @@
       <c r="I83" s="20"/>
     </row>
     <row r="84" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="21"/>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
@@ -2327,7 +2269,7 @@
       <c r="I84" s="20"/>
     </row>
     <row r="85" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" s="21"/>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
@@ -2337,7 +2279,7 @@
       <c r="I85" s="20"/>
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+      <c r="A86" s="21"/>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
@@ -2347,7 +2289,7 @@
       <c r="I86" s="20"/>
     </row>
     <row r="87" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="A87" s="21"/>
       <c r="C87" s="20"/>
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
@@ -2357,7 +2299,7 @@
       <c r="I87" s="20"/>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="21"/>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
@@ -2367,7 +2309,7 @@
       <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="A89" s="21"/>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
@@ -2377,7 +2319,7 @@
       <c r="I89" s="20"/>
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" s="21"/>
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
@@ -2387,7 +2329,7 @@
       <c r="I90" s="20"/>
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" s="21"/>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
@@ -2397,7 +2339,7 @@
       <c r="I91" s="20"/>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="21"/>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
@@ -2407,7 +2349,7 @@
       <c r="I92" s="20"/>
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="21"/>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
@@ -2417,7 +2359,7 @@
       <c r="I93" s="20"/>
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" s="21"/>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
@@ -2427,7 +2369,7 @@
       <c r="I94" s="20"/>
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+      <c r="A95" s="21"/>
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
@@ -2437,7 +2379,7 @@
       <c r="I95" s="20"/>
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+      <c r="A96" s="21"/>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
@@ -2447,7 +2389,7 @@
       <c r="I96" s="20"/>
     </row>
     <row r="97" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
+      <c r="A97" s="21"/>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
@@ -2457,7 +2399,7 @@
       <c r="I97" s="20"/>
     </row>
     <row r="98" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
+      <c r="A98" s="21"/>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
@@ -2467,7 +2409,7 @@
       <c r="I98" s="20"/>
     </row>
     <row r="99" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
+      <c r="A99" s="21"/>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
@@ -2477,7 +2419,7 @@
       <c r="I99" s="20"/>
     </row>
     <row r="100" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
+      <c r="A100" s="21"/>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
@@ -2487,7 +2429,7 @@
       <c r="I100" s="20"/>
     </row>
     <row r="101" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
+      <c r="A101" s="21"/>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
@@ -2497,7 +2439,7 @@
       <c r="I101" s="20"/>
     </row>
     <row r="102" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
+      <c r="A102" s="21"/>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
@@ -2507,7 +2449,7 @@
       <c r="I102" s="20"/>
     </row>
     <row r="103" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
+      <c r="A103" s="21"/>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
@@ -2517,7 +2459,7 @@
       <c r="I103" s="20"/>
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
+      <c r="A104" s="21"/>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
@@ -2527,7 +2469,7 @@
       <c r="I104" s="20"/>
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
+      <c r="A105" s="21"/>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
@@ -2537,7 +2479,7 @@
       <c r="I105" s="20"/>
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
+      <c r="A106" s="21"/>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
@@ -2547,7 +2489,7 @@
       <c r="I106" s="20"/>
     </row>
     <row r="107" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
+      <c r="A107" s="21"/>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
@@ -2557,7 +2499,7 @@
       <c r="I107" s="20"/>
     </row>
     <row r="108" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
+      <c r="A108" s="21"/>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
@@ -2567,7 +2509,7 @@
       <c r="I108" s="20"/>
     </row>
     <row r="109" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
+      <c r="A109" s="21"/>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
       <c r="E109" s="20"/>
@@ -2577,7 +2519,7 @@
       <c r="I109" s="20"/>
     </row>
     <row r="110" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
+      <c r="A110" s="21"/>
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
       <c r="E110" s="20"/>
@@ -2587,7 +2529,7 @@
       <c r="I110" s="20"/>
     </row>
     <row r="111" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
+      <c r="A111" s="21"/>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
@@ -2597,7 +2539,7 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
+      <c r="A112" s="21"/>
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
@@ -2607,7 +2549,7 @@
       <c r="I112" s="20"/>
     </row>
     <row r="113" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
+      <c r="A113" s="21"/>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
@@ -2617,7 +2559,7 @@
       <c r="I113" s="20"/>
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
+      <c r="A114" s="21"/>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
@@ -2627,7 +2569,7 @@
       <c r="I114" s="20"/>
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
+      <c r="A115" s="21"/>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
@@ -2637,7 +2579,7 @@
       <c r="I115" s="20"/>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
+      <c r="A116" s="21"/>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
@@ -2647,7 +2589,7 @@
       <c r="I116" s="20"/>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
+      <c r="A117" s="21"/>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
@@ -2657,7 +2599,7 @@
       <c r="I117" s="20"/>
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
+      <c r="A118" s="21"/>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
@@ -2667,7 +2609,7 @@
       <c r="I118" s="20"/>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
+      <c r="A119" s="21"/>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
@@ -2677,7 +2619,7 @@
       <c r="I119" s="20"/>
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
+      <c r="A120" s="21"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
@@ -2687,7 +2629,7 @@
       <c r="I120" s="20"/>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
+      <c r="A121" s="21"/>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
@@ -2697,7 +2639,7 @@
       <c r="I121" s="20"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
+      <c r="A122" s="21"/>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
@@ -2707,7 +2649,7 @@
       <c r="I122" s="20"/>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
+      <c r="A123" s="21"/>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
@@ -2717,7 +2659,7 @@
       <c r="I123" s="20"/>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
+      <c r="A124" s="21"/>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
@@ -2727,7 +2669,7 @@
       <c r="I124" s="20"/>
     </row>
     <row r="125" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
+      <c r="A125" s="21"/>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
@@ -2737,7 +2679,7 @@
       <c r="I125" s="20"/>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
+      <c r="A126" s="21"/>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
@@ -2747,7 +2689,7 @@
       <c r="I126" s="20"/>
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
+      <c r="A127" s="21"/>
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
       <c r="E127" s="20"/>
@@ -2757,7 +2699,7 @@
       <c r="I127" s="20"/>
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
+      <c r="A128" s="21"/>
       <c r="C128" s="20"/>
       <c r="D128" s="20"/>
       <c r="E128" s="20"/>
@@ -2767,7 +2709,7 @@
       <c r="I128" s="20"/>
     </row>
     <row r="129" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
+      <c r="A129" s="21"/>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
       <c r="E129" s="20"/>
@@ -2777,7 +2719,7 @@
       <c r="I129" s="20"/>
     </row>
     <row r="130" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
+      <c r="A130" s="21"/>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
       <c r="E130" s="20"/>
@@ -2787,7 +2729,7 @@
       <c r="I130" s="20"/>
     </row>
     <row r="131" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
+      <c r="A131" s="21"/>
       <c r="C131" s="20"/>
       <c r="D131" s="20"/>
       <c r="E131" s="20"/>
@@ -2797,7 +2739,7 @@
       <c r="I131" s="20"/>
     </row>
     <row r="132" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
+      <c r="A132" s="21"/>
       <c r="C132" s="20"/>
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
@@ -2807,7 +2749,7 @@
       <c r="I132" s="20"/>
     </row>
     <row r="133" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
+      <c r="A133" s="21"/>
       <c r="C133" s="20"/>
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
@@ -2817,7 +2759,7 @@
       <c r="I133" s="20"/>
     </row>
     <row r="134" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
+      <c r="A134" s="21"/>
       <c r="C134" s="20"/>
       <c r="D134" s="20"/>
       <c r="E134" s="20"/>
@@ -2827,7 +2769,7 @@
       <c r="I134" s="20"/>
     </row>
     <row r="135" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
+      <c r="A135" s="21"/>
       <c r="C135" s="20"/>
       <c r="D135" s="20"/>
       <c r="E135" s="20"/>
@@ -2837,7 +2779,7 @@
       <c r="I135" s="20"/>
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
+      <c r="A136" s="21"/>
       <c r="C136" s="20"/>
       <c r="D136" s="20"/>
       <c r="E136" s="20"/>
@@ -2847,7 +2789,7 @@
       <c r="I136" s="20"/>
     </row>
     <row r="137" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
+      <c r="A137" s="21"/>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
       <c r="E137" s="20"/>
@@ -2857,7 +2799,7 @@
       <c r="I137" s="20"/>
     </row>
     <row r="138" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
+      <c r="A138" s="21"/>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
       <c r="E138" s="20"/>
@@ -2867,7 +2809,7 @@
       <c r="I138" s="20"/>
     </row>
     <row r="139" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
+      <c r="A139" s="21"/>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
       <c r="E139" s="20"/>
@@ -2877,7 +2819,7 @@
       <c r="I139" s="20"/>
     </row>
     <row r="140" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
+      <c r="A140" s="21"/>
       <c r="C140" s="20"/>
       <c r="D140" s="20"/>
       <c r="E140" s="20"/>
@@ -2887,7 +2829,7 @@
       <c r="I140" s="20"/>
     </row>
     <row r="141" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
+      <c r="A141" s="21"/>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
       <c r="E141" s="20"/>
@@ -2897,7 +2839,7 @@
       <c r="I141" s="20"/>
     </row>
     <row r="142" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
+      <c r="A142" s="21"/>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
       <c r="E142" s="20"/>
@@ -2907,7 +2849,7 @@
       <c r="I142" s="20"/>
     </row>
     <row r="143" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
+      <c r="A143" s="21"/>
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
       <c r="E143" s="20"/>
@@ -2917,7 +2859,7 @@
       <c r="I143" s="20"/>
     </row>
     <row r="144" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
+      <c r="A144" s="21"/>
       <c r="C144" s="20"/>
       <c r="D144" s="20"/>
       <c r="E144" s="20"/>
@@ -2927,7 +2869,7 @@
       <c r="I144" s="20"/>
     </row>
     <row r="145" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
+      <c r="A145" s="21"/>
       <c r="C145" s="20"/>
       <c r="D145" s="20"/>
       <c r="E145" s="20"/>
@@ -2937,7 +2879,7 @@
       <c r="I145" s="20"/>
     </row>
     <row r="146" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
+      <c r="A146" s="21"/>
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
       <c r="E146" s="20"/>
@@ -2947,7 +2889,7 @@
       <c r="I146" s="20"/>
     </row>
     <row r="147" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
+      <c r="A147" s="21"/>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
@@ -2957,7 +2899,7 @@
       <c r="I147" s="20"/>
     </row>
     <row r="148" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
+      <c r="A148" s="21"/>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
       <c r="E148" s="20"/>
@@ -2967,7 +2909,7 @@
       <c r="I148" s="20"/>
     </row>
     <row r="149" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
+      <c r="A149" s="21"/>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
       <c r="E149" s="20"/>
@@ -2977,7 +2919,7 @@
       <c r="I149" s="20"/>
     </row>
     <row r="150" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
+      <c r="A150" s="21"/>
       <c r="C150" s="20"/>
       <c r="D150" s="20"/>
       <c r="E150" s="20"/>
@@ -2987,7 +2929,7 @@
       <c r="I150" s="20"/>
     </row>
     <row r="151" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
+      <c r="A151" s="21"/>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
       <c r="E151" s="20"/>
@@ -2997,7 +2939,7 @@
       <c r="I151" s="20"/>
     </row>
     <row r="152" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
+      <c r="A152" s="21"/>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
       <c r="E152" s="20"/>
@@ -3007,7 +2949,7 @@
       <c r="I152" s="20"/>
     </row>
     <row r="153" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
+      <c r="A153" s="21"/>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
       <c r="E153" s="20"/>
@@ -3017,7 +2959,7 @@
       <c r="I153" s="20"/>
     </row>
     <row r="154" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
+      <c r="A154" s="21"/>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
       <c r="E154" s="20"/>
@@ -3027,7 +2969,7 @@
       <c r="I154" s="20"/>
     </row>
     <row r="155" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
+      <c r="A155" s="21"/>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
       <c r="E155" s="20"/>
@@ -3037,7 +2979,7 @@
       <c r="I155" s="20"/>
     </row>
     <row r="156" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
+      <c r="A156" s="21"/>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
       <c r="E156" s="20"/>
@@ -3047,7 +2989,7 @@
       <c r="I156" s="20"/>
     </row>
     <row r="157" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
+      <c r="A157" s="21"/>
       <c r="C157" s="20"/>
       <c r="D157" s="20"/>
       <c r="E157" s="20"/>
@@ -3057,7 +2999,7 @@
       <c r="I157" s="20"/>
     </row>
     <row r="158" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
+      <c r="A158" s="21"/>
       <c r="C158" s="20"/>
       <c r="D158" s="20"/>
       <c r="E158" s="20"/>
@@ -3067,7 +3009,7 @@
       <c r="I158" s="20"/>
     </row>
     <row r="159" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
+      <c r="A159" s="21"/>
       <c r="C159" s="20"/>
       <c r="D159" s="20"/>
       <c r="E159" s="20"/>
@@ -3077,7 +3019,7 @@
       <c r="I159" s="20"/>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
+      <c r="A160" s="21"/>
       <c r="C160" s="20"/>
       <c r="D160" s="20"/>
       <c r="E160" s="20"/>
@@ -3087,7 +3029,7 @@
       <c r="I160" s="20"/>
     </row>
     <row r="161" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
+      <c r="A161" s="21"/>
       <c r="C161" s="20"/>
       <c r="D161" s="20"/>
       <c r="E161" s="20"/>
@@ -3097,7 +3039,7 @@
       <c r="I161" s="20"/>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
+      <c r="A162" s="21"/>
       <c r="C162" s="20"/>
       <c r="D162" s="20"/>
       <c r="E162" s="20"/>
@@ -3107,7 +3049,7 @@
       <c r="I162" s="20"/>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
+      <c r="A163" s="21"/>
       <c r="C163" s="20"/>
       <c r="D163" s="20"/>
       <c r="E163" s="20"/>
@@ -3117,7 +3059,7 @@
       <c r="I163" s="20"/>
     </row>
     <row r="164" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
+      <c r="A164" s="21"/>
       <c r="C164" s="20"/>
       <c r="D164" s="20"/>
       <c r="E164" s="20"/>
@@ -3127,7 +3069,7 @@
       <c r="I164" s="20"/>
     </row>
     <row r="165" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
+      <c r="A165" s="21"/>
       <c r="C165" s="20"/>
       <c r="D165" s="20"/>
       <c r="E165" s="20"/>
@@ -3137,7 +3079,7 @@
       <c r="I165" s="20"/>
     </row>
     <row r="166" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
+      <c r="A166" s="21"/>
       <c r="C166" s="20"/>
       <c r="D166" s="20"/>
       <c r="E166" s="20"/>
@@ -3147,7 +3089,7 @@
       <c r="I166" s="20"/>
     </row>
     <row r="167" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
+      <c r="A167" s="21"/>
       <c r="C167" s="20"/>
       <c r="D167" s="20"/>
       <c r="E167" s="20"/>
@@ -3157,7 +3099,7 @@
       <c r="I167" s="20"/>
     </row>
     <row r="168" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
+      <c r="A168" s="21"/>
       <c r="C168" s="20"/>
       <c r="D168" s="20"/>
       <c r="E168" s="20"/>
@@ -3167,7 +3109,7 @@
       <c r="I168" s="20"/>
     </row>
     <row r="169" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
+      <c r="A169" s="21"/>
       <c r="C169" s="20"/>
       <c r="D169" s="20"/>
       <c r="E169" s="20"/>
@@ -3177,7 +3119,7 @@
       <c r="I169" s="20"/>
     </row>
     <row r="170" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
+      <c r="A170" s="21"/>
       <c r="C170" s="20"/>
       <c r="D170" s="20"/>
       <c r="E170" s="20"/>
@@ -3187,7 +3129,7 @@
       <c r="I170" s="20"/>
     </row>
     <row r="171" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
+      <c r="A171" s="21"/>
       <c r="C171" s="20"/>
       <c r="D171" s="20"/>
       <c r="E171" s="20"/>
@@ -3197,7 +3139,7 @@
       <c r="I171" s="20"/>
     </row>
     <row r="172" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
+      <c r="A172" s="21"/>
       <c r="C172" s="20"/>
       <c r="D172" s="20"/>
       <c r="E172" s="20"/>
@@ -3207,7 +3149,7 @@
       <c r="I172" s="20"/>
     </row>
     <row r="173" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
+      <c r="A173" s="21"/>
       <c r="C173" s="20"/>
       <c r="D173" s="20"/>
       <c r="E173" s="20"/>
@@ -3217,7 +3159,7 @@
       <c r="I173" s="20"/>
     </row>
     <row r="174" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
+      <c r="A174" s="21"/>
       <c r="C174" s="20"/>
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
@@ -3227,21 +3169,21 @@
       <c r="I174" s="20"/>
     </row>
     <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
+      <c r="A175" s="21"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="16"/>
-      <c r="F175" s="16"/>
-      <c r="G175" s="16"/>
-      <c r="H175" s="16"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
     </row>
     <row r="176" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B176" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D176" s="16"/>
       <c r="E176" s="16"/>
@@ -3252,10 +3194,10 @@
     </row>
     <row r="177" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B177" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
@@ -3267,7 +3209,7 @@
     <row r="178" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="33"/>
       <c r="B178" s="49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C178" s="49"/>
       <c r="D178" s="49"/>
@@ -3325,7 +3267,7 @@
         <v>3.2</v>
       </c>
       <c r="B183" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D183" s="16"/>
       <c r="E183" s="16"/>
@@ -3337,7 +3279,7 @@
     <row r="184" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="33"/>
       <c r="B184" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C184" s="49"/>
       <c r="D184" s="49"/>
@@ -3363,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D186" s="16"/>
       <c r="E186" s="16"/>
@@ -3377,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D187" s="16"/>
       <c r="E187" s="16"/>
@@ -3391,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D188" s="16"/>
       <c r="E188" s="16"/>
@@ -3435,7 +3377,7 @@
         <v>3.3</v>
       </c>
       <c r="B192" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D192" s="16"/>
       <c r="E192" s="16"/>
@@ -3447,7 +3389,7 @@
     <row r="193" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="44"/>
       <c r="B193" s="47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C193" s="47"/>
       <c r="D193" s="47"/>
@@ -3460,7 +3402,7 @@
     </row>
     <row r="194" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="str">
-        <f t="shared" ref="A194:A203" si="3">IF(B194&lt;&gt;"","•","")</f>
+        <f t="shared" ref="A194:A203" si="0">IF(B194&lt;&gt;"","•","")</f>
         <v/>
       </c>
       <c r="B194" s="5" t="str" cm="1">
@@ -3475,7 +3417,7 @@
     </row>
     <row r="195" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B195" s="5" t="str" cm="1">
@@ -3490,7 +3432,7 @@
     </row>
     <row r="196" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B196" s="5" t="str" cm="1">
@@ -3506,7 +3448,7 @@
     </row>
     <row r="197" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B197" s="5" t="str" cm="1">
@@ -3521,7 +3463,7 @@
     </row>
     <row r="198" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B198" s="5" t="str" cm="1">
@@ -3536,7 +3478,7 @@
     </row>
     <row r="199" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B199" s="5" t="str" cm="1">
@@ -3552,7 +3494,7 @@
     </row>
     <row r="200" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B200" s="5" t="str" cm="1">
@@ -3567,7 +3509,7 @@
     </row>
     <row r="201" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B201" s="5" t="str" cm="1">
@@ -3578,7 +3520,7 @@
     </row>
     <row r="202" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B202" s="5" t="str" cm="1">
@@ -3593,7 +3535,7 @@
     </row>
     <row r="203" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B203" s="5" t="str" cm="1">
@@ -3621,7 +3563,7 @@
         <v>3.4</v>
       </c>
       <c r="B205" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M205" s="5" t="str">
         <f t="array" ref="M205">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
@@ -3656,7 +3598,7 @@
         <v>9</v>
       </c>
       <c r="E207" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M207" s="12"/>
       <c r="N207" s="7"/>
@@ -3713,7 +3655,7 @@
     <row r="211" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="45"/>
       <c r="B211" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C211" s="47"/>
       <c r="D211" s="47"/>
@@ -3731,14 +3673,14 @@
         <v>28</v>
       </c>
       <c r="C212" s="28"/>
-      <c r="D212" s="61" t="s">
+      <c r="D212" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E212" s="61"/>
-      <c r="F212" s="61" t="s">
+      <c r="E212" s="58"/>
+      <c r="F212" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="G212" s="61"/>
+      <c r="G212" s="58"/>
       <c r="H212" s="9"/>
       <c r="Q212" s="5"/>
     </row>
@@ -3748,14 +3690,14 @@
         <v>24</v>
       </c>
       <c r="C213" s="28"/>
-      <c r="D213" s="61" t="s">
+      <c r="D213" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E213" s="61"/>
-      <c r="F213" s="62">
+      <c r="E213" s="58"/>
+      <c r="F213" s="59">
         <v>10000000</v>
       </c>
-      <c r="G213" s="62"/>
+      <c r="G213" s="59"/>
       <c r="H213" s="23"/>
       <c r="I213" s="7"/>
       <c r="M213" s="5"/>
@@ -3770,21 +3712,21 @@
         <v>26</v>
       </c>
       <c r="C214" s="28"/>
-      <c r="D214" s="61" t="s">
+      <c r="D214" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E214" s="61"/>
-      <c r="F214" s="62">
+      <c r="E214" s="58"/>
+      <c r="F214" s="59">
         <v>20000000</v>
       </c>
-      <c r="G214" s="62"/>
+      <c r="G214" s="59"/>
       <c r="H214" s="23"/>
       <c r="M214" s="9"/>
     </row>
     <row r="215" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C215" s="12"/>
       <c r="D215" s="12"/>
@@ -3930,12 +3872,12 @@
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
-      <c r="B227" s="63" t="s">
+      <c r="B227" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C227" s="64"/>
-      <c r="D227" s="64"/>
-      <c r="E227" s="65"/>
+      <c r="C227" s="61"/>
+      <c r="D227" s="61"/>
+      <c r="E227" s="62"/>
       <c r="F227" s="39" t="s">
         <v>96</v>
       </c>
@@ -3946,10 +3888,10 @@
     </row>
     <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
-      <c r="B228" s="58"/>
-      <c r="C228" s="59"/>
-      <c r="D228" s="59"/>
-      <c r="E228" s="60"/>
+      <c r="B228" s="63"/>
+      <c r="C228" s="64"/>
+      <c r="D228" s="64"/>
+      <c r="E228" s="65"/>
       <c r="F228" s="31"/>
       <c r="G228" s="31"/>
       <c r="H228" s="23"/>
@@ -3957,10 +3899,10 @@
     </row>
     <row r="229" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
-      <c r="B229" s="58"/>
-      <c r="C229" s="59"/>
-      <c r="D229" s="59"/>
-      <c r="E229" s="60"/>
+      <c r="B229" s="63"/>
+      <c r="C229" s="64"/>
+      <c r="D229" s="64"/>
+      <c r="E229" s="65"/>
       <c r="F229" s="31"/>
       <c r="G229" s="31"/>
       <c r="H229" s="23"/>
@@ -3968,61 +3910,62 @@
     </row>
     <row r="230" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
-      <c r="B230" s="58"/>
-      <c r="C230" s="59"/>
-      <c r="D230" s="59"/>
-      <c r="E230" s="60"/>
+      <c r="B230" s="63"/>
+      <c r="C230" s="64"/>
+      <c r="D230" s="64"/>
+      <c r="E230" s="65"/>
       <c r="F230" s="31"/>
       <c r="G230" s="31"/>
       <c r="H230" s="23"/>
       <c r="I230" s="7"/>
     </row>
-    <row r="231" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
-      <c r="B231" s="58"/>
-      <c r="C231" s="59"/>
-      <c r="D231" s="59"/>
-      <c r="E231" s="60"/>
-      <c r="F231" s="31"/>
-      <c r="G231" s="31"/>
+      <c r="C231" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D231" s="56"/>
+      <c r="E231" s="56"/>
+      <c r="F231" s="40">
+        <f>SUM(F229:F230)</f>
+        <v>0</v>
+      </c>
+      <c r="G231" s="40">
+        <f>SUM(G229:G230)</f>
+        <v>0</v>
+      </c>
       <c r="H231" s="23"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-      <c r="C232" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="D232" s="57"/>
-      <c r="E232" s="57"/>
-      <c r="F232" s="40">
-        <f>SUM(F229:F231)</f>
-        <v>0</v>
-      </c>
-      <c r="G232" s="40">
-        <f>SUM(G229:G231)</f>
-        <v>0</v>
-      </c>
+    <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C232" s="12"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="22"/>
+      <c r="G232" s="22"/>
       <c r="H232" s="23"/>
     </row>
-    <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C233" s="12"/>
-      <c r="D233" s="12"/>
-      <c r="E233" s="7"/>
-      <c r="F233" s="22"/>
-      <c r="G233" s="22"/>
-      <c r="H233" s="23"/>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="B233" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C233" s="49"/>
+      <c r="D233" s="49"/>
+      <c r="E233" s="49"/>
+      <c r="F233" s="49"/>
+      <c r="G233" s="49"/>
+      <c r="H233" s="49"/>
+      <c r="I233" s="49"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
-      <c r="B234" s="49" t="s">
-        <v>48</v>
-      </c>
+      <c r="A234" s="21"/>
+      <c r="B234" s="49"/>
       <c r="C234" s="49"/>
       <c r="D234" s="49"/>
       <c r="E234" s="49"/>
@@ -4042,27 +3985,32 @@
       <c r="H235" s="49"/>
       <c r="I235" s="49"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" s="21"/>
-      <c r="B236" s="49"/>
-      <c r="C236" s="49"/>
-      <c r="D236" s="49"/>
-      <c r="E236" s="49"/>
-      <c r="F236" s="49"/>
-      <c r="G236" s="49"/>
-      <c r="H236" s="49"/>
-      <c r="I236" s="49"/>
-    </row>
-    <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="B236" t="s">
+        <v>16</v>
+      </c>
+      <c r="D236" t="s">
+        <v>10</v>
+      </c>
+      <c r="E236" s="25">
+        <v>280</v>
+      </c>
+      <c r="F236" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H236" s="24"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="D237" t="s">
         <v>10</v>
       </c>
       <c r="E237" s="25">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="F237" s="25" t="s">
         <v>33</v>
@@ -4078,155 +4026,143 @@
         <v>10</v>
       </c>
       <c r="E238" s="25">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="F238" s="25" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="H238" s="24"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
-      <c r="B239" t="s">
+      <c r="E239" s="25"/>
+      <c r="F239" s="25"/>
+      <c r="H239" s="24"/>
+    </row>
+    <row r="240" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D239" t="s">
-        <v>10</v>
-      </c>
-      <c r="E239" s="25">
-        <v>450</v>
-      </c>
-      <c r="F239" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="H239" s="24"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
+      <c r="B240" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="E240" s="25"/>
       <c r="F240" s="25"/>
       <c r="H240" s="24"/>
     </row>
-    <row r="241" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B241" s="2" t="s">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="B241" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E241" s="25"/>
-      <c r="F241" s="25"/>
-      <c r="H241" s="24"/>
+      <c r="C241" s="41"/>
+      <c r="D241" s="41"/>
+      <c r="E241" s="41"/>
+      <c r="F241" s="40"/>
+      <c r="G241" s="40"/>
+      <c r="H241" s="23"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
-      <c r="B242" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C242" s="41"/>
-      <c r="D242" s="41"/>
-      <c r="E242" s="41"/>
-      <c r="F242" s="40"/>
-      <c r="G242" s="40"/>
-      <c r="H242" s="23"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="46"/>
-      <c r="B243" s="17"/>
-      <c r="C243" s="17"/>
-      <c r="D243" s="17"/>
-      <c r="E243" s="17"/>
-      <c r="F243" s="17"/>
-      <c r="G243" s="17"/>
-      <c r="H243" s="17"/>
-      <c r="I243" s="17"/>
-    </row>
-    <row r="244" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="33" t="s">
+      <c r="A242" s="46"/>
+      <c r="B242" s="17"/>
+      <c r="C242" s="17"/>
+      <c r="D242" s="17"/>
+      <c r="E242" s="17"/>
+      <c r="F242" s="17"/>
+      <c r="G242" s="17"/>
+      <c r="H242" s="17"/>
+      <c r="I242" s="17"/>
+    </row>
+    <row r="243" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B244" s="34" t="s">
+      <c r="B243" s="34" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="21"/>
+      <c r="B244" s="2"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="21"/>
       <c r="B245" s="2"/>
+      <c r="C245" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" s="21"/>
-      <c r="B246" s="2"/>
-      <c r="C246" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
-      <c r="F246" s="1" t="s">
-        <v>16</v>
+      <c r="A246" s="1"/>
+      <c r="B246" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F246" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
-      <c r="B247" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F247" t="s">
-        <v>0</v>
-      </c>
+      <c r="B247" s="12"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
-      <c r="B248" s="12"/>
+      <c r="B248" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F248" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
-      <c r="B249" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="B249" s="12"/>
       <c r="F249" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="12"/>
       <c r="F250" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="12"/>
       <c r="F251" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="12"/>
-      <c r="F252" t="s">
-        <v>36</v>
+      <c r="F252" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="12"/>
-      <c r="F253" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F253" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
-      <c r="B254" s="12"/>
-      <c r="F254" t="s">
-        <v>34</v>
+      <c r="B254" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
-      <c r="B255" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="B255" s="10"/>
     </row>
     <row r="256" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
@@ -4240,34 +4176,45 @@
       <c r="A258" s="1"/>
       <c r="B258" s="10"/>
     </row>
-    <row r="259" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
-      <c r="B259" s="10"/>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
-      <c r="B260" s="10" t="s">
+      <c r="B259" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F260" s="56">
+      <c r="F259" s="57">
         <f ca="1">TODAY()</f>
-        <v>45272</v>
-      </c>
-      <c r="G260" s="56"/>
-    </row>
-    <row r="261" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="36" t="s">
+        <v>45320</v>
+      </c>
+      <c r="G259" s="57"/>
+    </row>
+    <row r="260" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C261" s="6"/>
-      <c r="I261" s="21"/>
-    </row>
-    <row r="262" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C260" s="6"/>
+      <c r="I260" s="21"/>
+    </row>
+    <row r="261" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="8">
+        <v>1</v>
+      </c>
+      <c r="B261" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C261" s="55"/>
+      <c r="D261" s="55"/>
+      <c r="E261" s="55"/>
+      <c r="F261" s="55"/>
+      <c r="G261" s="55"/>
+      <c r="H261" s="55"/>
+      <c r="I261" s="55"/>
+    </row>
+    <row r="262" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B262" s="55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C262" s="55"/>
       <c r="D262" s="55"/>
@@ -4277,12 +4224,12 @@
       <c r="H262" s="55"/>
       <c r="I262" s="55"/>
     </row>
-    <row r="263" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B263" s="55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C263" s="55"/>
       <c r="D263" s="55"/>
@@ -4292,12 +4239,12 @@
       <c r="H263" s="55"/>
       <c r="I263" s="55"/>
     </row>
-    <row r="264" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B264" s="55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C264" s="55"/>
       <c r="D264" s="55"/>
@@ -4307,12 +4254,12 @@
       <c r="H264" s="55"/>
       <c r="I264" s="55"/>
     </row>
-    <row r="265" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B265" s="55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C265" s="55"/>
       <c r="D265" s="55"/>
@@ -4322,12 +4269,10 @@
       <c r="H265" s="55"/>
       <c r="I265" s="55"/>
     </row>
-    <row r="266" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="8">
-        <v>5</v>
-      </c>
+    <row r="266" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="8"/>
       <c r="B266" s="55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C266" s="55"/>
       <c r="D266" s="55"/>
@@ -4337,10 +4282,10 @@
       <c r="H266" s="55"/>
       <c r="I266" s="55"/>
     </row>
-    <row r="267" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="8"/>
       <c r="B267" s="55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C267" s="55"/>
       <c r="D267" s="55"/>
@@ -4350,10 +4295,10 @@
       <c r="H267" s="55"/>
       <c r="I267" s="55"/>
     </row>
-    <row r="268" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="8"/>
       <c r="B268" s="55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C268" s="55"/>
       <c r="D268" s="55"/>
@@ -4363,10 +4308,12 @@
       <c r="H268" s="55"/>
       <c r="I268" s="55"/>
     </row>
-    <row r="269" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="8"/>
+    <row r="269" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="8">
+        <v>6</v>
+      </c>
       <c r="B269" s="55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C269" s="55"/>
       <c r="D269" s="55"/>
@@ -4376,12 +4323,10 @@
       <c r="H269" s="55"/>
       <c r="I269" s="55"/>
     </row>
-    <row r="270" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="8">
-        <v>6</v>
-      </c>
+    <row r="270" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="8"/>
       <c r="B270" s="55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C270" s="55"/>
       <c r="D270" s="55"/>
@@ -4391,10 +4336,10 @@
       <c r="H270" s="55"/>
       <c r="I270" s="55"/>
     </row>
-    <row r="271" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
       <c r="B271" s="55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C271" s="55"/>
       <c r="D271" s="55"/>
@@ -4404,10 +4349,12 @@
       <c r="H271" s="55"/>
       <c r="I271" s="55"/>
     </row>
-    <row r="272" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="8"/>
+    <row r="272" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="8">
+        <v>7</v>
+      </c>
       <c r="B272" s="55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C272" s="55"/>
       <c r="D272" s="55"/>
@@ -4417,12 +4364,12 @@
       <c r="H272" s="55"/>
       <c r="I272" s="55"/>
     </row>
-    <row r="273" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B273" s="55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C273" s="55"/>
       <c r="D273" s="55"/>
@@ -4432,12 +4379,10 @@
       <c r="H273" s="55"/>
       <c r="I273" s="55"/>
     </row>
-    <row r="274" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="8">
-        <v>8</v>
-      </c>
+    <row r="274" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="8"/>
       <c r="B274" s="55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C274" s="55"/>
       <c r="D274" s="55"/>
@@ -4447,10 +4392,10 @@
       <c r="H274" s="55"/>
       <c r="I274" s="55"/>
     </row>
-    <row r="275" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="8"/>
       <c r="B275" s="55" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C275" s="55"/>
       <c r="D275" s="55"/>
@@ -4460,10 +4405,10 @@
       <c r="H275" s="55"/>
       <c r="I275" s="55"/>
     </row>
-    <row r="276" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="8"/>
       <c r="B276" s="55" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C276" s="55"/>
       <c r="D276" s="55"/>
@@ -4473,10 +4418,10 @@
       <c r="H276" s="55"/>
       <c r="I276" s="55"/>
     </row>
-    <row r="277" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="8"/>
       <c r="B277" s="55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C277" s="55"/>
       <c r="D277" s="55"/>
@@ -4486,10 +4431,10 @@
       <c r="H277" s="55"/>
       <c r="I277" s="55"/>
     </row>
-    <row r="278" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="8"/>
       <c r="B278" s="55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C278" s="55"/>
       <c r="D278" s="55"/>
@@ -4499,10 +4444,10 @@
       <c r="H278" s="55"/>
       <c r="I278" s="55"/>
     </row>
-    <row r="279" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="8"/>
       <c r="B279" s="55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C279" s="55"/>
       <c r="D279" s="55"/>
@@ -4512,10 +4457,12 @@
       <c r="H279" s="55"/>
       <c r="I279" s="55"/>
     </row>
-    <row r="280" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="8"/>
+    <row r="280" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="8">
+        <v>9</v>
+      </c>
       <c r="B280" s="55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C280" s="55"/>
       <c r="D280" s="55"/>
@@ -4525,12 +4472,12 @@
       <c r="H280" s="55"/>
       <c r="I280" s="55"/>
     </row>
-    <row r="281" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B281" s="55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C281" s="55"/>
       <c r="D281" s="55"/>
@@ -4540,12 +4487,10 @@
       <c r="H281" s="55"/>
       <c r="I281" s="55"/>
     </row>
-    <row r="282" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="8">
-        <v>10</v>
-      </c>
+    <row r="282" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="8"/>
       <c r="B282" s="55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C282" s="55"/>
       <c r="D282" s="55"/>
@@ -4558,7 +4503,7 @@
     <row r="283" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="8"/>
       <c r="B283" s="55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C283" s="55"/>
       <c r="D283" s="55"/>
@@ -4571,7 +4516,7 @@
     <row r="284" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="8"/>
       <c r="B284" s="55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C284" s="55"/>
       <c r="D284" s="55"/>
@@ -4581,10 +4526,10 @@
       <c r="H284" s="55"/>
       <c r="I284" s="55"/>
     </row>
-    <row r="285" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="8"/>
       <c r="B285" s="55" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C285" s="55"/>
       <c r="D285" s="55"/>
@@ -4594,10 +4539,12 @@
       <c r="H285" s="55"/>
       <c r="I285" s="55"/>
     </row>
-    <row r="286" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="8"/>
+    <row r="286" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="8">
+        <v>11</v>
+      </c>
       <c r="B286" s="55" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C286" s="55"/>
       <c r="D286" s="55"/>
@@ -4607,12 +4554,10 @@
       <c r="H286" s="55"/>
       <c r="I286" s="55"/>
     </row>
-    <row r="287" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="8">
-        <v>11</v>
-      </c>
+    <row r="287" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="8"/>
       <c r="B287" s="55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C287" s="55"/>
       <c r="D287" s="55"/>
@@ -4622,10 +4567,10 @@
       <c r="H287" s="55"/>
       <c r="I287" s="55"/>
     </row>
-    <row r="288" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="8"/>
       <c r="B288" s="55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C288" s="55"/>
       <c r="D288" s="55"/>
@@ -4635,10 +4580,12 @@
       <c r="H288" s="55"/>
       <c r="I288" s="55"/>
     </row>
-    <row r="289" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="8"/>
+    <row r="289" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="8">
+        <v>12</v>
+      </c>
       <c r="B289" s="55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C289" s="55"/>
       <c r="D289" s="55"/>
@@ -4648,12 +4595,10 @@
       <c r="H289" s="55"/>
       <c r="I289" s="55"/>
     </row>
-    <row r="290" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="8">
-        <v>12</v>
-      </c>
+    <row r="290" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="8"/>
       <c r="B290" s="55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C290" s="55"/>
       <c r="D290" s="55"/>
@@ -4663,10 +4608,10 @@
       <c r="H290" s="55"/>
       <c r="I290" s="55"/>
     </row>
-    <row r="291" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="8"/>
       <c r="B291" s="55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C291" s="55"/>
       <c r="D291" s="55"/>
@@ -4676,10 +4621,10 @@
       <c r="H291" s="55"/>
       <c r="I291" s="55"/>
     </row>
-    <row r="292" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="8"/>
       <c r="B292" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C292" s="55"/>
       <c r="D292" s="55"/>
@@ -4689,10 +4634,10 @@
       <c r="H292" s="55"/>
       <c r="I292" s="55"/>
     </row>
-    <row r="293" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="8"/>
       <c r="B293" s="55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C293" s="55"/>
       <c r="D293" s="55"/>
@@ -4702,8 +4647,10 @@
       <c r="H293" s="55"/>
       <c r="I293" s="55"/>
     </row>
-    <row r="294" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="8"/>
+    <row r="294" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="8">
+        <v>13</v>
+      </c>
       <c r="B294" s="55" t="s">
         <v>84</v>
       </c>
@@ -4715,12 +4662,10 @@
       <c r="H294" s="55"/>
       <c r="I294" s="55"/>
     </row>
-    <row r="295" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="8">
-        <v>13</v>
-      </c>
+    <row r="295" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="8"/>
       <c r="B295" s="55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C295" s="55"/>
       <c r="D295" s="55"/>
@@ -4730,10 +4675,10 @@
       <c r="H295" s="55"/>
       <c r="I295" s="55"/>
     </row>
-    <row r="296" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="8"/>
       <c r="B296" s="55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C296" s="55"/>
       <c r="D296" s="55"/>
@@ -4743,10 +4688,12 @@
       <c r="H296" s="55"/>
       <c r="I296" s="55"/>
     </row>
-    <row r="297" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="8"/>
+    <row r="297" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="8">
+        <v>14</v>
+      </c>
       <c r="B297" s="55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C297" s="55"/>
       <c r="D297" s="55"/>
@@ -4756,12 +4703,10 @@
       <c r="H297" s="55"/>
       <c r="I297" s="55"/>
     </row>
-    <row r="298" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="8">
-        <v>14</v>
-      </c>
+    <row r="298" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="8"/>
       <c r="B298" s="55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C298" s="55"/>
       <c r="D298" s="55"/>
@@ -4771,10 +4716,10 @@
       <c r="H298" s="55"/>
       <c r="I298" s="55"/>
     </row>
-    <row r="299" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="8"/>
       <c r="B299" s="55" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C299" s="55"/>
       <c r="D299" s="55"/>
@@ -4784,10 +4729,10 @@
       <c r="H299" s="55"/>
       <c r="I299" s="55"/>
     </row>
-    <row r="300" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="8"/>
       <c r="B300" s="55" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C300" s="55"/>
       <c r="D300" s="55"/>
@@ -4800,7 +4745,7 @@
     <row r="301" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="8"/>
       <c r="B301" s="55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C301" s="55"/>
       <c r="D301" s="55"/>
@@ -4810,10 +4755,12 @@
       <c r="H301" s="55"/>
       <c r="I301" s="55"/>
     </row>
-    <row r="302" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="8"/>
+    <row r="302" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="8">
+        <v>15</v>
+      </c>
       <c r="B302" s="55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C302" s="55"/>
       <c r="D302" s="55"/>
@@ -4823,12 +4770,12 @@
       <c r="H302" s="55"/>
       <c r="I302" s="55"/>
     </row>
-    <row r="303" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B303" s="55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C303" s="55"/>
       <c r="D303" s="55"/>
@@ -4838,12 +4785,12 @@
       <c r="H303" s="55"/>
       <c r="I303" s="55"/>
     </row>
-    <row r="304" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B304" s="55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C304" s="55"/>
       <c r="D304" s="55"/>
@@ -4853,39 +4800,24 @@
       <c r="H304" s="55"/>
       <c r="I304" s="55"/>
     </row>
-    <row r="305" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="8">
-        <v>17</v>
-      </c>
-      <c r="B305" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C305" s="55"/>
-      <c r="D305" s="55"/>
-      <c r="E305" s="55"/>
-      <c r="F305" s="55"/>
-      <c r="G305" s="55"/>
-      <c r="H305" s="55"/>
-      <c r="I305" s="55"/>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="27"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="27"/>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="27"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="27"/>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="27"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A310" s="27"/>
-    </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="B305:I305"/>
+  <mergeCells count="84">
+    <mergeCell ref="B304:I304"/>
     <mergeCell ref="B218:I221"/>
     <mergeCell ref="B206:I206"/>
     <mergeCell ref="B225:I226"/>
@@ -4900,29 +4832,29 @@
     <mergeCell ref="B228:E228"/>
     <mergeCell ref="B229:E229"/>
     <mergeCell ref="B230:E230"/>
+    <mergeCell ref="B261:I261"/>
     <mergeCell ref="B262:I262"/>
     <mergeCell ref="B263:I263"/>
     <mergeCell ref="B264:I264"/>
+    <mergeCell ref="C231:E231"/>
     <mergeCell ref="B265:I265"/>
-    <mergeCell ref="C232:E232"/>
-    <mergeCell ref="B231:E231"/>
+    <mergeCell ref="F259:G259"/>
+    <mergeCell ref="B233:I235"/>
+    <mergeCell ref="B279:I279"/>
     <mergeCell ref="B266:I266"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="B234:I236"/>
-    <mergeCell ref="B280:I280"/>
     <mergeCell ref="B267:I267"/>
     <mergeCell ref="B268:I268"/>
     <mergeCell ref="B269:I269"/>
+    <mergeCell ref="B275:I275"/>
     <mergeCell ref="B270:I270"/>
-    <mergeCell ref="B276:I276"/>
     <mergeCell ref="B271:I271"/>
     <mergeCell ref="B272:I272"/>
     <mergeCell ref="B273:I273"/>
     <mergeCell ref="B274:I274"/>
-    <mergeCell ref="B275:I275"/>
+    <mergeCell ref="B276:I276"/>
     <mergeCell ref="B277:I277"/>
-    <mergeCell ref="B278:I278"/>
-    <mergeCell ref="B292:I292"/>
+    <mergeCell ref="B291:I291"/>
+    <mergeCell ref="B280:I280"/>
     <mergeCell ref="B281:I281"/>
     <mergeCell ref="B282:I282"/>
     <mergeCell ref="B283:I283"/>
@@ -4933,11 +4865,11 @@
     <mergeCell ref="B288:I288"/>
     <mergeCell ref="B289:I289"/>
     <mergeCell ref="B290:I290"/>
-    <mergeCell ref="B291:I291"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A8:I9"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B304:I304"/>
+    <mergeCell ref="B303:I303"/>
+    <mergeCell ref="B292:I292"/>
     <mergeCell ref="B293:I293"/>
     <mergeCell ref="B294:I294"/>
     <mergeCell ref="B295:I295"/>
@@ -4948,8 +4880,7 @@
     <mergeCell ref="B300:I300"/>
     <mergeCell ref="B301:I301"/>
     <mergeCell ref="B302:I302"/>
-    <mergeCell ref="B303:I303"/>
-    <mergeCell ref="B279:I279"/>
+    <mergeCell ref="B278:I278"/>
     <mergeCell ref="Q9:X9"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="A11:I14"/>
@@ -4991,7 +4922,7 @@
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UNLISTED ITEM" error="Please input customised items manually" sqref="B186:B190" xr:uid="{92AF6CB7-4A80-4E2F-8377-0310E8DEBE08}"/>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UNLISTED ITEM" error="Please input customised items manually" sqref="C175:I175 A175 B69:B75 B53:B67 B77:B175 J77:XFD175" xr:uid="{227805A3-D203-44AE-9483-BFAA5260215C}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UNLISTED ITEM" error="Please input customised items manually" sqref="C175:I175 J77:XFD175 B69:B75 B53:B67 B77:B175" xr:uid="{227805A3-D203-44AE-9483-BFAA5260215C}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5016,8 +4947,8 @@
     <brk id="129" max="8" man="1"/>
     <brk id="175" max="8" man="1"/>
     <brk id="216" max="8" man="1"/>
-    <brk id="260" max="8" man="1"/>
-    <brk id="283" max="8" man="1"/>
+    <brk id="259" max="8" man="1"/>
+    <brk id="282" max="8" man="1"/>
   </rowBreaks>
   <drawing r:id="rId4"/>
   <legacyDrawingHF r:id="rId5"/>

--- a/app/resource/xlsx/fee_proposal_template_3.xlsx
+++ b/app/resource/xlsx/fee_proposal_template_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\00-Template-Do Not Modify\00-Bridge template\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5164D6-CCA8-482C-95D6-D7D9C6FA69DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2690FC40-D10E-405D-8B26-C0FF84F1D269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="144">
   <si>
     <t>Premium Consulting Engineers</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>Receive base building drawings detailing information of service provision</t>
+  </si>
+  <si>
+    <t>Email:</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="[$-C09]dd\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +623,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -703,7 +714,7 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -769,7 +780,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -777,12 +787,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -792,11 +796,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -812,14 +812,29 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -877,6 +892,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1322,13 +1340,13 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X309"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A223" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A232" sqref="A232:XFD232"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A210" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F231" sqref="F231:G231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="40" customWidth="1"/>
     <col min="2" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
@@ -1339,14 +1357,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>140</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="15"/>
@@ -1354,10 +1372,10 @@
       <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="19"/>
@@ -1382,7 +1400,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="19"/>
       <c r="H4" s="1"/>
       <c r="L4" s="14"/>
@@ -1392,7 +1410,7 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="41"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1407,15 +1425,15 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1440,26 +1458,26 @@
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1467,93 +1485,93 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1572,62 +1590,62 @@
       <c r="C16" s="4"/>
       <c r="E16" s="8"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="30"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="2" t="s">
         <v>105</v>
       </c>
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
@@ -1648,7 +1666,7 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="30"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="2" t="s">
         <v>105</v>
       </c>
@@ -1660,19 +1678,19 @@
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -1680,39 +1698,39 @@
       <c r="O22" s="17"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
@@ -1723,58 +1741,58 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="30"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="2" t="s">
         <v>105</v>
       </c>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
@@ -1800,52 +1818,52 @@
       <c r="I31" s="17"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -1862,7 +1880,7 @@
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="40" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1878,7 +1896,7 @@
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="42" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="13"/>
@@ -1891,37 +1909,37 @@
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="40" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="33"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B45" t="s">
@@ -1931,7 +1949,7 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B46" t="s">
@@ -1944,7 +1962,7 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B47" t="s">
@@ -1959,7 +1977,7 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B48" t="s">
@@ -1975,7 +1993,7 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B49" t="s">
@@ -1984,22 +2002,22 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="38"/>
     </row>
     <row r="51" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="33"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="30"/>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
@@ -2007,7 +2025,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="I52" s="43"/>
+      <c r="I52" s="38"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
@@ -2129,7 +2147,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="43"/>
+      <c r="I67" s="38"/>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
@@ -2154,22 +2172,22 @@
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="C71" s="3"/>
-      <c r="I71" s="43"/>
+      <c r="I71" s="38"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="C72" s="3"/>
-      <c r="I72" s="43"/>
+      <c r="I72" s="38"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="C73" s="3"/>
-      <c r="I73" s="43"/>
+      <c r="I73" s="38"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="C74" s="3"/>
-      <c r="I74" s="43"/>
+      <c r="I74" s="38"/>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
@@ -3179,10 +3197,10 @@
       <c r="H175" s="5"/>
     </row>
     <row r="176" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="33" t="s">
+      <c r="A176" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B176" s="34" t="s">
+      <c r="B176" s="31" t="s">
         <v>114</v>
       </c>
       <c r="D176" s="16"/>
@@ -3190,13 +3208,13 @@
       <c r="F176" s="16"/>
       <c r="G176" s="16"/>
       <c r="H176" s="16"/>
-      <c r="I176" s="33"/>
+      <c r="I176" s="30"/>
     </row>
     <row r="177" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="44" t="s">
+      <c r="A177" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B177" s="34" t="s">
+      <c r="B177" s="31" t="s">
         <v>124</v>
       </c>
       <c r="D177" s="16"/>
@@ -3204,69 +3222,69 @@
       <c r="F177" s="16"/>
       <c r="G177" s="16"/>
       <c r="H177" s="16"/>
-      <c r="I177" s="33"/>
+      <c r="I177" s="30"/>
     </row>
     <row r="178" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="33"/>
-      <c r="B178" s="49" t="s">
+      <c r="A178" s="30"/>
+      <c r="B178" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C178" s="49"/>
-      <c r="D178" s="49"/>
-      <c r="E178" s="49"/>
-      <c r="F178" s="49"/>
-      <c r="G178" s="49"/>
-      <c r="H178" s="49"/>
-      <c r="I178" s="49"/>
+      <c r="C178" s="51"/>
+      <c r="D178" s="51"/>
+      <c r="E178" s="51"/>
+      <c r="F178" s="51"/>
+      <c r="G178" s="51"/>
+      <c r="H178" s="51"/>
+      <c r="I178" s="51"/>
     </row>
     <row r="179" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="33"/>
-      <c r="B179" s="49"/>
-      <c r="C179" s="49"/>
-      <c r="D179" s="49"/>
-      <c r="E179" s="49"/>
-      <c r="F179" s="49"/>
-      <c r="G179" s="49"/>
-      <c r="H179" s="49"/>
-      <c r="I179" s="49"/>
+      <c r="A179" s="30"/>
+      <c r="B179" s="51"/>
+      <c r="C179" s="51"/>
+      <c r="D179" s="51"/>
+      <c r="E179" s="51"/>
+      <c r="F179" s="51"/>
+      <c r="G179" s="51"/>
+      <c r="H179" s="51"/>
+      <c r="I179" s="51"/>
     </row>
     <row r="180" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="33"/>
-      <c r="B180" s="49"/>
-      <c r="C180" s="49"/>
-      <c r="D180" s="49"/>
-      <c r="E180" s="49"/>
-      <c r="F180" s="49"/>
-      <c r="G180" s="49"/>
-      <c r="H180" s="49"/>
-      <c r="I180" s="49"/>
+      <c r="A180" s="30"/>
+      <c r="B180" s="51"/>
+      <c r="C180" s="51"/>
+      <c r="D180" s="51"/>
+      <c r="E180" s="51"/>
+      <c r="F180" s="51"/>
+      <c r="G180" s="51"/>
+      <c r="H180" s="51"/>
+      <c r="I180" s="51"/>
     </row>
     <row r="181" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="33"/>
-      <c r="B181" s="49"/>
-      <c r="C181" s="49"/>
-      <c r="D181" s="49"/>
-      <c r="E181" s="49"/>
-      <c r="F181" s="49"/>
-      <c r="G181" s="49"/>
-      <c r="H181" s="49"/>
-      <c r="I181" s="49"/>
+      <c r="A181" s="30"/>
+      <c r="B181" s="51"/>
+      <c r="C181" s="51"/>
+      <c r="D181" s="51"/>
+      <c r="E181" s="51"/>
+      <c r="F181" s="51"/>
+      <c r="G181" s="51"/>
+      <c r="H181" s="51"/>
+      <c r="I181" s="51"/>
     </row>
     <row r="182" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="33"/>
-      <c r="B182" s="34"/>
+      <c r="A182" s="30"/>
+      <c r="B182" s="31"/>
       <c r="D182" s="16"/>
       <c r="E182" s="16"/>
       <c r="F182" s="16"/>
       <c r="G182" s="16"/>
       <c r="H182" s="16"/>
-      <c r="I182" s="33"/>
+      <c r="I182" s="30"/>
     </row>
     <row r="183" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="44">
+      <c r="A183" s="30">
         <v>3.2</v>
       </c>
-      <c r="B183" s="34" t="s">
+      <c r="B183" s="31" t="s">
         <v>126</v>
       </c>
       <c r="D183" s="16"/>
@@ -3274,34 +3292,34 @@
       <c r="F183" s="16"/>
       <c r="G183" s="16"/>
       <c r="H183" s="16"/>
-      <c r="I183" s="33"/>
+      <c r="I183" s="30"/>
     </row>
     <row r="184" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="33"/>
-      <c r="B184" s="49" t="s">
+      <c r="A184" s="30"/>
+      <c r="B184" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C184" s="49"/>
-      <c r="D184" s="49"/>
-      <c r="E184" s="49"/>
-      <c r="F184" s="49"/>
-      <c r="G184" s="49"/>
-      <c r="H184" s="49"/>
-      <c r="I184" s="49"/>
+      <c r="C184" s="51"/>
+      <c r="D184" s="51"/>
+      <c r="E184" s="51"/>
+      <c r="F184" s="51"/>
+      <c r="G184" s="51"/>
+      <c r="H184" s="51"/>
+      <c r="I184" s="51"/>
     </row>
     <row r="185" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="33"/>
-      <c r="B185" s="49"/>
-      <c r="C185" s="49"/>
-      <c r="D185" s="49"/>
-      <c r="E185" s="49"/>
-      <c r="F185" s="49"/>
-      <c r="G185" s="49"/>
-      <c r="H185" s="49"/>
-      <c r="I185" s="49"/>
+      <c r="A185" s="30"/>
+      <c r="B185" s="51"/>
+      <c r="C185" s="51"/>
+      <c r="D185" s="51"/>
+      <c r="E185" s="51"/>
+      <c r="F185" s="51"/>
+      <c r="G185" s="51"/>
+      <c r="H185" s="51"/>
+      <c r="I185" s="51"/>
     </row>
     <row r="186" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B186" s="7" t="s">
@@ -3312,10 +3330,10 @@
       <c r="F186" s="16"/>
       <c r="G186" s="16"/>
       <c r="H186" s="16"/>
-      <c r="I186" s="33"/>
+      <c r="I186" s="30"/>
     </row>
     <row r="187" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B187" s="7" t="s">
@@ -3326,10 +3344,10 @@
       <c r="F187" s="16"/>
       <c r="G187" s="16"/>
       <c r="H187" s="16"/>
-      <c r="I187" s="33"/>
+      <c r="I187" s="30"/>
     </row>
     <row r="188" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B188" s="7" t="s">
@@ -3340,43 +3358,43 @@
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
       <c r="H188" s="16"/>
-      <c r="I188" s="33"/>
+      <c r="I188" s="30"/>
     </row>
     <row r="189" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
+      <c r="A189" s="38"/>
       <c r="B189" s="7"/>
       <c r="D189" s="16"/>
       <c r="E189" s="16"/>
       <c r="F189" s="16"/>
       <c r="G189" s="16"/>
       <c r="H189" s="16"/>
-      <c r="I189" s="33"/>
+      <c r="I189" s="30"/>
     </row>
     <row r="190" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
+      <c r="A190" s="38"/>
       <c r="B190" s="7"/>
       <c r="D190" s="16"/>
       <c r="E190" s="16"/>
       <c r="F190" s="16"/>
       <c r="G190" s="16"/>
       <c r="H190" s="16"/>
-      <c r="I190" s="33"/>
+      <c r="I190" s="30"/>
     </row>
     <row r="191" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="33"/>
-      <c r="B191" s="34"/>
+      <c r="A191" s="30"/>
+      <c r="B191" s="31"/>
       <c r="D191" s="16"/>
       <c r="E191" s="16"/>
       <c r="F191" s="16"/>
       <c r="G191" s="16"/>
       <c r="H191" s="16"/>
-      <c r="I191" s="33"/>
+      <c r="I191" s="30"/>
     </row>
     <row r="192" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="44">
+      <c r="A192" s="30">
         <v>3.3</v>
       </c>
-      <c r="B192" s="34" t="s">
+      <c r="B192" s="31" t="s">
         <v>127</v>
       </c>
       <c r="D192" s="16"/>
@@ -3384,24 +3402,24 @@
       <c r="F192" s="16"/>
       <c r="G192" s="16"/>
       <c r="H192" s="16"/>
-      <c r="I192" s="33"/>
+      <c r="I192" s="30"/>
     </row>
     <row r="193" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="44"/>
-      <c r="B193" s="47" t="s">
+      <c r="A193" s="30"/>
+      <c r="B193" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C193" s="47"/>
-      <c r="D193" s="47"/>
-      <c r="E193" s="47"/>
-      <c r="F193" s="47"/>
-      <c r="G193" s="47"/>
-      <c r="H193" s="47"/>
-      <c r="I193" s="47"/>
-      <c r="Q193" s="34"/>
+      <c r="C193" s="49"/>
+      <c r="D193" s="49"/>
+      <c r="E193" s="49"/>
+      <c r="F193" s="49"/>
+      <c r="G193" s="49"/>
+      <c r="H193" s="49"/>
+      <c r="I193" s="49"/>
+      <c r="Q193" s="31"/>
     </row>
     <row r="194" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="str">
+      <c r="A194" s="38" t="str">
         <f t="shared" ref="A194:A203" si="0">IF(B194&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -3416,7 +3434,7 @@
       <c r="Q194" s="10"/>
     </row>
     <row r="195" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="str">
+      <c r="A195" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3431,7 +3449,7 @@
       <c r="Q195" s="10"/>
     </row>
     <row r="196" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="str">
+      <c r="A196" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3447,7 +3465,7 @@
       <c r="R196" s="7"/>
     </row>
     <row r="197" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="str">
+      <c r="A197" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3462,7 +3480,7 @@
       <c r="Q197" s="10"/>
     </row>
     <row r="198" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="str">
+      <c r="A198" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3477,7 +3495,7 @@
       <c r="Q198" s="10"/>
     </row>
     <row r="199" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="str">
+      <c r="A199" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3493,7 +3511,7 @@
       <c r="R199" s="7"/>
     </row>
     <row r="200" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="str">
+      <c r="A200" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3508,7 +3526,7 @@
       <c r="Q200" s="10"/>
     </row>
     <row r="201" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="str">
+      <c r="A201" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3519,7 +3537,7 @@
       <c r="Q201" s="10"/>
     </row>
     <row r="202" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="str">
+      <c r="A202" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3534,7 +3552,7 @@
       <c r="Q202" s="10"/>
     </row>
     <row r="203" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="str">
+      <c r="A203" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3549,7 +3567,7 @@
       <c r="Q203" s="10"/>
     </row>
     <row r="204" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="45"/>
+      <c r="A204" s="43"/>
       <c r="M204" s="5" t="str">
         <f t="array" ref="M204">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
@@ -3559,10 +3577,10 @@
       <c r="P204" s="9"/>
     </row>
     <row r="205" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="44">
+      <c r="A205" s="30">
         <v>3.4</v>
       </c>
-      <c r="B205" s="34" t="s">
+      <c r="B205" s="31" t="s">
         <v>116</v>
       </c>
       <c r="M205" s="5" t="str">
@@ -3575,17 +3593,17 @@
       <c r="Q205" s="5"/>
     </row>
     <row r="206" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="44"/>
-      <c r="B206" s="48" t="s">
+      <c r="A206" s="30"/>
+      <c r="B206" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C206" s="48"/>
-      <c r="D206" s="48"/>
-      <c r="E206" s="48"/>
-      <c r="F206" s="48"/>
-      <c r="G206" s="48"/>
-      <c r="H206" s="48"/>
-      <c r="I206" s="48"/>
+      <c r="C206" s="50"/>
+      <c r="D206" s="50"/>
+      <c r="E206" s="50"/>
+      <c r="F206" s="50"/>
+      <c r="G206" s="50"/>
+      <c r="H206" s="50"/>
+      <c r="I206" s="50"/>
       <c r="M206" s="7"/>
       <c r="N206" s="23"/>
       <c r="O206" s="22"/>
@@ -3593,11 +3611,11 @@
       <c r="Q206" s="5"/>
     </row>
     <row r="207" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="44"/>
+      <c r="A207" s="30"/>
       <c r="B207" t="s">
         <v>9</v>
       </c>
-      <c r="E207" s="37" t="s">
+      <c r="E207" s="33" t="s">
         <v>117</v>
       </c>
       <c r="M207" s="12"/>
@@ -3607,7 +3625,7 @@
       <c r="Q207" s="5"/>
     </row>
     <row r="208" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
+      <c r="A208" s="38"/>
       <c r="B208" t="s">
         <v>12</v>
       </c>
@@ -3619,7 +3637,7 @@
       <c r="Q208" s="5"/>
     </row>
     <row r="209" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
+      <c r="A209" s="38"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
       <c r="D209" s="16"/>
@@ -3635,10 +3653,10 @@
       <c r="Q209" s="5"/>
     </row>
     <row r="210" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="33" t="s">
+      <c r="A210" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B210" s="34" t="s">
+      <c r="B210" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D210" s="16"/>
@@ -3646,58 +3664,58 @@
       <c r="F210" s="16"/>
       <c r="G210" s="16"/>
       <c r="H210" s="16"/>
-      <c r="I210" s="33"/>
+      <c r="I210" s="30"/>
       <c r="M210"/>
       <c r="N210"/>
       <c r="O210" s="11"/>
       <c r="P210"/>
     </row>
     <row r="211" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="45"/>
-      <c r="B211" s="47" t="s">
+      <c r="A211" s="43"/>
+      <c r="B211" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C211" s="47"/>
-      <c r="D211" s="47"/>
-      <c r="E211" s="47"/>
-      <c r="F211" s="47"/>
-      <c r="G211" s="47"/>
-      <c r="H211" s="47"/>
-      <c r="I211" s="47"/>
+      <c r="C211" s="49"/>
+      <c r="D211" s="49"/>
+      <c r="E211" s="49"/>
+      <c r="F211" s="49"/>
+      <c r="G211" s="49"/>
+      <c r="H211" s="49"/>
+      <c r="I211" s="49"/>
       <c r="M211"/>
       <c r="N211"/>
     </row>
     <row r="212" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-      <c r="B212" s="28" t="s">
+      <c r="A212" s="38"/>
+      <c r="B212" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C212" s="28"/>
-      <c r="D212" s="58" t="s">
+      <c r="C212" s="27"/>
+      <c r="D212" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E212" s="58"/>
-      <c r="F212" s="58" t="s">
+      <c r="E212" s="60"/>
+      <c r="F212" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G212" s="58"/>
+      <c r="G212" s="60"/>
       <c r="H212" s="9"/>
       <c r="Q212" s="5"/>
     </row>
     <row r="213" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
-      <c r="B213" s="28" t="s">
+      <c r="A213" s="38"/>
+      <c r="B213" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C213" s="28"/>
-      <c r="D213" s="58" t="s">
+      <c r="C213" s="27"/>
+      <c r="D213" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="E213" s="58"/>
-      <c r="F213" s="59">
+      <c r="E213" s="60"/>
+      <c r="F213" s="61">
         <v>10000000</v>
       </c>
-      <c r="G213" s="59"/>
+      <c r="G213" s="61"/>
       <c r="H213" s="23"/>
       <c r="I213" s="7"/>
       <c r="M213" s="5"/>
@@ -3707,24 +3725,24 @@
       <c r="Q213" s="5"/>
     </row>
     <row r="214" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-      <c r="B214" s="28" t="s">
+      <c r="A214" s="38"/>
+      <c r="B214" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C214" s="28"/>
-      <c r="D214" s="58" t="s">
+      <c r="C214" s="27"/>
+      <c r="D214" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E214" s="58"/>
-      <c r="F214" s="59">
+      <c r="E214" s="60"/>
+      <c r="F214" s="61">
         <v>20000000</v>
       </c>
-      <c r="G214" s="59"/>
+      <c r="G214" s="61"/>
       <c r="H214" s="23"/>
       <c r="M214" s="9"/>
     </row>
     <row r="215" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
+      <c r="A215" s="38"/>
       <c r="B215" s="12" t="s">
         <v>118</v>
       </c>
@@ -3737,7 +3755,7 @@
       <c r="M215" s="23"/>
     </row>
     <row r="216" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
+      <c r="A216" s="38"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
       <c r="D216" s="12"/>
@@ -3749,66 +3767,66 @@
       <c r="M216" s="23"/>
     </row>
     <row r="217" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="33" t="s">
+      <c r="A217" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B217" s="34" t="s">
+      <c r="B217" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C217" s="35"/>
-      <c r="I217" s="33"/>
+      <c r="C217" s="32"/>
+      <c r="I217" s="30"/>
       <c r="M217" s="22"/>
     </row>
     <row r="218" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="49" t="s">
+      <c r="A218" s="38"/>
+      <c r="B218" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="C218" s="49"/>
-      <c r="D218" s="49"/>
-      <c r="E218" s="49"/>
-      <c r="F218" s="49"/>
-      <c r="G218" s="49"/>
-      <c r="H218" s="49"/>
-      <c r="I218" s="49"/>
+      <c r="C218" s="51"/>
+      <c r="D218" s="51"/>
+      <c r="E218" s="51"/>
+      <c r="F218" s="51"/>
+      <c r="G218" s="51"/>
+      <c r="H218" s="51"/>
+      <c r="I218" s="51"/>
       <c r="M218" s="12"/>
     </row>
     <row r="219" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
-      <c r="B219" s="49"/>
-      <c r="C219" s="49"/>
-      <c r="D219" s="49"/>
-      <c r="E219" s="49"/>
-      <c r="F219" s="49"/>
-      <c r="G219" s="49"/>
-      <c r="H219" s="49"/>
-      <c r="I219" s="49"/>
+      <c r="A219" s="38"/>
+      <c r="B219" s="51"/>
+      <c r="C219" s="51"/>
+      <c r="D219" s="51"/>
+      <c r="E219" s="51"/>
+      <c r="F219" s="51"/>
+      <c r="G219" s="51"/>
+      <c r="H219" s="51"/>
+      <c r="I219" s="51"/>
     </row>
     <row r="220" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="49"/>
-      <c r="C220" s="49"/>
-      <c r="D220" s="49"/>
-      <c r="E220" s="49"/>
-      <c r="F220" s="49"/>
-      <c r="G220" s="49"/>
-      <c r="H220" s="49"/>
-      <c r="I220" s="49"/>
+      <c r="A220" s="38"/>
+      <c r="B220" s="51"/>
+      <c r="C220" s="51"/>
+      <c r="D220" s="51"/>
+      <c r="E220" s="51"/>
+      <c r="F220" s="51"/>
+      <c r="G220" s="51"/>
+      <c r="H220" s="51"/>
+      <c r="I220" s="51"/>
     </row>
     <row r="221" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
-      <c r="B221" s="49"/>
-      <c r="C221" s="49"/>
-      <c r="D221" s="49"/>
-      <c r="E221" s="49"/>
-      <c r="F221" s="49"/>
-      <c r="G221" s="49"/>
-      <c r="H221" s="49"/>
-      <c r="I221" s="49"/>
+      <c r="A221" s="38"/>
+      <c r="B221" s="51"/>
+      <c r="C221" s="51"/>
+      <c r="D221" s="51"/>
+      <c r="E221" s="51"/>
+      <c r="F221" s="51"/>
+      <c r="G221" s="51"/>
+      <c r="H221" s="51"/>
+      <c r="I221" s="51"/>
       <c r="M221" s="5"/>
     </row>
     <row r="222" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
+      <c r="A222" s="38"/>
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
       <c r="D222" s="13"/>
@@ -3819,10 +3837,10 @@
       <c r="I222" s="13"/>
     </row>
     <row r="223" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="33" t="s">
+      <c r="A223" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B223" s="34" t="s">
+      <c r="B223" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D223" s="16"/>
@@ -3830,7 +3848,7 @@
       <c r="F223" s="16"/>
       <c r="G223" s="16"/>
       <c r="H223" s="16"/>
-      <c r="I223" s="33"/>
+      <c r="I223" s="30"/>
     </row>
     <row r="224" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="21" t="s">
@@ -3847,90 +3865,90 @@
       <c r="I224" s="21"/>
     </row>
     <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-      <c r="B225" s="49" t="s">
+      <c r="A225" s="38"/>
+      <c r="B225" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C225" s="49"/>
-      <c r="D225" s="49"/>
-      <c r="E225" s="49"/>
-      <c r="F225" s="49"/>
-      <c r="G225" s="49"/>
-      <c r="H225" s="49"/>
-      <c r="I225" s="49"/>
+      <c r="C225" s="51"/>
+      <c r="D225" s="51"/>
+      <c r="E225" s="51"/>
+      <c r="F225" s="51"/>
+      <c r="G225" s="51"/>
+      <c r="H225" s="51"/>
+      <c r="I225" s="51"/>
     </row>
     <row r="226" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="49"/>
-      <c r="C226" s="49"/>
-      <c r="D226" s="49"/>
-      <c r="E226" s="49"/>
-      <c r="F226" s="49"/>
-      <c r="G226" s="49"/>
-      <c r="H226" s="49"/>
-      <c r="I226" s="49"/>
+      <c r="A226" s="38"/>
+      <c r="B226" s="51"/>
+      <c r="C226" s="51"/>
+      <c r="D226" s="51"/>
+      <c r="E226" s="51"/>
+      <c r="F226" s="51"/>
+      <c r="G226" s="51"/>
+      <c r="H226" s="51"/>
+      <c r="I226" s="51"/>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="B227" s="60" t="s">
+      <c r="A227" s="38"/>
+      <c r="B227" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C227" s="61"/>
-      <c r="D227" s="61"/>
-      <c r="E227" s="62"/>
-      <c r="F227" s="39" t="s">
+      <c r="C227" s="63"/>
+      <c r="D227" s="63"/>
+      <c r="E227" s="64"/>
+      <c r="F227" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G227" s="39" t="s">
+      <c r="G227" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H227" s="9"/>
     </row>
     <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-      <c r="B228" s="63"/>
-      <c r="C228" s="64"/>
-      <c r="D228" s="64"/>
-      <c r="E228" s="65"/>
-      <c r="F228" s="31"/>
-      <c r="G228" s="31"/>
+      <c r="A228" s="38"/>
+      <c r="B228" s="65"/>
+      <c r="C228" s="66"/>
+      <c r="D228" s="66"/>
+      <c r="E228" s="67"/>
+      <c r="F228" s="48"/>
+      <c r="G228" s="48"/>
       <c r="H228" s="23"/>
       <c r="I228" s="7"/>
     </row>
     <row r="229" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-      <c r="B229" s="63"/>
-      <c r="C229" s="64"/>
-      <c r="D229" s="64"/>
-      <c r="E229" s="65"/>
-      <c r="F229" s="31"/>
-      <c r="G229" s="31"/>
+      <c r="A229" s="38"/>
+      <c r="B229" s="65"/>
+      <c r="C229" s="66"/>
+      <c r="D229" s="66"/>
+      <c r="E229" s="67"/>
+      <c r="F229" s="48"/>
+      <c r="G229" s="48"/>
       <c r="H229" s="23"/>
       <c r="I229" s="7"/>
     </row>
     <row r="230" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-      <c r="B230" s="63"/>
-      <c r="C230" s="64"/>
-      <c r="D230" s="64"/>
-      <c r="E230" s="65"/>
-      <c r="F230" s="31"/>
-      <c r="G230" s="31"/>
+      <c r="A230" s="38"/>
+      <c r="B230" s="65"/>
+      <c r="C230" s="66"/>
+      <c r="D230" s="66"/>
+      <c r="E230" s="67"/>
+      <c r="F230" s="48"/>
+      <c r="G230" s="48"/>
       <c r="H230" s="23"/>
       <c r="I230" s="7"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-      <c r="C231" s="56" t="s">
+      <c r="A231" s="38"/>
+      <c r="C231" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D231" s="56"/>
-      <c r="E231" s="56"/>
-      <c r="F231" s="40">
+      <c r="D231" s="58"/>
+      <c r="E231" s="58"/>
+      <c r="F231" s="68">
         <f>SUM(F229:F230)</f>
         <v>0</v>
       </c>
-      <c r="G231" s="40">
+      <c r="G231" s="68">
         <f>SUM(G229:G230)</f>
         <v>0</v>
       </c>
@@ -3951,42 +3969,42 @@
       <c r="H232" s="23"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-      <c r="B233" s="49" t="s">
+      <c r="A233" s="38"/>
+      <c r="B233" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C233" s="49"/>
-      <c r="D233" s="49"/>
-      <c r="E233" s="49"/>
-      <c r="F233" s="49"/>
-      <c r="G233" s="49"/>
-      <c r="H233" s="49"/>
-      <c r="I233" s="49"/>
+      <c r="C233" s="51"/>
+      <c r="D233" s="51"/>
+      <c r="E233" s="51"/>
+      <c r="F233" s="51"/>
+      <c r="G233" s="51"/>
+      <c r="H233" s="51"/>
+      <c r="I233" s="51"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="21"/>
-      <c r="B234" s="49"/>
-      <c r="C234" s="49"/>
-      <c r="D234" s="49"/>
-      <c r="E234" s="49"/>
-      <c r="F234" s="49"/>
-      <c r="G234" s="49"/>
-      <c r="H234" s="49"/>
-      <c r="I234" s="49"/>
+      <c r="B234" s="51"/>
+      <c r="C234" s="51"/>
+      <c r="D234" s="51"/>
+      <c r="E234" s="51"/>
+      <c r="F234" s="51"/>
+      <c r="G234" s="51"/>
+      <c r="H234" s="51"/>
+      <c r="I234" s="51"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="21"/>
-      <c r="B235" s="49"/>
-      <c r="C235" s="49"/>
-      <c r="D235" s="49"/>
-      <c r="E235" s="49"/>
-      <c r="F235" s="49"/>
-      <c r="G235" s="49"/>
-      <c r="H235" s="49"/>
-      <c r="I235" s="49"/>
+      <c r="B235" s="51"/>
+      <c r="C235" s="51"/>
+      <c r="D235" s="51"/>
+      <c r="E235" s="51"/>
+      <c r="F235" s="51"/>
+      <c r="G235" s="51"/>
+      <c r="H235" s="51"/>
+      <c r="I235" s="51"/>
     </row>
     <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
+      <c r="A236" s="38"/>
       <c r="B236" t="s">
         <v>16</v>
       </c>
@@ -4002,7 +4020,7 @@
       <c r="H236" s="24"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
+      <c r="A237" s="38"/>
       <c r="B237" t="s">
         <v>133</v>
       </c>
@@ -4018,7 +4036,7 @@
       <c r="H237" s="24"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
+      <c r="A238" s="38"/>
       <c r="B238" t="s">
         <v>134</v>
       </c>
@@ -4034,7 +4052,7 @@
       <c r="H238" s="24"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
+      <c r="A239" s="38"/>
       <c r="E239" s="25"/>
       <c r="F239" s="25"/>
       <c r="H239" s="24"/>
@@ -4051,19 +4069,19 @@
       <c r="H240" s="24"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
+      <c r="A241" s="38"/>
       <c r="B241" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C241" s="41"/>
-      <c r="D241" s="41"/>
-      <c r="E241" s="41"/>
-      <c r="F241" s="40"/>
-      <c r="G241" s="40"/>
+      <c r="C241" s="36"/>
+      <c r="D241" s="36"/>
+      <c r="E241" s="36"/>
+      <c r="F241" s="35"/>
+      <c r="G241" s="35"/>
       <c r="H241" s="23"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" s="46"/>
+      <c r="A242" s="44"/>
       <c r="B242" s="17"/>
       <c r="C242" s="17"/>
       <c r="D242" s="17"/>
@@ -4074,10 +4092,10 @@
       <c r="I242" s="17"/>
     </row>
     <row r="243" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="33" t="s">
+      <c r="A243" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B243" s="34" t="s">
+      <c r="B243" s="31" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4098,7 +4116,7 @@
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
+      <c r="A246" s="38"/>
       <c r="B246" s="12" t="s">
         <v>45</v>
       </c>
@@ -4107,11 +4125,13 @@
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
-      <c r="B247" s="12"/>
+      <c r="A247" s="38"/>
+      <c r="B247" s="12" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="38"/>
       <c r="B248" s="12" t="s">
         <v>46</v>
       </c>
@@ -4120,700 +4140,700 @@
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
+      <c r="A249" s="38"/>
       <c r="B249" s="12"/>
       <c r="F249" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
+      <c r="A250" s="38"/>
       <c r="B250" s="12"/>
       <c r="F250" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
+      <c r="A251" s="38"/>
       <c r="B251" s="12"/>
       <c r="F251" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
+      <c r="A252" s="38"/>
       <c r="B252" s="12"/>
       <c r="F252" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
+      <c r="A253" s="38"/>
       <c r="B253" s="12"/>
       <c r="F253" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="38"/>
       <c r="B254" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="38"/>
       <c r="B255" s="10"/>
     </row>
     <row r="256" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
+      <c r="A256" s="38"/>
       <c r="B256" s="10"/>
     </row>
     <row r="257" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
+      <c r="A257" s="38"/>
       <c r="B257" s="10"/>
     </row>
     <row r="258" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="38"/>
       <c r="B258" s="10"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="38"/>
       <c r="B259" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F259" s="57">
+      <c r="F259" s="59">
         <f ca="1">TODAY()</f>
-        <v>45320</v>
-      </c>
-      <c r="G259" s="57"/>
+        <v>45357</v>
+      </c>
+      <c r="G259" s="59"/>
     </row>
     <row r="260" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="36" t="s">
+      <c r="A260" s="45" t="s">
         <v>50</v>
       </c>
       <c r="C260" s="6"/>
       <c r="I260" s="21"/>
     </row>
     <row r="261" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="8">
+      <c r="A261" s="46">
         <v>1</v>
       </c>
-      <c r="B261" s="55" t="s">
+      <c r="B261" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C261" s="55"/>
-      <c r="D261" s="55"/>
-      <c r="E261" s="55"/>
-      <c r="F261" s="55"/>
-      <c r="G261" s="55"/>
-      <c r="H261" s="55"/>
-      <c r="I261" s="55"/>
+      <c r="C261" s="57"/>
+      <c r="D261" s="57"/>
+      <c r="E261" s="57"/>
+      <c r="F261" s="57"/>
+      <c r="G261" s="57"/>
+      <c r="H261" s="57"/>
+      <c r="I261" s="57"/>
     </row>
     <row r="262" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="8">
+      <c r="A262" s="46">
         <v>2</v>
       </c>
-      <c r="B262" s="55" t="s">
+      <c r="B262" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C262" s="55"/>
-      <c r="D262" s="55"/>
-      <c r="E262" s="55"/>
-      <c r="F262" s="55"/>
-      <c r="G262" s="55"/>
-      <c r="H262" s="55"/>
-      <c r="I262" s="55"/>
+      <c r="C262" s="57"/>
+      <c r="D262" s="57"/>
+      <c r="E262" s="57"/>
+      <c r="F262" s="57"/>
+      <c r="G262" s="57"/>
+      <c r="H262" s="57"/>
+      <c r="I262" s="57"/>
     </row>
     <row r="263" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="8">
+      <c r="A263" s="46">
         <v>3</v>
       </c>
-      <c r="B263" s="55" t="s">
+      <c r="B263" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C263" s="55"/>
-      <c r="D263" s="55"/>
-      <c r="E263" s="55"/>
-      <c r="F263" s="55"/>
-      <c r="G263" s="55"/>
-      <c r="H263" s="55"/>
-      <c r="I263" s="55"/>
+      <c r="C263" s="57"/>
+      <c r="D263" s="57"/>
+      <c r="E263" s="57"/>
+      <c r="F263" s="57"/>
+      <c r="G263" s="57"/>
+      <c r="H263" s="57"/>
+      <c r="I263" s="57"/>
     </row>
     <row r="264" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="8">
+      <c r="A264" s="46">
         <v>4</v>
       </c>
-      <c r="B264" s="55" t="s">
+      <c r="B264" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C264" s="55"/>
-      <c r="D264" s="55"/>
-      <c r="E264" s="55"/>
-      <c r="F264" s="55"/>
-      <c r="G264" s="55"/>
-      <c r="H264" s="55"/>
-      <c r="I264" s="55"/>
+      <c r="C264" s="57"/>
+      <c r="D264" s="57"/>
+      <c r="E264" s="57"/>
+      <c r="F264" s="57"/>
+      <c r="G264" s="57"/>
+      <c r="H264" s="57"/>
+      <c r="I264" s="57"/>
     </row>
     <row r="265" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="8">
+      <c r="A265" s="46">
         <v>5</v>
       </c>
-      <c r="B265" s="55" t="s">
+      <c r="B265" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C265" s="55"/>
-      <c r="D265" s="55"/>
-      <c r="E265" s="55"/>
-      <c r="F265" s="55"/>
-      <c r="G265" s="55"/>
-      <c r="H265" s="55"/>
-      <c r="I265" s="55"/>
+      <c r="C265" s="57"/>
+      <c r="D265" s="57"/>
+      <c r="E265" s="57"/>
+      <c r="F265" s="57"/>
+      <c r="G265" s="57"/>
+      <c r="H265" s="57"/>
+      <c r="I265" s="57"/>
     </row>
     <row r="266" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="8"/>
-      <c r="B266" s="55" t="s">
+      <c r="A266" s="46"/>
+      <c r="B266" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C266" s="55"/>
-      <c r="D266" s="55"/>
-      <c r="E266" s="55"/>
-      <c r="F266" s="55"/>
-      <c r="G266" s="55"/>
-      <c r="H266" s="55"/>
-      <c r="I266" s="55"/>
+      <c r="C266" s="57"/>
+      <c r="D266" s="57"/>
+      <c r="E266" s="57"/>
+      <c r="F266" s="57"/>
+      <c r="G266" s="57"/>
+      <c r="H266" s="57"/>
+      <c r="I266" s="57"/>
     </row>
     <row r="267" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="8"/>
-      <c r="B267" s="55" t="s">
+      <c r="A267" s="46"/>
+      <c r="B267" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C267" s="55"/>
-      <c r="D267" s="55"/>
-      <c r="E267" s="55"/>
-      <c r="F267" s="55"/>
-      <c r="G267" s="55"/>
-      <c r="H267" s="55"/>
-      <c r="I267" s="55"/>
+      <c r="C267" s="57"/>
+      <c r="D267" s="57"/>
+      <c r="E267" s="57"/>
+      <c r="F267" s="57"/>
+      <c r="G267" s="57"/>
+      <c r="H267" s="57"/>
+      <c r="I267" s="57"/>
     </row>
     <row r="268" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="8"/>
-      <c r="B268" s="55" t="s">
+      <c r="A268" s="46"/>
+      <c r="B268" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C268" s="55"/>
-      <c r="D268" s="55"/>
-      <c r="E268" s="55"/>
-      <c r="F268" s="55"/>
-      <c r="G268" s="55"/>
-      <c r="H268" s="55"/>
-      <c r="I268" s="55"/>
+      <c r="C268" s="57"/>
+      <c r="D268" s="57"/>
+      <c r="E268" s="57"/>
+      <c r="F268" s="57"/>
+      <c r="G268" s="57"/>
+      <c r="H268" s="57"/>
+      <c r="I268" s="57"/>
     </row>
     <row r="269" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="8">
+      <c r="A269" s="46">
         <v>6</v>
       </c>
-      <c r="B269" s="55" t="s">
+      <c r="B269" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C269" s="55"/>
-      <c r="D269" s="55"/>
-      <c r="E269" s="55"/>
-      <c r="F269" s="55"/>
-      <c r="G269" s="55"/>
-      <c r="H269" s="55"/>
-      <c r="I269" s="55"/>
+      <c r="C269" s="57"/>
+      <c r="D269" s="57"/>
+      <c r="E269" s="57"/>
+      <c r="F269" s="57"/>
+      <c r="G269" s="57"/>
+      <c r="H269" s="57"/>
+      <c r="I269" s="57"/>
     </row>
     <row r="270" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="8"/>
-      <c r="B270" s="55" t="s">
+      <c r="A270" s="46"/>
+      <c r="B270" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C270" s="55"/>
-      <c r="D270" s="55"/>
-      <c r="E270" s="55"/>
-      <c r="F270" s="55"/>
-      <c r="G270" s="55"/>
-      <c r="H270" s="55"/>
-      <c r="I270" s="55"/>
+      <c r="C270" s="57"/>
+      <c r="D270" s="57"/>
+      <c r="E270" s="57"/>
+      <c r="F270" s="57"/>
+      <c r="G270" s="57"/>
+      <c r="H270" s="57"/>
+      <c r="I270" s="57"/>
     </row>
     <row r="271" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="8"/>
-      <c r="B271" s="55" t="s">
+      <c r="A271" s="46"/>
+      <c r="B271" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C271" s="55"/>
-      <c r="D271" s="55"/>
-      <c r="E271" s="55"/>
-      <c r="F271" s="55"/>
-      <c r="G271" s="55"/>
-      <c r="H271" s="55"/>
-      <c r="I271" s="55"/>
+      <c r="C271" s="57"/>
+      <c r="D271" s="57"/>
+      <c r="E271" s="57"/>
+      <c r="F271" s="57"/>
+      <c r="G271" s="57"/>
+      <c r="H271" s="57"/>
+      <c r="I271" s="57"/>
     </row>
     <row r="272" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="8">
+      <c r="A272" s="46">
         <v>7</v>
       </c>
-      <c r="B272" s="55" t="s">
+      <c r="B272" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C272" s="55"/>
-      <c r="D272" s="55"/>
-      <c r="E272" s="55"/>
-      <c r="F272" s="55"/>
-      <c r="G272" s="55"/>
-      <c r="H272" s="55"/>
-      <c r="I272" s="55"/>
+      <c r="C272" s="57"/>
+      <c r="D272" s="57"/>
+      <c r="E272" s="57"/>
+      <c r="F272" s="57"/>
+      <c r="G272" s="57"/>
+      <c r="H272" s="57"/>
+      <c r="I272" s="57"/>
     </row>
     <row r="273" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="8">
+      <c r="A273" s="46">
         <v>8</v>
       </c>
-      <c r="B273" s="55" t="s">
+      <c r="B273" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C273" s="55"/>
-      <c r="D273" s="55"/>
-      <c r="E273" s="55"/>
-      <c r="F273" s="55"/>
-      <c r="G273" s="55"/>
-      <c r="H273" s="55"/>
-      <c r="I273" s="55"/>
+      <c r="C273" s="57"/>
+      <c r="D273" s="57"/>
+      <c r="E273" s="57"/>
+      <c r="F273" s="57"/>
+      <c r="G273" s="57"/>
+      <c r="H273" s="57"/>
+      <c r="I273" s="57"/>
     </row>
     <row r="274" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="8"/>
-      <c r="B274" s="55" t="s">
+      <c r="A274" s="46"/>
+      <c r="B274" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C274" s="55"/>
-      <c r="D274" s="55"/>
-      <c r="E274" s="55"/>
-      <c r="F274" s="55"/>
-      <c r="G274" s="55"/>
-      <c r="H274" s="55"/>
-      <c r="I274" s="55"/>
+      <c r="C274" s="57"/>
+      <c r="D274" s="57"/>
+      <c r="E274" s="57"/>
+      <c r="F274" s="57"/>
+      <c r="G274" s="57"/>
+      <c r="H274" s="57"/>
+      <c r="I274" s="57"/>
     </row>
     <row r="275" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="8"/>
-      <c r="B275" s="55" t="s">
+      <c r="A275" s="46"/>
+      <c r="B275" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C275" s="55"/>
-      <c r="D275" s="55"/>
-      <c r="E275" s="55"/>
-      <c r="F275" s="55"/>
-      <c r="G275" s="55"/>
-      <c r="H275" s="55"/>
-      <c r="I275" s="55"/>
+      <c r="C275" s="57"/>
+      <c r="D275" s="57"/>
+      <c r="E275" s="57"/>
+      <c r="F275" s="57"/>
+      <c r="G275" s="57"/>
+      <c r="H275" s="57"/>
+      <c r="I275" s="57"/>
     </row>
     <row r="276" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="8"/>
-      <c r="B276" s="55" t="s">
+      <c r="A276" s="46"/>
+      <c r="B276" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C276" s="55"/>
-      <c r="D276" s="55"/>
-      <c r="E276" s="55"/>
-      <c r="F276" s="55"/>
-      <c r="G276" s="55"/>
-      <c r="H276" s="55"/>
-      <c r="I276" s="55"/>
+      <c r="C276" s="57"/>
+      <c r="D276" s="57"/>
+      <c r="E276" s="57"/>
+      <c r="F276" s="57"/>
+      <c r="G276" s="57"/>
+      <c r="H276" s="57"/>
+      <c r="I276" s="57"/>
     </row>
     <row r="277" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="8"/>
-      <c r="B277" s="55" t="s">
+      <c r="A277" s="46"/>
+      <c r="B277" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C277" s="55"/>
-      <c r="D277" s="55"/>
-      <c r="E277" s="55"/>
-      <c r="F277" s="55"/>
-      <c r="G277" s="55"/>
-      <c r="H277" s="55"/>
-      <c r="I277" s="55"/>
+      <c r="C277" s="57"/>
+      <c r="D277" s="57"/>
+      <c r="E277" s="57"/>
+      <c r="F277" s="57"/>
+      <c r="G277" s="57"/>
+      <c r="H277" s="57"/>
+      <c r="I277" s="57"/>
     </row>
     <row r="278" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="8"/>
-      <c r="B278" s="55" t="s">
+      <c r="A278" s="46"/>
+      <c r="B278" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C278" s="55"/>
-      <c r="D278" s="55"/>
-      <c r="E278" s="55"/>
-      <c r="F278" s="55"/>
-      <c r="G278" s="55"/>
-      <c r="H278" s="55"/>
-      <c r="I278" s="55"/>
+      <c r="C278" s="57"/>
+      <c r="D278" s="57"/>
+      <c r="E278" s="57"/>
+      <c r="F278" s="57"/>
+      <c r="G278" s="57"/>
+      <c r="H278" s="57"/>
+      <c r="I278" s="57"/>
     </row>
     <row r="279" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="8"/>
-      <c r="B279" s="55" t="s">
+      <c r="A279" s="46"/>
+      <c r="B279" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C279" s="55"/>
-      <c r="D279" s="55"/>
-      <c r="E279" s="55"/>
-      <c r="F279" s="55"/>
-      <c r="G279" s="55"/>
-      <c r="H279" s="55"/>
-      <c r="I279" s="55"/>
+      <c r="C279" s="57"/>
+      <c r="D279" s="57"/>
+      <c r="E279" s="57"/>
+      <c r="F279" s="57"/>
+      <c r="G279" s="57"/>
+      <c r="H279" s="57"/>
+      <c r="I279" s="57"/>
     </row>
     <row r="280" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="8">
+      <c r="A280" s="46">
         <v>9</v>
       </c>
-      <c r="B280" s="55" t="s">
+      <c r="B280" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C280" s="55"/>
-      <c r="D280" s="55"/>
-      <c r="E280" s="55"/>
-      <c r="F280" s="55"/>
-      <c r="G280" s="55"/>
-      <c r="H280" s="55"/>
-      <c r="I280" s="55"/>
+      <c r="C280" s="57"/>
+      <c r="D280" s="57"/>
+      <c r="E280" s="57"/>
+      <c r="F280" s="57"/>
+      <c r="G280" s="57"/>
+      <c r="H280" s="57"/>
+      <c r="I280" s="57"/>
     </row>
     <row r="281" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="8">
+      <c r="A281" s="46">
         <v>10</v>
       </c>
-      <c r="B281" s="55" t="s">
+      <c r="B281" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C281" s="55"/>
-      <c r="D281" s="55"/>
-      <c r="E281" s="55"/>
-      <c r="F281" s="55"/>
-      <c r="G281" s="55"/>
-      <c r="H281" s="55"/>
-      <c r="I281" s="55"/>
+      <c r="C281" s="57"/>
+      <c r="D281" s="57"/>
+      <c r="E281" s="57"/>
+      <c r="F281" s="57"/>
+      <c r="G281" s="57"/>
+      <c r="H281" s="57"/>
+      <c r="I281" s="57"/>
     </row>
     <row r="282" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="8"/>
-      <c r="B282" s="55" t="s">
+      <c r="A282" s="46"/>
+      <c r="B282" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C282" s="55"/>
-      <c r="D282" s="55"/>
-      <c r="E282" s="55"/>
-      <c r="F282" s="55"/>
-      <c r="G282" s="55"/>
-      <c r="H282" s="55"/>
-      <c r="I282" s="55"/>
+      <c r="C282" s="57"/>
+      <c r="D282" s="57"/>
+      <c r="E282" s="57"/>
+      <c r="F282" s="57"/>
+      <c r="G282" s="57"/>
+      <c r="H282" s="57"/>
+      <c r="I282" s="57"/>
     </row>
     <row r="283" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="8"/>
-      <c r="B283" s="55" t="s">
+      <c r="A283" s="46"/>
+      <c r="B283" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C283" s="55"/>
-      <c r="D283" s="55"/>
-      <c r="E283" s="55"/>
-      <c r="F283" s="55"/>
-      <c r="G283" s="55"/>
-      <c r="H283" s="55"/>
-      <c r="I283" s="55"/>
+      <c r="C283" s="57"/>
+      <c r="D283" s="57"/>
+      <c r="E283" s="57"/>
+      <c r="F283" s="57"/>
+      <c r="G283" s="57"/>
+      <c r="H283" s="57"/>
+      <c r="I283" s="57"/>
     </row>
     <row r="284" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="8"/>
-      <c r="B284" s="55" t="s">
+      <c r="A284" s="46"/>
+      <c r="B284" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C284" s="55"/>
-      <c r="D284" s="55"/>
-      <c r="E284" s="55"/>
-      <c r="F284" s="55"/>
-      <c r="G284" s="55"/>
-      <c r="H284" s="55"/>
-      <c r="I284" s="55"/>
+      <c r="C284" s="57"/>
+      <c r="D284" s="57"/>
+      <c r="E284" s="57"/>
+      <c r="F284" s="57"/>
+      <c r="G284" s="57"/>
+      <c r="H284" s="57"/>
+      <c r="I284" s="57"/>
     </row>
     <row r="285" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="8"/>
-      <c r="B285" s="55" t="s">
+      <c r="A285" s="46"/>
+      <c r="B285" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C285" s="55"/>
-      <c r="D285" s="55"/>
-      <c r="E285" s="55"/>
-      <c r="F285" s="55"/>
-      <c r="G285" s="55"/>
-      <c r="H285" s="55"/>
-      <c r="I285" s="55"/>
+      <c r="C285" s="57"/>
+      <c r="D285" s="57"/>
+      <c r="E285" s="57"/>
+      <c r="F285" s="57"/>
+      <c r="G285" s="57"/>
+      <c r="H285" s="57"/>
+      <c r="I285" s="57"/>
     </row>
     <row r="286" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="8">
+      <c r="A286" s="46">
         <v>11</v>
       </c>
-      <c r="B286" s="55" t="s">
+      <c r="B286" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C286" s="55"/>
-      <c r="D286" s="55"/>
-      <c r="E286" s="55"/>
-      <c r="F286" s="55"/>
-      <c r="G286" s="55"/>
-      <c r="H286" s="55"/>
-      <c r="I286" s="55"/>
+      <c r="C286" s="57"/>
+      <c r="D286" s="57"/>
+      <c r="E286" s="57"/>
+      <c r="F286" s="57"/>
+      <c r="G286" s="57"/>
+      <c r="H286" s="57"/>
+      <c r="I286" s="57"/>
     </row>
     <row r="287" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="8"/>
-      <c r="B287" s="55" t="s">
+      <c r="A287" s="46"/>
+      <c r="B287" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C287" s="55"/>
-      <c r="D287" s="55"/>
-      <c r="E287" s="55"/>
-      <c r="F287" s="55"/>
-      <c r="G287" s="55"/>
-      <c r="H287" s="55"/>
-      <c r="I287" s="55"/>
+      <c r="C287" s="57"/>
+      <c r="D287" s="57"/>
+      <c r="E287" s="57"/>
+      <c r="F287" s="57"/>
+      <c r="G287" s="57"/>
+      <c r="H287" s="57"/>
+      <c r="I287" s="57"/>
     </row>
     <row r="288" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="8"/>
-      <c r="B288" s="55" t="s">
+      <c r="A288" s="46"/>
+      <c r="B288" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C288" s="55"/>
-      <c r="D288" s="55"/>
-      <c r="E288" s="55"/>
-      <c r="F288" s="55"/>
-      <c r="G288" s="55"/>
-      <c r="H288" s="55"/>
-      <c r="I288" s="55"/>
+      <c r="C288" s="57"/>
+      <c r="D288" s="57"/>
+      <c r="E288" s="57"/>
+      <c r="F288" s="57"/>
+      <c r="G288" s="57"/>
+      <c r="H288" s="57"/>
+      <c r="I288" s="57"/>
     </row>
     <row r="289" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="8">
+      <c r="A289" s="46">
         <v>12</v>
       </c>
-      <c r="B289" s="55" t="s">
+      <c r="B289" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C289" s="55"/>
-      <c r="D289" s="55"/>
-      <c r="E289" s="55"/>
-      <c r="F289" s="55"/>
-      <c r="G289" s="55"/>
-      <c r="H289" s="55"/>
-      <c r="I289" s="55"/>
+      <c r="C289" s="57"/>
+      <c r="D289" s="57"/>
+      <c r="E289" s="57"/>
+      <c r="F289" s="57"/>
+      <c r="G289" s="57"/>
+      <c r="H289" s="57"/>
+      <c r="I289" s="57"/>
     </row>
     <row r="290" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="8"/>
-      <c r="B290" s="55" t="s">
+      <c r="A290" s="46"/>
+      <c r="B290" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C290" s="55"/>
-      <c r="D290" s="55"/>
-      <c r="E290" s="55"/>
-      <c r="F290" s="55"/>
-      <c r="G290" s="55"/>
-      <c r="H290" s="55"/>
-      <c r="I290" s="55"/>
+      <c r="C290" s="57"/>
+      <c r="D290" s="57"/>
+      <c r="E290" s="57"/>
+      <c r="F290" s="57"/>
+      <c r="G290" s="57"/>
+      <c r="H290" s="57"/>
+      <c r="I290" s="57"/>
     </row>
     <row r="291" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="8"/>
-      <c r="B291" s="55" t="s">
+      <c r="A291" s="46"/>
+      <c r="B291" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C291" s="55"/>
-      <c r="D291" s="55"/>
-      <c r="E291" s="55"/>
-      <c r="F291" s="55"/>
-      <c r="G291" s="55"/>
-      <c r="H291" s="55"/>
-      <c r="I291" s="55"/>
+      <c r="C291" s="57"/>
+      <c r="D291" s="57"/>
+      <c r="E291" s="57"/>
+      <c r="F291" s="57"/>
+      <c r="G291" s="57"/>
+      <c r="H291" s="57"/>
+      <c r="I291" s="57"/>
     </row>
     <row r="292" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="8"/>
-      <c r="B292" s="55" t="s">
+      <c r="A292" s="46"/>
+      <c r="B292" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C292" s="55"/>
-      <c r="D292" s="55"/>
-      <c r="E292" s="55"/>
-      <c r="F292" s="55"/>
-      <c r="G292" s="55"/>
-      <c r="H292" s="55"/>
-      <c r="I292" s="55"/>
+      <c r="C292" s="57"/>
+      <c r="D292" s="57"/>
+      <c r="E292" s="57"/>
+      <c r="F292" s="57"/>
+      <c r="G292" s="57"/>
+      <c r="H292" s="57"/>
+      <c r="I292" s="57"/>
     </row>
     <row r="293" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="8"/>
-      <c r="B293" s="55" t="s">
+      <c r="A293" s="46"/>
+      <c r="B293" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C293" s="55"/>
-      <c r="D293" s="55"/>
-      <c r="E293" s="55"/>
-      <c r="F293" s="55"/>
-      <c r="G293" s="55"/>
-      <c r="H293" s="55"/>
-      <c r="I293" s="55"/>
+      <c r="C293" s="57"/>
+      <c r="D293" s="57"/>
+      <c r="E293" s="57"/>
+      <c r="F293" s="57"/>
+      <c r="G293" s="57"/>
+      <c r="H293" s="57"/>
+      <c r="I293" s="57"/>
     </row>
     <row r="294" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="8">
+      <c r="A294" s="46">
         <v>13</v>
       </c>
-      <c r="B294" s="55" t="s">
+      <c r="B294" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C294" s="55"/>
-      <c r="D294" s="55"/>
-      <c r="E294" s="55"/>
-      <c r="F294" s="55"/>
-      <c r="G294" s="55"/>
-      <c r="H294" s="55"/>
-      <c r="I294" s="55"/>
+      <c r="C294" s="57"/>
+      <c r="D294" s="57"/>
+      <c r="E294" s="57"/>
+      <c r="F294" s="57"/>
+      <c r="G294" s="57"/>
+      <c r="H294" s="57"/>
+      <c r="I294" s="57"/>
     </row>
     <row r="295" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="8"/>
-      <c r="B295" s="55" t="s">
+      <c r="A295" s="46"/>
+      <c r="B295" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C295" s="55"/>
-      <c r="D295" s="55"/>
-      <c r="E295" s="55"/>
-      <c r="F295" s="55"/>
-      <c r="G295" s="55"/>
-      <c r="H295" s="55"/>
-      <c r="I295" s="55"/>
+      <c r="C295" s="57"/>
+      <c r="D295" s="57"/>
+      <c r="E295" s="57"/>
+      <c r="F295" s="57"/>
+      <c r="G295" s="57"/>
+      <c r="H295" s="57"/>
+      <c r="I295" s="57"/>
     </row>
     <row r="296" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="8"/>
-      <c r="B296" s="55" t="s">
+      <c r="A296" s="46"/>
+      <c r="B296" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C296" s="55"/>
-      <c r="D296" s="55"/>
-      <c r="E296" s="55"/>
-      <c r="F296" s="55"/>
-      <c r="G296" s="55"/>
-      <c r="H296" s="55"/>
-      <c r="I296" s="55"/>
+      <c r="C296" s="57"/>
+      <c r="D296" s="57"/>
+      <c r="E296" s="57"/>
+      <c r="F296" s="57"/>
+      <c r="G296" s="57"/>
+      <c r="H296" s="57"/>
+      <c r="I296" s="57"/>
     </row>
     <row r="297" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="8">
+      <c r="A297" s="46">
         <v>14</v>
       </c>
-      <c r="B297" s="55" t="s">
+      <c r="B297" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C297" s="55"/>
-      <c r="D297" s="55"/>
-      <c r="E297" s="55"/>
-      <c r="F297" s="55"/>
-      <c r="G297" s="55"/>
-      <c r="H297" s="55"/>
-      <c r="I297" s="55"/>
+      <c r="C297" s="57"/>
+      <c r="D297" s="57"/>
+      <c r="E297" s="57"/>
+      <c r="F297" s="57"/>
+      <c r="G297" s="57"/>
+      <c r="H297" s="57"/>
+      <c r="I297" s="57"/>
     </row>
     <row r="298" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="8"/>
-      <c r="B298" s="55" t="s">
+      <c r="A298" s="46"/>
+      <c r="B298" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C298" s="55"/>
-      <c r="D298" s="55"/>
-      <c r="E298" s="55"/>
-      <c r="F298" s="55"/>
-      <c r="G298" s="55"/>
-      <c r="H298" s="55"/>
-      <c r="I298" s="55"/>
+      <c r="C298" s="57"/>
+      <c r="D298" s="57"/>
+      <c r="E298" s="57"/>
+      <c r="F298" s="57"/>
+      <c r="G298" s="57"/>
+      <c r="H298" s="57"/>
+      <c r="I298" s="57"/>
     </row>
     <row r="299" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="8"/>
-      <c r="B299" s="55" t="s">
+      <c r="A299" s="46"/>
+      <c r="B299" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C299" s="55"/>
-      <c r="D299" s="55"/>
-      <c r="E299" s="55"/>
-      <c r="F299" s="55"/>
-      <c r="G299" s="55"/>
-      <c r="H299" s="55"/>
-      <c r="I299" s="55"/>
+      <c r="C299" s="57"/>
+      <c r="D299" s="57"/>
+      <c r="E299" s="57"/>
+      <c r="F299" s="57"/>
+      <c r="G299" s="57"/>
+      <c r="H299" s="57"/>
+      <c r="I299" s="57"/>
     </row>
     <row r="300" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="8"/>
-      <c r="B300" s="55" t="s">
+      <c r="A300" s="46"/>
+      <c r="B300" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C300" s="55"/>
-      <c r="D300" s="55"/>
-      <c r="E300" s="55"/>
-      <c r="F300" s="55"/>
-      <c r="G300" s="55"/>
-      <c r="H300" s="55"/>
-      <c r="I300" s="55"/>
+      <c r="C300" s="57"/>
+      <c r="D300" s="57"/>
+      <c r="E300" s="57"/>
+      <c r="F300" s="57"/>
+      <c r="G300" s="57"/>
+      <c r="H300" s="57"/>
+      <c r="I300" s="57"/>
     </row>
     <row r="301" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="8"/>
-      <c r="B301" s="55" t="s">
+      <c r="A301" s="46"/>
+      <c r="B301" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C301" s="55"/>
-      <c r="D301" s="55"/>
-      <c r="E301" s="55"/>
-      <c r="F301" s="55"/>
-      <c r="G301" s="55"/>
-      <c r="H301" s="55"/>
-      <c r="I301" s="55"/>
+      <c r="C301" s="57"/>
+      <c r="D301" s="57"/>
+      <c r="E301" s="57"/>
+      <c r="F301" s="57"/>
+      <c r="G301" s="57"/>
+      <c r="H301" s="57"/>
+      <c r="I301" s="57"/>
     </row>
     <row r="302" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="8">
+      <c r="A302" s="46">
         <v>15</v>
       </c>
-      <c r="B302" s="55" t="s">
+      <c r="B302" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C302" s="55"/>
-      <c r="D302" s="55"/>
-      <c r="E302" s="55"/>
-      <c r="F302" s="55"/>
-      <c r="G302" s="55"/>
-      <c r="H302" s="55"/>
-      <c r="I302" s="55"/>
+      <c r="C302" s="57"/>
+      <c r="D302" s="57"/>
+      <c r="E302" s="57"/>
+      <c r="F302" s="57"/>
+      <c r="G302" s="57"/>
+      <c r="H302" s="57"/>
+      <c r="I302" s="57"/>
     </row>
     <row r="303" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="8">
+      <c r="A303" s="46">
         <v>16</v>
       </c>
-      <c r="B303" s="55" t="s">
+      <c r="B303" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C303" s="55"/>
-      <c r="D303" s="55"/>
-      <c r="E303" s="55"/>
-      <c r="F303" s="55"/>
-      <c r="G303" s="55"/>
-      <c r="H303" s="55"/>
-      <c r="I303" s="55"/>
+      <c r="C303" s="57"/>
+      <c r="D303" s="57"/>
+      <c r="E303" s="57"/>
+      <c r="F303" s="57"/>
+      <c r="G303" s="57"/>
+      <c r="H303" s="57"/>
+      <c r="I303" s="57"/>
     </row>
     <row r="304" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="8">
+      <c r="A304" s="46">
         <v>17</v>
       </c>
-      <c r="B304" s="55" t="s">
+      <c r="B304" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C304" s="55"/>
-      <c r="D304" s="55"/>
-      <c r="E304" s="55"/>
-      <c r="F304" s="55"/>
-      <c r="G304" s="55"/>
-      <c r="H304" s="55"/>
-      <c r="I304" s="55"/>
+      <c r="C304" s="57"/>
+      <c r="D304" s="57"/>
+      <c r="E304" s="57"/>
+      <c r="F304" s="57"/>
+      <c r="G304" s="57"/>
+      <c r="H304" s="57"/>
+      <c r="I304" s="57"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="27"/>
+      <c r="A305" s="47"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="27"/>
+      <c r="A306" s="47"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="27"/>
+      <c r="A307" s="47"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="27"/>
+      <c r="A308" s="47"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="27"/>
+      <c r="A309" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="84">
